--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -2089,7 +2089,7 @@
     <t>Jerry's Car Wash</t>
   </si>
   <si>
-    <t>Jerry’s Car Wash</t>
+    <t>Jerry’s Car Wash (PA)</t>
   </si>
   <si>
     <t>Jerry's Express Car Wash</t>

--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="550">
   <si>
     <t>Company Name</t>
   </si>
@@ -244,6 +244,21 @@
     <t>https://www.autobell.com/</t>
   </si>
   <si>
+    <t>Summit Wash Holdings</t>
+  </si>
+  <si>
+    <t>Connecticut &amp; Florida</t>
+  </si>
+  <si>
+    <t>New Mountain Capital</t>
+  </si>
+  <si>
+    <t>New York | Nebraska | Connecticut | Missouri | Florida</t>
+  </si>
+  <si>
+    <t>https://www.summitwashassociates.com/</t>
+  </si>
+  <si>
     <t>LUV Car Wash</t>
   </si>
   <si>
@@ -256,21 +271,6 @@
     <t>https://luvcarwash.com/</t>
   </si>
   <si>
-    <t>Summit Wash Holdings</t>
-  </si>
-  <si>
-    <t>Connecticut &amp; Florida</t>
-  </si>
-  <si>
-    <t>New Mountain Capital</t>
-  </si>
-  <si>
-    <t>New York | Nebraska | Connecticut | Missouri | Florida</t>
-  </si>
-  <si>
-    <t>https://www.summitwashassociates.com/</t>
-  </si>
-  <si>
     <t>True Blue Car Wash</t>
   </si>
   <si>
@@ -664,6 +664,9 @@
     <t>Fast 5 Xpress Car Wash</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>https://www.fast5xpress.com/</t>
   </si>
   <si>
@@ -1523,6 +1526,12 @@
   </si>
   <si>
     <t>https://americanpridexpress.com/</t>
+  </si>
+  <si>
+    <t>Bebo's Carwash</t>
+  </si>
+  <si>
+    <t>https://www.beboscarwash.com/</t>
   </si>
   <si>
     <t>Canton Car Wash</t>
@@ -2449,7 +2458,7 @@
         <v>2018.0</v>
       </c>
       <c r="D14" s="2">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>34</v>
@@ -2563,22 +2572,22 @@
         <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D17" s="2">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2600,16 +2609,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D18" s="2">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -4113,7 +4122,9 @@
       <c r="B56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="D56" s="2">
         <v>24.0</v>
       </c>
@@ -4124,7 +4135,7 @@
         <v>28</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4146,7 +4157,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>62</v>
@@ -4161,10 +4172,10 @@
         <v>44</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4186,7 +4197,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>108</v>
@@ -4204,7 +4215,7 @@
         <v>108</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4226,7 +4237,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>127</v>
@@ -4238,13 +4249,13 @@
         <v>24.0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4266,10 +4277,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2">
         <v>1981.0</v>
@@ -4278,13 +4289,13 @@
         <v>23.0</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G60" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4306,7 +4317,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>57</v>
@@ -4321,10 +4332,10 @@
         <v>44</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4346,7 +4357,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>162</v>
@@ -4358,13 +4369,13 @@
         <v>23.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4386,7 +4397,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>108</v>
@@ -4401,10 +4412,10 @@
         <v>44</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4426,7 +4437,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>23</v>
@@ -4444,7 +4455,7 @@
         <v>23</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4466,7 +4477,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>103</v>
@@ -4484,7 +4495,7 @@
         <v>103</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4506,7 +4517,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>127</v>
@@ -4518,13 +4529,13 @@
         <v>22.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4546,7 +4557,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>57</v>
@@ -4558,13 +4569,13 @@
         <v>21.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4586,7 +4597,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>18</v>
@@ -4598,13 +4609,13 @@
         <v>21.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4626,10 +4637,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C69" s="2">
         <v>2016.0</v>
@@ -4641,10 +4652,10 @@
         <v>44</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4666,7 +4677,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>116</v>
@@ -4681,10 +4692,10 @@
         <v>44</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4706,7 +4717,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>91</v>
@@ -4721,10 +4732,10 @@
         <v>44</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4746,7 +4757,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>67</v>
@@ -4764,7 +4775,7 @@
         <v>67</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4786,7 +4797,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>62</v>
@@ -4801,10 +4812,10 @@
         <v>44</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4826,7 +4837,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>13</v>
@@ -4838,13 +4849,13 @@
         <v>19.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4866,7 +4877,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>38</v>
@@ -4884,7 +4895,7 @@
         <v>38</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4906,10 +4917,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2">
         <v>2012.0</v>
@@ -4921,10 +4932,10 @@
         <v>44</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4946,10 +4957,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C77" s="2">
         <v>1995.0</v>
@@ -4961,10 +4972,10 @@
         <v>44</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4986,7 +4997,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>103</v>
@@ -4998,13 +5009,13 @@
         <v>18.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5026,7 +5037,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>181</v>
@@ -5044,7 +5055,7 @@
         <v>181</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5066,10 +5077,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C80" s="2">
         <v>1976.0</v>
@@ -5081,10 +5092,10 @@
         <v>44</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5106,7 +5117,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>103</v>
@@ -5119,10 +5130,10 @@
         <v>44</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5144,7 +5155,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
@@ -5159,10 +5170,10 @@
         <v>44</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5184,7 +5195,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>28</v>
@@ -5202,7 +5213,7 @@
         <v>28</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5224,7 +5235,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>38</v>
@@ -5242,7 +5253,7 @@
         <v>38</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5264,7 +5275,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>43</v>
@@ -5282,7 +5293,7 @@
         <v>43</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5304,7 +5315,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>103</v>
@@ -5322,7 +5333,7 @@
         <v>103</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5344,7 +5355,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>43</v>
@@ -5362,7 +5373,7 @@
         <v>43</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5384,7 +5395,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>108</v>
@@ -5399,10 +5410,10 @@
         <v>44</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5424,10 +5435,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C89" s="2">
         <v>1993.0</v>
@@ -5439,10 +5450,10 @@
         <v>44</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5464,10 +5475,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C90" s="2">
         <v>1976.0</v>
@@ -5479,10 +5490,10 @@
         <v>44</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5504,7 +5515,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>57</v>
@@ -5519,10 +5530,10 @@
         <v>44</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5544,7 +5555,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>150</v>
@@ -5559,10 +5570,10 @@
         <v>44</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5584,7 +5595,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5616,10 +5627,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C94" s="2">
         <v>2001.0</v>
@@ -5631,10 +5642,10 @@
         <v>44</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5656,7 +5667,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>48</v>
@@ -5671,10 +5682,10 @@
         <v>44</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5696,7 +5707,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>67</v>
@@ -5708,13 +5719,13 @@
         <v>14.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5736,7 +5747,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>8</v>
@@ -5751,10 +5762,10 @@
         <v>44</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -5776,10 +5787,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C98" s="2">
         <v>1969.0</v>
@@ -5791,10 +5802,10 @@
         <v>44</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -5816,13 +5827,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D99" s="2">
         <v>14.0</v>
@@ -5831,10 +5842,10 @@
         <v>44</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -5856,10 +5867,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C100" s="2">
         <v>1987.0</v>
@@ -5871,10 +5882,10 @@
         <v>44</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -5896,10 +5907,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C101" s="2">
         <v>1994.0</v>
@@ -5911,10 +5922,10 @@
         <v>44</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -5936,7 +5947,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>57</v>
@@ -5948,13 +5959,13 @@
         <v>13.0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5976,10 +5987,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C103" s="2">
         <v>1981.0</v>
@@ -5991,10 +6002,10 @@
         <v>44</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6016,13 +6027,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D104" s="2">
         <v>13.0</v>
@@ -6034,7 +6045,7 @@
         <v>57</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -6056,7 +6067,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>13</v>
@@ -6074,7 +6085,7 @@
         <v>13</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6096,7 +6107,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>57</v>
@@ -6114,7 +6125,7 @@
         <v>57</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6136,10 +6147,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C107" s="2">
         <v>2020.0</v>
@@ -6151,10 +6162,10 @@
         <v>44</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6176,7 +6187,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>18</v>
@@ -6188,13 +6199,13 @@
         <v>13.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6216,7 +6227,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>38</v>
@@ -6228,13 +6239,13 @@
         <v>13.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -6256,10 +6267,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C110" s="2">
         <v>2010.0</v>
@@ -6271,10 +6282,10 @@
         <v>44</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -6296,7 +6307,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>43</v>
@@ -6314,7 +6325,7 @@
         <v>43</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6336,10 +6347,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C112" s="2">
         <v>2023.0</v>
@@ -6351,10 +6362,10 @@
         <v>44</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6376,7 +6387,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>150</v>
@@ -6394,7 +6405,7 @@
         <v>150</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6416,10 +6427,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C114" s="2">
         <v>2013.0</v>
@@ -6431,10 +6442,10 @@
         <v>44</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6456,7 +6467,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>28</v>
@@ -6474,7 +6485,7 @@
         <v>28</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6496,13 +6507,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D116" s="2">
         <v>12.0</v>
@@ -6511,10 +6522,10 @@
         <v>44</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6536,10 +6547,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C117" s="2">
         <v>2023.0</v>
@@ -6551,10 +6562,10 @@
         <v>44</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6576,10 +6587,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C118" s="2">
         <v>2006.0</v>
@@ -6591,10 +6602,10 @@
         <v>44</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6616,7 +6627,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>28</v>
@@ -6634,7 +6645,7 @@
         <v>28</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6656,7 +6667,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>194</v>
@@ -6671,10 +6682,10 @@
         <v>44</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6696,7 +6707,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>28</v>
@@ -6714,7 +6725,7 @@
         <v>28</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -6736,7 +6747,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>57</v>
@@ -6748,13 +6759,13 @@
         <v>11.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -6776,12 +6787,14 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C123" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="D123" s="2">
         <v>11.0</v>
       </c>
@@ -6789,10 +6802,10 @@
         <v>44</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -6814,7 +6827,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>28</v>
@@ -6832,7 +6845,7 @@
         <v>28</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -6854,10 +6867,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C125" s="2">
         <v>1947.0</v>
@@ -6869,10 +6882,10 @@
         <v>44</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -6894,7 +6907,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>150</v>
@@ -6909,10 +6922,10 @@
         <v>44</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -6934,10 +6947,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C127" s="2">
         <v>2015.0</v>
@@ -6946,13 +6959,13 @@
         <v>11.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -6974,7 +6987,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>18</v>
@@ -6989,10 +7002,10 @@
         <v>44</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7014,10 +7027,10 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="2">
@@ -7027,10 +7040,10 @@
         <v>44</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7052,7 +7065,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>18</v>
@@ -7070,7 +7083,7 @@
         <v>136</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7092,7 +7105,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>33</v>
@@ -7107,10 +7120,10 @@
         <v>44</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7132,7 +7145,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>194</v>
@@ -7147,10 +7160,10 @@
         <v>44</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7172,7 +7185,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>91</v>
@@ -7187,10 +7200,10 @@
         <v>44</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -7212,7 +7225,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>38</v>
@@ -7230,7 +7243,7 @@
         <v>38</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -7252,7 +7265,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>62</v>
@@ -7267,10 +7280,10 @@
         <v>44</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7292,7 +7305,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>176</v>
@@ -7307,10 +7320,10 @@
         <v>44</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -7332,7 +7345,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>18</v>
@@ -7350,7 +7363,7 @@
         <v>18</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7372,7 +7385,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>194</v>
@@ -7387,10 +7400,10 @@
         <v>44</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7412,7 +7425,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>57</v>
@@ -7430,7 +7443,7 @@
         <v>57</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7452,7 +7465,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>57</v>
@@ -7470,7 +7483,7 @@
         <v>57</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7492,7 +7505,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>181</v>
@@ -7510,7 +7523,7 @@
         <v>181</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7532,10 +7545,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C142" s="2">
         <v>1951.0</v>
@@ -7547,10 +7560,10 @@
         <v>44</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7572,7 +7585,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>38</v>
@@ -7590,7 +7603,7 @@
         <v>38</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7612,7 +7625,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>127</v>
@@ -7627,10 +7640,10 @@
         <v>44</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -7652,7 +7665,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>203</v>
@@ -7670,7 +7683,7 @@
         <v>203</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -7692,7 +7705,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>103</v>
@@ -7710,7 +7723,7 @@
         <v>103</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -7732,7 +7745,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>48</v>
@@ -7747,10 +7760,10 @@
         <v>44</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -7772,10 +7785,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C148" s="2">
         <v>1998.0</v>
@@ -7787,10 +7800,10 @@
         <v>44</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -7812,7 +7825,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>38</v>
@@ -7827,10 +7840,10 @@
         <v>44</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -7852,7 +7865,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>13</v>
@@ -7870,7 +7883,7 @@
         <v>13</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -7892,7 +7905,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>57</v>
@@ -7910,7 +7923,7 @@
         <v>57</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -7932,7 +7945,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>28</v>
@@ -7950,7 +7963,7 @@
         <v>28</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -7972,7 +7985,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>103</v>
@@ -7984,13 +7997,13 @@
         <v>8.0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8012,7 +8025,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>43</v>
@@ -8030,7 +8043,7 @@
         <v>43</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -8052,7 +8065,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>38</v>
@@ -8070,7 +8083,7 @@
         <v>38</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8092,7 +8105,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>28</v>
@@ -8104,13 +8117,13 @@
         <v>7.0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8132,10 +8145,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C157" s="2">
         <v>2018.0</v>
@@ -8147,10 +8160,10 @@
         <v>44</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8172,7 +8185,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>62</v>
@@ -8190,7 +8203,7 @@
         <v>62</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8212,7 +8225,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>8</v>
@@ -8230,7 +8243,7 @@
         <v>8</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8252,25 +8265,23 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2">
-        <v>2009.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D160" s="2">
         <v>6.0</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8292,12 +8303,14 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C161" s="1"/>
+        <v>346</v>
+      </c>
+      <c r="C161" s="2">
+        <v>2009.0</v>
+      </c>
       <c r="D161" s="2">
         <v>6.0</v>
       </c>
@@ -8305,10 +8318,10 @@
         <v>44</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8330,14 +8343,12 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1966.0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C162" s="1"/>
       <c r="D162" s="2">
         <v>6.0</v>
       </c>
@@ -8345,7 +8356,7 @@
         <v>44</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>509</v>
+        <v>57</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>510</v>
@@ -8373,19 +8384,19 @@
         <v>511</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>417</v>
+        <v>91</v>
       </c>
       <c r="C163" s="2">
-        <v>2010.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D163" s="2">
         <v>6.0</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>513</v>
@@ -8413,22 +8424,22 @@
         <v>514</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="C164" s="2">
-        <v>2006.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D164" s="2">
         <v>6.0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8450,13 +8461,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C165" s="2">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D165" s="2">
         <v>6.0</v>
@@ -8465,7 +8476,7 @@
         <v>44</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>517</v>
+        <v>162</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>518</v>
@@ -8493,10 +8504,10 @@
         <v>519</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C166" s="2">
-        <v>2023.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D166" s="2">
         <v>6.0</v>
@@ -8505,10 +8516,10 @@
         <v>44</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>62</v>
+        <v>520</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8530,13 +8541,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="C167" s="2">
-        <v>1985.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D167" s="2">
         <v>6.0</v>
@@ -8545,10 +8556,10 @@
         <v>44</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8570,13 +8581,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="C168" s="2">
-        <v>2018.0</v>
+        <v>1985.0</v>
       </c>
       <c r="D168" s="2">
         <v>6.0</v>
@@ -8585,10 +8596,10 @@
         <v>44</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -8610,13 +8621,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C169" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D169" s="2">
         <v>6.0</v>
@@ -8625,10 +8636,10 @@
         <v>44</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -8650,22 +8661,22 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>528</v>
+        <v>18</v>
       </c>
       <c r="C170" s="2">
-        <v>2006.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D170" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>528</v>
+        <v>18</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>529</v>
@@ -8693,10 +8704,10 @@
         <v>530</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>57</v>
+        <v>531</v>
       </c>
       <c r="C171" s="2">
-        <v>2012.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D171" s="2">
         <v>5.0</v>
@@ -8705,10 +8716,10 @@
         <v>44</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>57</v>
+        <v>531</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -8730,23 +8741,25 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C172" s="2">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D172" s="2">
         <v>5.0</v>
       </c>
-      <c r="E172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F172" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -8768,25 +8781,23 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="C173" s="2">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D173" s="2">
         <v>5.0</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -8808,12 +8819,14 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C174" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2018.0</v>
+      </c>
       <c r="D174" s="2">
         <v>5.0</v>
       </c>
@@ -8821,7 +8834,7 @@
         <v>44</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>537</v>
+        <v>194</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>538</v>
@@ -8849,10 +8862,10 @@
         <v>539</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C175" s="2">
-        <v>2021.0</v>
+        <v>48</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="D175" s="2">
         <v>5.0</v>
@@ -8861,10 +8874,10 @@
         <v>44</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>28</v>
+        <v>540</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -8886,13 +8899,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C176" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D176" s="2">
         <v>5.0</v>
@@ -8901,7 +8914,7 @@
         <v>44</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>542</v>
+        <v>28</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>543</v>
@@ -8929,10 +8942,10 @@
         <v>544</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="C177" s="2">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D177" s="2">
         <v>5.0</v>
@@ -8941,10 +8954,10 @@
         <v>44</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>176</v>
+        <v>545</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -8966,18 +8979,26 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+        <v>547</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2017.0</v>
+      </c>
       <c r="D178" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>548</v>
+      </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -8997,11 +9018,17 @@
       <c r="X178" s="1"/>
     </row>
     <row r="179">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
+      <c r="D179" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -30544,7 +30571,8 @@
     <hyperlink r:id="rId172" ref="G175"/>
     <hyperlink r:id="rId173" ref="G176"/>
     <hyperlink r:id="rId174" ref="G177"/>
+    <hyperlink r:id="rId175" ref="G178"/>
   </hyperlinks>
-  <drawing r:id="rId175"/>
+  <drawing r:id="rId176"/>
 </worksheet>
 </file>
--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="552">
   <si>
     <t>Company Name</t>
   </si>
@@ -109,6 +109,21 @@
     <t>https://www.dontdrivedirty.com/</t>
   </si>
   <si>
+    <t>Tommy’s Express Car Wash</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Florida | Georgia | South Carolina | North Carolina | Louisiana | Tennessee | Mississippi | Virginia | Kentucky | Maryland | Indiana | Arkansas | Delaware | Texas | Pennsylvania | Missouri | Oklahoma | Michigan | Illinois | Iowa | Kansas | New York | Wisconsin | Nebraska | Minnesota | Colorado | South Dakota | North Dakota | Wyoming | Utah | Nevada | Idaho | California | Alaska | Washington</t>
+  </si>
+  <si>
+    <t>https://tommys-express.com/</t>
+  </si>
+  <si>
     <t>Club Car Wash</t>
   </si>
   <si>
@@ -139,21 +154,6 @@
     <t>https://www.spotlessbrands.com/</t>
   </si>
   <si>
-    <t>Tommy’s Express Car Wash</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Florida | Georgia | South Carolina | North Carolina | Louisiana | Tennessee | Mississippi | Virginia | Kentucky | Maryland | Indiana | Arkansas | Delaware | Texas | Pennsylvania | Missouri | Oklahoma | Michigan | Illinois | Iowa | Kansas | New York | Wisconsin | Nebraska | Minnesota | Colorado | South Dakota | North Dakota | Wyoming | Utah | Nevada | Idaho | California | Alaska | Washington</t>
-  </si>
-  <si>
-    <t>https://tommys-express.com/</t>
-  </si>
-  <si>
     <t>GO Car Wash</t>
   </si>
   <si>
@@ -271,6 +271,21 @@
     <t>https://luvcarwash.com/</t>
   </si>
   <si>
+    <t>Splash Car Wash</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>AEA Investors</t>
+  </si>
+  <si>
+    <t>Connecticut | New York | Vermont | Massachusetts</t>
+  </si>
+  <si>
+    <t>https://splashcarwashes.com/</t>
+  </si>
+  <si>
     <t>True Blue Car Wash</t>
   </si>
   <si>
@@ -283,21 +298,6 @@
     <t>https://truebluecw.com/</t>
   </si>
   <si>
-    <t>Splash Car Wash</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Palladin Consumer Retail Partners</t>
-  </si>
-  <si>
-    <t>Connecticut | New York | Vermont | Massachusetts</t>
-  </si>
-  <si>
-    <t>https://splashcarwashes.com/</t>
-  </si>
-  <si>
     <t>Caliber Car Wash</t>
   </si>
   <si>
@@ -331,22 +331,31 @@
     <t>https://elcarwash.com/</t>
   </si>
   <si>
+    <t>Golden Nozzle Car Wash</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Nouria Energy</t>
+  </si>
+  <si>
+    <t>Connecticut | Maine | Massachusetts | New Hampshire | Rhode Island</t>
+  </si>
+  <si>
+    <t>https://goldennozzlecarwash.com/</t>
+  </si>
+  <si>
     <t>Splash in ECO Car Wash</t>
   </si>
   <si>
-    <t>Golden Nozzle Car Wash</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Nouria Energy</t>
-  </si>
-  <si>
-    <t>Connecticut | Maine | Massachusetts | New Hampshire | Rhode Island</t>
-  </si>
-  <si>
-    <t>https://goldennozzlecarwash.com/</t>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Maryland | Delaware | Virginia</t>
+  </si>
+  <si>
+    <t>https://www.splashin.com/</t>
   </si>
   <si>
     <t>Champion Xpress Carwash</t>
@@ -403,6 +412,18 @@
     <t>https://www.terribles.com/</t>
   </si>
   <si>
+    <t>Raceway Express Car Wash</t>
+  </si>
+  <si>
+    <t>Clear Sky Capital</t>
+  </si>
+  <si>
+    <t>Arizona | California | Nevada | Texas</t>
+  </si>
+  <si>
+    <t>https://racewaycarwash.com/</t>
+  </si>
+  <si>
     <t>Big Dan's Car Wash</t>
   </si>
   <si>
@@ -427,18 +448,6 @@
     <t>https://www.mrcleancarwash.com/</t>
   </si>
   <si>
-    <t>Raceway Express Car Wash</t>
-  </si>
-  <si>
-    <t>Clear Sky Capital</t>
-  </si>
-  <si>
-    <t>Arizona | California | Nevada | Texas</t>
-  </si>
-  <si>
-    <t>https://racewaycarwash.com/</t>
-  </si>
-  <si>
     <t>Sparkling Image Car Wash</t>
   </si>
   <si>
@@ -487,6 +496,9 @@
     <t>Texas | Oregon | Arizona | California | Washington</t>
   </si>
   <si>
+    <t>https://surfthruexpress.com/</t>
+  </si>
+  <si>
     <t>Watershed Carwash</t>
   </si>
   <si>
@@ -496,231 +508,216 @@
     <t>https://watershedcarwash.com/</t>
   </si>
   <si>
-    <t>WetGo Car Wash</t>
+    <t>Delta Sonic</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>New York | Illinois | Pennsylvania</t>
+  </si>
+  <si>
+    <t>https://www.deltasoniccarwash.com/</t>
+  </si>
+  <si>
+    <t>The Wash Tub</t>
+  </si>
+  <si>
+    <t>https://www.washtub.com/</t>
+  </si>
+  <si>
+    <t>Gas N Wash</t>
+  </si>
+  <si>
+    <t>Bow River Capital</t>
+  </si>
+  <si>
+    <t>https://www.gasnwash.net/</t>
+  </si>
+  <si>
+    <t>Hurricane Express Wash</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>PassiveInvesting.com</t>
+  </si>
+  <si>
+    <t>Tennessee | South Carolina | North Carolina | Florida | Maryland | Virginia | Alabama</t>
+  </si>
+  <si>
+    <t>https://www.hurricanewash.com/</t>
+  </si>
+  <si>
+    <t>Brown Bear Car Wash</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>https://www.brownbear.com/</t>
+  </si>
+  <si>
+    <t>Waterway Carwash</t>
+  </si>
+  <si>
+    <t>Kansas | Montana | Colorado | Illinois | Ohio</t>
+  </si>
+  <si>
+    <t>https://www.waterway.com/</t>
+  </si>
+  <si>
+    <t>Hoffman Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.hoffmancarwash.com/</t>
+  </si>
+  <si>
+    <t>Quick N Clean</t>
+  </si>
+  <si>
+    <t>Arizona | Colorado | Oklahoma | Texas</t>
+  </si>
+  <si>
+    <t>https://quicknclean.net/</t>
+  </si>
+  <si>
+    <t>ClearWater Express Wash</t>
+  </si>
+  <si>
+    <t>https://www.clearwaterexpresswash.com</t>
+  </si>
+  <si>
+    <t>Thoroughbred Express Auto Wash</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Freestone Capital</t>
+  </si>
+  <si>
+    <t>Indiana | Kentucky | Ohio | Oregon | West Virginia | Washington</t>
+  </si>
+  <si>
+    <t>https://thoroughbredexpress.com/</t>
+  </si>
+  <si>
+    <t>Trademark Car Wash</t>
+  </si>
+  <si>
+    <t>Princeton Equity Group / Accelerated Brands</t>
+  </si>
+  <si>
+    <t>Texas | Louisiana | Florida | New Mexico | Arizona | Tennessee | Michigan | Missouri</t>
+  </si>
+  <si>
+    <t>https://trademarkcarwash.com/</t>
+  </si>
+  <si>
+    <t>Rocket Carwash</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>City+Ventures</t>
+  </si>
+  <si>
+    <t>Nebraska | Pennsylvania | Texas | California | Iowa | Utah | Florida</t>
+  </si>
+  <si>
+    <t>https://rocketcarwash.com/</t>
+  </si>
+  <si>
+    <t>Soapy Joe’s Car Wash</t>
+  </si>
+  <si>
+    <t>https://soapyjoescarwash.com/</t>
+  </si>
+  <si>
+    <t>Wash Masters Car Wash</t>
+  </si>
+  <si>
+    <t>Victron Energy Company</t>
+  </si>
+  <si>
+    <t>https://washmasters.com/</t>
+  </si>
+  <si>
+    <t>Washville Car Wash</t>
+  </si>
+  <si>
+    <t>Garnett Reynolds Holdings</t>
+  </si>
+  <si>
+    <t>New York | Massachusetts | Rhode Island | New Hampshire | Maine</t>
+  </si>
+  <si>
+    <t>https://washvillecarwash.com/</t>
+  </si>
+  <si>
+    <t>Fast 5 Xpress Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.fast5xpress.com/</t>
+  </si>
+  <si>
+    <t>Glide XPRESS Car Wash</t>
+  </si>
+  <si>
+    <t>Tennessee | Missouri | Arkansas | Mississippi</t>
+  </si>
+  <si>
+    <t>https://www.glidexwash.com/</t>
+  </si>
+  <si>
+    <t>Prestige Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.prestigewash.com/</t>
+  </si>
+  <si>
+    <t>Ultra Clean Express</t>
+  </si>
+  <si>
+    <t>Lindsay Goldberg</t>
+  </si>
+  <si>
+    <t>Arizona | Nevada</t>
+  </si>
+  <si>
+    <t>https://ultracleanexpress.com/</t>
+  </si>
+  <si>
+    <t>Flagstop Car Wash</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Garnet Station Partners</t>
+  </si>
+  <si>
+    <t>https://www.flagstopcarwash.com/</t>
+  </si>
+  <si>
+    <t>Mighty Wash</t>
+  </si>
+  <si>
+    <t>Texas | New Mexico</t>
+  </si>
+  <si>
+    <t>https://mymightywash.com/</t>
+  </si>
+  <si>
+    <t>Mr. Magic Car Wash</t>
   </si>
   <si>
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>Giant Eagle</t>
-  </si>
-  <si>
-    <t>Pennsylvania | Ohio</t>
-  </si>
-  <si>
-    <t>http://unlimited.getgocafe.com</t>
-  </si>
-  <si>
-    <t>Delta Sonic</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>New York | Illinois | Pennsylvania</t>
-  </si>
-  <si>
-    <t>https://www.deltasoniccarwash.com/</t>
-  </si>
-  <si>
-    <t>The Wash Tub</t>
-  </si>
-  <si>
-    <t>https://www.washtub.com/</t>
-  </si>
-  <si>
-    <t>Gas N Wash</t>
-  </si>
-  <si>
-    <t>Bow River Capital</t>
-  </si>
-  <si>
-    <t>https://www.gasnwash.net/</t>
-  </si>
-  <si>
-    <t>Hurricane Express Wash</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>PassiveInvesting.com</t>
-  </si>
-  <si>
-    <t>Tennessee | South Carolina | North Carolina | Florida | Maryland | Virginia | Alabama</t>
-  </si>
-  <si>
-    <t>https://www.hurricanewash.com/</t>
-  </si>
-  <si>
-    <t>Brown Bear Car Wash</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>https://www.brownbear.com/</t>
-  </si>
-  <si>
-    <t>Waterway Carwash</t>
-  </si>
-  <si>
-    <t>Kansas | Montana | Colorado | Illinois | Ohio</t>
-  </si>
-  <si>
-    <t>https://www.waterway.com/</t>
-  </si>
-  <si>
-    <t>Hoffman Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.hoffmancarwash.com/</t>
-  </si>
-  <si>
-    <t>Quick N Clean</t>
-  </si>
-  <si>
-    <t>Arizona | Colorado | Oklahoma | Texas</t>
-  </si>
-  <si>
-    <t>https://quicknclean.net/</t>
-  </si>
-  <si>
-    <t>ClearWater Express Wash</t>
-  </si>
-  <si>
-    <t>https://www.clearwaterexpresswash.com</t>
-  </si>
-  <si>
-    <t>Thoroughbred Express Auto Wash</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Freestone Capital</t>
-  </si>
-  <si>
-    <t>Indiana | Kentucky | Ohio | Oregon | West Virginia | Washington</t>
-  </si>
-  <si>
-    <t>https://thoroughbredexpress.com/</t>
-  </si>
-  <si>
-    <t>Trademark Car Wash</t>
-  </si>
-  <si>
-    <t>Princeton Equity Group / Accelerated Brands</t>
-  </si>
-  <si>
-    <t>Texas | Louisiana | Florida | New Mexico | Arizona | Tennessee | Michigan | Missouri</t>
-  </si>
-  <si>
-    <t>https://trademarkcarwash.com/</t>
-  </si>
-  <si>
-    <t>Rocket Carwash</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>City+Ventures</t>
-  </si>
-  <si>
-    <t>Nebraska | Pennsylvania | Texas | California | Iowa | Utah | Florida</t>
-  </si>
-  <si>
-    <t>https://rocketcarwash.com/</t>
-  </si>
-  <si>
-    <t>Soapy Joe’s Car Wash</t>
-  </si>
-  <si>
-    <t>https://soapyjoescarwash.com/</t>
-  </si>
-  <si>
-    <t>Wash Masters Car Wash</t>
-  </si>
-  <si>
-    <t>Victron Energy Company</t>
-  </si>
-  <si>
-    <t>https://washmasters.com/</t>
-  </si>
-  <si>
-    <t>Washville Car Wash</t>
-  </si>
-  <si>
-    <t>Garnett Reynolds Holdings</t>
-  </si>
-  <si>
-    <t>New York | Massachusetts | Rhode Island | New Hampshire | Maine</t>
-  </si>
-  <si>
-    <t>https://washvillecarwash.com/</t>
-  </si>
-  <si>
-    <t>Fast 5 Xpress Car Wash</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>https://www.fast5xpress.com/</t>
-  </si>
-  <si>
-    <t>Glide XPRESS Car Wash</t>
-  </si>
-  <si>
-    <t>Tennessee | Missouri | Arkansas | Mississippi</t>
-  </si>
-  <si>
-    <t>https://www.glidexwash.com/</t>
-  </si>
-  <si>
-    <t>Prestige Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.prestigewash.com/</t>
-  </si>
-  <si>
-    <t>Ultra Clean Express</t>
-  </si>
-  <si>
-    <t>Lindsay Goldberg</t>
-  </si>
-  <si>
-    <t>Arizona | Nevada</t>
-  </si>
-  <si>
-    <t>https://ultracleanexpress.com/</t>
-  </si>
-  <si>
-    <t>Flagstop Car Wash</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Garnet Station Partners</t>
-  </si>
-  <si>
-    <t>https://www.flagstopcarwash.com/</t>
-  </si>
-  <si>
-    <t>Mighty Wash</t>
-  </si>
-  <si>
-    <t>Texas | New Mexico</t>
-  </si>
-  <si>
-    <t>https://mymightywash.com/</t>
-  </si>
-  <si>
-    <t>Mr. Magic Car Wash</t>
-  </si>
-  <si>
     <t>Incline Equity Partners</t>
   </si>
   <si>
@@ -931,6 +928,15 @@
     <t>https://zaxautowash.com/</t>
   </si>
   <si>
+    <t>Cheetah Clean Auto Wash</t>
+  </si>
+  <si>
+    <t>Kentucky | Tennessee</t>
+  </si>
+  <si>
+    <t>https://cheetahclean.com/</t>
+  </si>
+  <si>
     <t>Haffner's</t>
   </si>
   <si>
@@ -982,667 +988,670 @@
     <t>https://www.mach1expresswash.com/</t>
   </si>
   <si>
+    <t>Rocky Mountain Car Wash</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Wyoming | Montana</t>
+  </si>
+  <si>
+    <t>https://rockymountaincarwash.com/</t>
+  </si>
+  <si>
+    <t>Breeze Thru Car Wash</t>
+  </si>
+  <si>
+    <t>Colorado | Wyoming</t>
+  </si>
+  <si>
+    <t>https://breezethrucarwash.com/</t>
+  </si>
+  <si>
+    <t>Carriage House Car Wash</t>
+  </si>
+  <si>
+    <t>Tire Discounters</t>
+  </si>
+  <si>
+    <t>Ohio | Indiana</t>
+  </si>
+  <si>
+    <t>https://carriagehousecarwash.com/</t>
+  </si>
+  <si>
+    <t>EDGE Express Car Wash</t>
+  </si>
+  <si>
+    <t>North Carolina | South Carolina | Virginia</t>
+  </si>
+  <si>
+    <t>https://www.edgeexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Metro Express Car Wash</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Idaho | Montana | Washington | Colorado | California | Missouri | Arizona | Kansas</t>
+  </si>
+  <si>
+    <t>https://www.metroexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Pelican Pointe Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.pelicanpointecarwash.com/</t>
+  </si>
+  <si>
+    <t>The Auto Spa</t>
+  </si>
+  <si>
+    <t>Maryland | Pennsylvania</t>
+  </si>
+  <si>
+    <t>https://www.washluberepair.com/</t>
+  </si>
+  <si>
+    <t>Valet Auto Wash</t>
+  </si>
+  <si>
+    <t>New Jersey | New York | Pennsylvania</t>
+  </si>
+  <si>
+    <t>https://valetwash.com/</t>
+  </si>
+  <si>
+    <t>All American Car Wash</t>
+  </si>
+  <si>
+    <t>Racer Classic Investments, LLC</t>
+  </si>
+  <si>
+    <t>Texas | Oklahoma</t>
+  </si>
+  <si>
+    <t>https://www.allamericancarwash.biz/</t>
+  </si>
+  <si>
+    <t>Charlie’s Car Wash</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Missouri | Kansas | Oklahoma</t>
+  </si>
+  <si>
+    <t>https://charlies.com/</t>
+  </si>
+  <si>
+    <t>iShine Express Car Wash &amp; Detail</t>
+  </si>
+  <si>
+    <t>https://ishinecarwash.com/</t>
+  </si>
+  <si>
+    <t>Jacksons</t>
+  </si>
+  <si>
+    <t>https://jacksonswash.com/</t>
+  </si>
+  <si>
+    <t>Speedy Stop Car Wash</t>
+  </si>
+  <si>
+    <t>https://speedystop.com/</t>
+  </si>
+  <si>
+    <t>Team Car Wash</t>
+  </si>
+  <si>
+    <t>https://theteamcarwash.com/</t>
+  </si>
+  <si>
+    <t>Wash-Rite Express Car Wash</t>
+  </si>
+  <si>
+    <t>Bradham Capital Holdings</t>
+  </si>
+  <si>
+    <t>Ohio | Pennsylvania | West Virginia</t>
+  </si>
+  <si>
+    <t>https://www.wash-riteunlimited.com</t>
+  </si>
+  <si>
+    <t>WashU Car Wash</t>
+  </si>
+  <si>
+    <t>Peterson Partners</t>
+  </si>
+  <si>
+    <t>Illinois | Nevada</t>
+  </si>
+  <si>
+    <t>https://www.washucarwash.com/</t>
+  </si>
+  <si>
+    <t>White Horse Auto Wash</t>
+  </si>
+  <si>
+    <t>Virginia | South Carolina</t>
+  </si>
+  <si>
+    <t>https://www.whitehorseautowash.com/</t>
+  </si>
+  <si>
+    <t>Fast Splash Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.fastsplashcarwash.com/</t>
+  </si>
+  <si>
+    <t>Hang 10 Car Wash</t>
+  </si>
+  <si>
+    <t>Florida | New Jersey | South Carolina | Virginia</t>
+  </si>
+  <si>
+    <t>https://hang10carwash.com/</t>
+  </si>
+  <si>
+    <t>Raindrop Car Wash</t>
+  </si>
+  <si>
+    <t>https://raindropcarwash.com/</t>
+  </si>
+  <si>
+    <t>RocketFast Car Wash</t>
+  </si>
+  <si>
+    <t>Louisiana | Arkansas | Texas</t>
+  </si>
+  <si>
+    <t>https://www.rocketfastcarwash.com/</t>
+  </si>
+  <si>
+    <t>Super Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://supercleanmycar.com/</t>
+  </si>
+  <si>
+    <t>Time To Shine Car Wash</t>
+  </si>
+  <si>
+    <t>2000's</t>
+  </si>
+  <si>
+    <t>Oklahoma | South Carolina | Kentucky</t>
+  </si>
+  <si>
+    <t>https://timetoshinecarwash.com/</t>
+  </si>
+  <si>
+    <t>WashX Car Wash</t>
+  </si>
+  <si>
+    <t>Maryland | Delaware</t>
+  </si>
+  <si>
+    <t>https://washx.space/</t>
+  </si>
+  <si>
+    <t>Xtreme Auto Wash</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>https://www.xtremeautowash.com/</t>
+  </si>
+  <si>
+    <t>7 Flags Car Wash</t>
+  </si>
+  <si>
+    <t>https://7flagscarwash.com/</t>
+  </si>
+  <si>
+    <t>Ducky's Car Wash</t>
+  </si>
+  <si>
+    <t>https://duckysexpress.com/</t>
+  </si>
+  <si>
+    <t>Groove Car Wash</t>
+  </si>
+  <si>
+    <t>Vaquero Ventures</t>
+  </si>
+  <si>
+    <t>Texas | Florida | Oklahoma</t>
+  </si>
+  <si>
+    <t>https://www.groovecarwash.com/</t>
+  </si>
+  <si>
+    <t>Mr Wash Car Wash</t>
+  </si>
+  <si>
+    <t>Virginia | Maryland | Delaware</t>
+  </si>
+  <si>
+    <t>https://mrwash.com/</t>
+  </si>
+  <si>
+    <t>Red Carpet Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.redcarpetcarwash.com/</t>
+  </si>
+  <si>
+    <t>Scrub-a-Dub</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>https://scrubadub.biz/</t>
+  </si>
+  <si>
+    <t>Shine Time Super Wash</t>
+  </si>
+  <si>
+    <t>Alabama | Mississippi</t>
+  </si>
+  <si>
+    <t>https://www.shinetimesuperwash.com/</t>
+  </si>
+  <si>
+    <t>Tsunami Express</t>
+  </si>
+  <si>
+    <t>Point72 Ventures</t>
+  </si>
+  <si>
+    <t>Wisconsin | Indiana | Minnesota</t>
+  </si>
+  <si>
+    <t>https://www.tsunamiexpress.com/</t>
+  </si>
+  <si>
+    <t>Wash Factory Car Wash</t>
+  </si>
+  <si>
+    <t>Georgia | Tennessee</t>
+  </si>
+  <si>
+    <t>https://www.washfactorycarwash.com/</t>
+  </si>
+  <si>
+    <t>Xpress Car Wash</t>
+  </si>
+  <si>
+    <t>Louisiana | Texas</t>
+  </si>
+  <si>
+    <t>https://timeitxpresswash.com/</t>
+  </si>
+  <si>
+    <t>Blue Penguin Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.bluepenguincarwash.com/</t>
+  </si>
+  <si>
+    <t>BriteworX Car Washery</t>
+  </si>
+  <si>
+    <t>Missouri | Illinois</t>
+  </si>
+  <si>
+    <t>https://briteworx.com/</t>
+  </si>
+  <si>
+    <t>Clean Sweep Car Wash</t>
+  </si>
+  <si>
+    <t>Illinois | Iowa | Kentucky</t>
+  </si>
+  <si>
+    <t>https://cleansweepcarwash.com/</t>
+  </si>
+  <si>
+    <t>Cloud 10 Smartwash</t>
+  </si>
+  <si>
+    <t>Pennsylvania | New Jersey</t>
+  </si>
+  <si>
+    <t>https://cloud10smartwash.com/</t>
+  </si>
+  <si>
+    <t>Everclean Car Wash</t>
+  </si>
+  <si>
+    <t>https://evercleancw.com/</t>
+  </si>
+  <si>
+    <t>Scenic Suds Car Wash</t>
+  </si>
+  <si>
+    <t>Tennessee | Georgia</t>
+  </si>
+  <si>
+    <t>https://www.scenicsuds.com/</t>
+  </si>
+  <si>
+    <t>Scrubby’s Car Wash</t>
+  </si>
+  <si>
+    <t>South Carolina | North Carolina</t>
+  </si>
+  <si>
+    <t>https://scrubbyscarwashes.com/</t>
+  </si>
+  <si>
+    <t>Skweeky Kleen Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.skweekykleen.com/</t>
+  </si>
+  <si>
+    <t>SpeedWash Car Wash</t>
+  </si>
+  <si>
+    <t>Kentucky | Indiana</t>
+  </si>
+  <si>
+    <t>https://speedwashusa.com/</t>
+  </si>
+  <si>
+    <t>Suds Deluxe Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.sudsdeluxe.com/</t>
+  </si>
+  <si>
+    <t>WashGuys Car Wash</t>
+  </si>
+  <si>
+    <t>https://washguystx.com/</t>
+  </si>
+  <si>
+    <t>Auto Spa Car Wash (WA)</t>
+  </si>
+  <si>
+    <t>https://www.autospacw.com</t>
+  </si>
+  <si>
+    <t>Benny’s Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.bennyscarwash.com/</t>
+  </si>
+  <si>
+    <t>Driven Car Wash</t>
+  </si>
+  <si>
+    <t>https://drivencarwash.com/</t>
+  </si>
+  <si>
+    <t>Fabulous Freddy’s Car Wash</t>
+  </si>
+  <si>
+    <t>Nevada | Utah</t>
+  </si>
+  <si>
+    <t>https://fabfred.com/</t>
+  </si>
+  <si>
+    <t>Jet Splash Car Wash</t>
+  </si>
+  <si>
+    <t>https://jetsplash.com</t>
+  </si>
+  <si>
+    <t>Radiant Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.radiantexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Rocket Wash</t>
+  </si>
+  <si>
+    <t>North Carolina | South Carolina</t>
+  </si>
+  <si>
+    <t>https://rocketcarwashexpress.com/</t>
+  </si>
+  <si>
+    <t>Velocity Car Wash</t>
+  </si>
+  <si>
+    <t>Colorado | Utah</t>
+  </si>
+  <si>
+    <t>https://www.velocitywash.com/</t>
+  </si>
+  <si>
+    <t>Auto Spa LA</t>
+  </si>
+  <si>
+    <t>https://autospala.com/</t>
+  </si>
+  <si>
+    <t>Clearwave Car Wash</t>
+  </si>
+  <si>
+    <t>Illinois | Michigan</t>
+  </si>
+  <si>
+    <t>https://clearwavecarwash.com/</t>
+  </si>
+  <si>
+    <t>Ocean Blue Car Wash</t>
+  </si>
+  <si>
+    <t>https://oceanbluecarwash.com/</t>
+  </si>
+  <si>
+    <t>Snap Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://snapcleancarwash.com/</t>
+  </si>
+  <si>
+    <t>Speedwash</t>
+  </si>
+  <si>
+    <t>https://www.speedwashes.com/</t>
+  </si>
+  <si>
+    <t>Sud Stop Car Wash</t>
+  </si>
+  <si>
+    <t>Real Capital Partners</t>
+  </si>
+  <si>
+    <t>Florida | Georgia | Alabama | North Carolina | South Carolina</t>
+  </si>
+  <si>
+    <t>https://www.sudstopcarwash.com/</t>
+  </si>
+  <si>
+    <t>Ace Auto Wash</t>
+  </si>
+  <si>
+    <t>https://www.aceautowash.com/</t>
+  </si>
+  <si>
+    <t>Dash Car Wash</t>
+  </si>
+  <si>
+    <t>Arizona | Texas | Nevada</t>
+  </si>
+  <si>
+    <t>Dream Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.dreamcleancw.com/</t>
+  </si>
+  <si>
+    <t>H2Go Car Wash</t>
+  </si>
+  <si>
+    <t>Privately Owned</t>
+  </si>
+  <si>
+    <t>https://h2gocarwash.com/</t>
+  </si>
+  <si>
+    <t>Pony Express Carwash</t>
+  </si>
+  <si>
+    <t>https://ponycarwash.com/</t>
+  </si>
+  <si>
+    <t>Washtopia Car Wash</t>
+  </si>
+  <si>
+    <t>https://washtopia.com/</t>
+  </si>
+  <si>
+    <t>American Pride Xpress Carwash</t>
+  </si>
+  <si>
+    <t>https://americanpridexpress.com/</t>
+  </si>
+  <si>
+    <t>Bebo's Carwash</t>
+  </si>
+  <si>
+    <t>https://www.beboscarwash.com/</t>
+  </si>
+  <si>
+    <t>Canton Car Wash</t>
+  </si>
+  <si>
+    <t>https://cantoncarwash.com/</t>
+  </si>
+  <si>
+    <t>Endless Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://endlesscleancarwash.com/</t>
+  </si>
+  <si>
+    <t>Mr. Sparkle Car Wash</t>
+  </si>
+  <si>
+    <t>Connecticut | Massachusetts | New Jersey</t>
+  </si>
+  <si>
+    <t>https://www.mrsparklecarwash.com/</t>
+  </si>
+  <si>
+    <t>Mr. Splash Car Wash</t>
+  </si>
+  <si>
+    <t>Argosy Private Equity</t>
+  </si>
+  <si>
+    <t>https://mrsplashcarwash.com/</t>
+  </si>
+  <si>
+    <t>Pete's Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://petesexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>RaceWash</t>
+  </si>
+  <si>
+    <t>Florida | Indiana | Kentucky</t>
+  </si>
+  <si>
+    <t>https://racewash.com/</t>
+  </si>
+  <si>
+    <t>Screaming Eagle  Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.screamingeagleexpress.com/</t>
+  </si>
+  <si>
+    <t>Shur-Kleen Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.shurkleencarwash.com/</t>
+  </si>
+  <si>
+    <t>Spin Car Wash</t>
+  </si>
+  <si>
+    <t>https://spincarwash.com/</t>
+  </si>
+  <si>
+    <t>Supershine Xpress Carwash</t>
+  </si>
+  <si>
+    <t>https://supershinexpress.com/</t>
+  </si>
+  <si>
+    <t>5 Minute Express Car Wash</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>https://5minuteexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Cadillac Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.cadillacexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Camel Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://camelexpress.com/</t>
+  </si>
+  <si>
+    <t>Fast Freddy’s Car Wash</t>
+  </si>
+  <si>
+    <t>https://fastfreddyscarwashes.com/</t>
+  </si>
+  <si>
+    <t>FullSpeed Automotive</t>
+  </si>
+  <si>
+    <t>New Mexico | Texas</t>
+  </si>
+  <si>
+    <t>https://fullspeedautomotive.com/</t>
+  </si>
+  <si>
+    <t>Magic Brush Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.magicbrushexpress.com/</t>
+  </si>
+  <si>
     <t>Ridi Stores</t>
   </si>
   <si>
-    <t>Rocky Mountain Car Wash</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Wyoming | Montana</t>
-  </si>
-  <si>
-    <t>https://rockymountaincarwash.com/</t>
-  </si>
-  <si>
-    <t>Breeze Thru Car Wash</t>
-  </si>
-  <si>
-    <t>Colorado | Wyoming</t>
-  </si>
-  <si>
-    <t>https://breezethrucarwash.com/</t>
-  </si>
-  <si>
-    <t>Carriage House Car Wash</t>
-  </si>
-  <si>
-    <t>Tire Discounters</t>
-  </si>
-  <si>
-    <t>Ohio | Indiana</t>
-  </si>
-  <si>
-    <t>https://carriagehousecarwash.com/</t>
-  </si>
-  <si>
-    <t>EDGE Express Car Wash</t>
-  </si>
-  <si>
-    <t>North Carolina | South Carolina | Virginia</t>
-  </si>
-  <si>
-    <t>https://www.edgeexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Metro Express Car Wash</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Idaho | Montana | Washington | Colorado | California | Missouri | Arizona | Kansas</t>
-  </si>
-  <si>
-    <t>https://www.metroexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Pelican Pointe Car Wash</t>
-  </si>
-  <si>
-    <t>Undisclosed</t>
-  </si>
-  <si>
-    <t>https://www.pelicanpointecarwash.com/</t>
-  </si>
-  <si>
-    <t>The Auto Spa</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Maryland | Pennsylvania</t>
-  </si>
-  <si>
-    <t>https://www.washluberepair.com/</t>
-  </si>
-  <si>
-    <t>Valet Auto Wash</t>
-  </si>
-  <si>
-    <t>New Jersey | New York | Pennsylvania</t>
-  </si>
-  <si>
-    <t>https://valetwash.com/</t>
-  </si>
-  <si>
-    <t>All American Car Wash</t>
-  </si>
-  <si>
-    <t>Racer Classic Investments, LLC</t>
-  </si>
-  <si>
-    <t>Texas | Oklahoma</t>
-  </si>
-  <si>
-    <t>https://www.allamericancarwash.biz/</t>
-  </si>
-  <si>
-    <t>Charlie’s Car Wash</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Missouri | Kansas | Oklahoma</t>
-  </si>
-  <si>
-    <t>https://charlies.com/</t>
-  </si>
-  <si>
-    <t>iShine Express Car Wash &amp; Detail</t>
-  </si>
-  <si>
-    <t>https://ishinecarwash.com/</t>
-  </si>
-  <si>
-    <t>Jacksons</t>
-  </si>
-  <si>
-    <t>https://jacksonswash.com/</t>
-  </si>
-  <si>
-    <t>Speedy Stop Car Wash</t>
-  </si>
-  <si>
-    <t>https://speedystop.com/</t>
-  </si>
-  <si>
-    <t>Team Car Wash</t>
-  </si>
-  <si>
-    <t>https://theteamcarwash.com/</t>
-  </si>
-  <si>
-    <t>Wash-Rite Express Car Wash</t>
-  </si>
-  <si>
-    <t>Bradham Capital Holdings</t>
-  </si>
-  <si>
-    <t>Ohio | Pennsylvania | West Virginia</t>
-  </si>
-  <si>
-    <t>https://www.wash-riteunlimited.com</t>
-  </si>
-  <si>
-    <t>WashU Car Wash</t>
-  </si>
-  <si>
-    <t>Peterson Partners</t>
-  </si>
-  <si>
-    <t>Illinois | Nevada</t>
-  </si>
-  <si>
-    <t>https://www.washucarwash.com/</t>
-  </si>
-  <si>
-    <t>White Horse Auto Wash</t>
-  </si>
-  <si>
-    <t>Virginia | South Carolina</t>
-  </si>
-  <si>
-    <t>https://www.whitehorseautowash.com/</t>
-  </si>
-  <si>
-    <t>Fast Splash Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.fastsplashcarwash.com/</t>
-  </si>
-  <si>
-    <t>Hang 10 Car Wash</t>
-  </si>
-  <si>
-    <t>Florida | New Jersey | South Carolina | Virginia</t>
-  </si>
-  <si>
-    <t>https://hang10carwash.com/</t>
-  </si>
-  <si>
-    <t>Raindrop Car Wash</t>
-  </si>
-  <si>
-    <t>https://raindropcarwash.com/</t>
-  </si>
-  <si>
-    <t>RocketFast Car Wash</t>
-  </si>
-  <si>
-    <t>Louisiana | Arkansas | Texas</t>
-  </si>
-  <si>
-    <t>https://www.rocketfastcarwash.com/</t>
-  </si>
-  <si>
-    <t>Super Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://supercleanmycar.com/</t>
-  </si>
-  <si>
-    <t>Time To Shine Car Wash</t>
-  </si>
-  <si>
-    <t>2000's</t>
-  </si>
-  <si>
-    <t>Oklahoma | South Carolina | Kentucky</t>
-  </si>
-  <si>
-    <t>https://timetoshinecarwash.com/</t>
-  </si>
-  <si>
-    <t>WashX Car Wash</t>
-  </si>
-  <si>
-    <t>Maryland | Delaware</t>
-  </si>
-  <si>
-    <t>https://washx.space/</t>
-  </si>
-  <si>
-    <t>Xtreme Auto Wash</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>https://www.xtremeautowash.com/</t>
-  </si>
-  <si>
-    <t>7 Flags Car Wash</t>
-  </si>
-  <si>
-    <t>https://7flagscarwash.com/</t>
-  </si>
-  <si>
-    <t>Cheetah Clean Auto Wash</t>
-  </si>
-  <si>
-    <t>Kentucky | Tennessee</t>
-  </si>
-  <si>
-    <t>https://cheetahclean.com/</t>
-  </si>
-  <si>
-    <t>Ducky's Car Wash</t>
-  </si>
-  <si>
-    <t>https://duckysexpress.com/</t>
-  </si>
-  <si>
-    <t>Groove Car Wash</t>
-  </si>
-  <si>
-    <t>Vaquero Ventures</t>
-  </si>
-  <si>
-    <t>Texas | Florida | Oklahoma</t>
-  </si>
-  <si>
-    <t>https://www.groovecarwash.com/</t>
-  </si>
-  <si>
-    <t>Mr Wash Car Wash</t>
-  </si>
-  <si>
-    <t>Virginia | Maryland | Delaware</t>
-  </si>
-  <si>
-    <t>https://mrwash.com/</t>
-  </si>
-  <si>
-    <t>Red Carpet Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.redcarpetcarwash.com/</t>
-  </si>
-  <si>
-    <t>Scrub-a-Dub</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>https://scrubadub.biz/</t>
-  </si>
-  <si>
-    <t>Shine Time Super Wash</t>
-  </si>
-  <si>
-    <t>Alabama | Mississippi</t>
-  </si>
-  <si>
-    <t>https://www.shinetimesuperwash.com/</t>
-  </si>
-  <si>
-    <t>Tsunami Express</t>
-  </si>
-  <si>
-    <t>Point72 Ventures</t>
-  </si>
-  <si>
-    <t>Wisconsin | Indiana | Minnesota</t>
-  </si>
-  <si>
-    <t>https://www.tsunamiexpress.com/</t>
-  </si>
-  <si>
-    <t>Wash Factory Car Wash</t>
-  </si>
-  <si>
-    <t>Georgia | Tennessee</t>
-  </si>
-  <si>
-    <t>https://www.washfactorycarwash.com/</t>
-  </si>
-  <si>
-    <t>Xpress Car Wash</t>
-  </si>
-  <si>
-    <t>Louisiana | Texas</t>
-  </si>
-  <si>
-    <t>https://timeitxpresswash.com/</t>
-  </si>
-  <si>
-    <t>Blue Penguin Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.bluepenguincarwash.com/</t>
-  </si>
-  <si>
-    <t>BriteworX Car Washery</t>
-  </si>
-  <si>
-    <t>Missouri | Illinois</t>
-  </si>
-  <si>
-    <t>https://briteworx.com/</t>
-  </si>
-  <si>
-    <t>Clean Sweep Car Wash</t>
-  </si>
-  <si>
-    <t>Illinois | Iowa | Kentucky</t>
-  </si>
-  <si>
-    <t>https://cleansweepcarwash.com/</t>
-  </si>
-  <si>
-    <t>Cloud 10 Smartwash</t>
-  </si>
-  <si>
-    <t>Pennsylvania | New Jersey</t>
-  </si>
-  <si>
-    <t>https://cloud10smartwash.com/</t>
-  </si>
-  <si>
-    <t>Everclean Car Wash</t>
-  </si>
-  <si>
-    <t>https://evercleancw.com/</t>
-  </si>
-  <si>
-    <t>Scenic Suds Car Wash</t>
-  </si>
-  <si>
-    <t>Tennessee | Georgia</t>
-  </si>
-  <si>
-    <t>https://www.scenicsuds.com/</t>
-  </si>
-  <si>
-    <t>Scrubby’s Car Wash</t>
-  </si>
-  <si>
-    <t>South Carolina | North Carolina</t>
-  </si>
-  <si>
-    <t>https://scrubbyscarwashes.com/</t>
-  </si>
-  <si>
-    <t>Skweeky Kleen Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.skweekykleen.com/</t>
-  </si>
-  <si>
-    <t>SpeedWash Car Wash</t>
-  </si>
-  <si>
-    <t>Kentucky | Indiana</t>
-  </si>
-  <si>
-    <t>https://speedwashusa.com/</t>
-  </si>
-  <si>
-    <t>Suds Deluxe Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.sudsdeluxe.com/</t>
-  </si>
-  <si>
-    <t>WashGuys Car Wash</t>
-  </si>
-  <si>
-    <t>https://washguystx.com/</t>
-  </si>
-  <si>
-    <t>Auto Spa Car Wash (WA)</t>
-  </si>
-  <si>
-    <t>https://www.autospacw.com</t>
-  </si>
-  <si>
-    <t>Benny’s Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.bennyscarwash.com/</t>
-  </si>
-  <si>
-    <t>Driven Car Wash</t>
-  </si>
-  <si>
-    <t>https://drivencarwash.com/</t>
-  </si>
-  <si>
-    <t>Fabulous Freddy’s Car Wash</t>
-  </si>
-  <si>
-    <t>Nevada | Utah</t>
-  </si>
-  <si>
-    <t>https://fabfred.com/</t>
-  </si>
-  <si>
-    <t>Jet Splash Car Wash</t>
-  </si>
-  <si>
-    <t>https://jetsplash.com</t>
-  </si>
-  <si>
-    <t>Radiant Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.radiantexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Velocity Car Wash</t>
-  </si>
-  <si>
-    <t>Colorado | Utah</t>
-  </si>
-  <si>
-    <t>https://www.velocitywash.com/</t>
-  </si>
-  <si>
-    <t>Auto Spa LA</t>
-  </si>
-  <si>
-    <t>https://autospala.com/</t>
-  </si>
-  <si>
-    <t>Clearwave Car Wash</t>
-  </si>
-  <si>
-    <t>Illinois | Michigan</t>
-  </si>
-  <si>
-    <t>https://clearwavecarwash.com/</t>
-  </si>
-  <si>
-    <t>Ocean Blue Car Wash</t>
-  </si>
-  <si>
-    <t>https://oceanbluecarwash.com/</t>
-  </si>
-  <si>
-    <t>Snap Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://snapcleancarwash.com/</t>
-  </si>
-  <si>
-    <t>Speedwash</t>
-  </si>
-  <si>
-    <t>https://www.speedwashes.com/</t>
-  </si>
-  <si>
-    <t>Sud Stop Car Wash</t>
-  </si>
-  <si>
-    <t>Real Capital Partners</t>
-  </si>
-  <si>
-    <t>Florida | Georgia | Alabama | North Carolina | South Carolina</t>
-  </si>
-  <si>
-    <t>https://www.sudstopcarwash.com/</t>
-  </si>
-  <si>
-    <t>Ace Auto Wash</t>
-  </si>
-  <si>
-    <t>https://www.aceautowash.com/</t>
-  </si>
-  <si>
-    <t>Dream Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.dreamcleancw.com/</t>
-  </si>
-  <si>
-    <t>H2Go Car Wash</t>
-  </si>
-  <si>
-    <t>Privately Owned</t>
-  </si>
-  <si>
-    <t>https://h2gocarwash.com/</t>
-  </si>
-  <si>
-    <t>Pony Express Carwash</t>
-  </si>
-  <si>
-    <t>https://ponycarwash.com/</t>
-  </si>
-  <si>
-    <t>Washtopia Car Wash</t>
-  </si>
-  <si>
-    <t>https://washtopia.com/</t>
-  </si>
-  <si>
-    <t>American Pride Xpress Carwash</t>
-  </si>
-  <si>
-    <t>https://americanpridexpress.com/</t>
-  </si>
-  <si>
-    <t>Bebo's Carwash</t>
-  </si>
-  <si>
-    <t>https://www.beboscarwash.com/</t>
-  </si>
-  <si>
-    <t>Canton Car Wash</t>
-  </si>
-  <si>
-    <t>https://cantoncarwash.com/</t>
-  </si>
-  <si>
-    <t>Endless Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://endlesscleancarwash.com/</t>
-  </si>
-  <si>
-    <t>Mr. Sparkle Car Wash</t>
-  </si>
-  <si>
-    <t>Connecticut | Massachusetts | New Jersey</t>
-  </si>
-  <si>
-    <t>https://www.mrsparklecarwash.com/</t>
-  </si>
-  <si>
-    <t>Mr. Splash Car Wash</t>
-  </si>
-  <si>
-    <t>Argosy Private Equity</t>
-  </si>
-  <si>
-    <t>https://mrsplashcarwash.com/</t>
-  </si>
-  <si>
-    <t>Pete's Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://petesexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>RaceWash</t>
-  </si>
-  <si>
-    <t>Florida | Indiana | Kentucky</t>
-  </si>
-  <si>
-    <t>https://racewash.com/</t>
-  </si>
-  <si>
-    <t>Screaming Eagle  Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.screamingeagleexpress.com/</t>
-  </si>
-  <si>
-    <t>Shur-Kleen Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.shurkleencarwash.com/</t>
-  </si>
-  <si>
-    <t>Spin Car Wash</t>
-  </si>
-  <si>
-    <t>https://spincarwash.com/</t>
-  </si>
-  <si>
-    <t>Supershine Xpress Carwash</t>
-  </si>
-  <si>
-    <t>https://supershinexpress.com/</t>
-  </si>
-  <si>
-    <t>5 Minute Express Car Wash</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>https://5minuteexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Cadillac Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.cadillacexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Camel Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://camelexpress.com/</t>
-  </si>
-  <si>
-    <t>Fast Freddy’s Car Wash</t>
-  </si>
-  <si>
-    <t>https://fastfreddyscarwashes.com/</t>
-  </si>
-  <si>
-    <t>FullSpeed Automotive</t>
-  </si>
-  <si>
-    <t>New Mexico | Texas</t>
-  </si>
-  <si>
-    <t>https://fullspeedautomotive.com/</t>
-  </si>
-  <si>
-    <t>Magic Brush Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.magicbrushexpress.com/</t>
+    <t>https://ridistores.com/</t>
   </si>
   <si>
     <t>Soapy Noble Car Wash</t>
@@ -1658,9 +1667,6 @@
   </si>
   <si>
     <t>https://wavesexpresswash.com/</t>
-  </si>
-  <si>
-    <t>Four Seasons Car Wash</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2064,7 @@
         <v>1999.0</v>
       </c>
       <c r="D4" s="2">
-        <v>290.0</v>
+        <v>296.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -2175,10 +2181,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="2">
-        <v>2006.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D7" s="2">
-        <v>213.0</v>
+        <v>256.0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -2215,7 +2221,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2">
-        <v>2019.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D8" s="2">
         <v>213.0</v>
@@ -2255,10 +2261,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>2011.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D9" s="2">
-        <v>206.0</v>
+        <v>213.0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -2461,7 +2467,7 @@
         <v>116.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>68</v>
@@ -2541,7 +2547,7 @@
         <v>91.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>75</v>
@@ -2652,22 +2658,22 @@
         <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2">
-        <v>2016.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D19" s="2">
         <v>68.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2689,16 +2695,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
-        <v>1981.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D20" s="2">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>92</v>
@@ -2781,7 +2787,7 @@
         <v>63.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>100</v>
@@ -2851,16 +2857,24 @@
       <c r="A24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1970.0</v>
+      </c>
       <c r="D24" s="2">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2881,25 +2895,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2">
-        <v>1970.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D25" s="2">
         <v>58.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2921,7 +2935,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>57</v>
@@ -2933,13 +2947,13 @@
         <v>54.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2961,10 +2975,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="2">
         <v>1948.0</v>
@@ -2973,13 +2987,13 @@
         <v>50.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3001,7 +3015,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -3013,13 +3027,13 @@
         <v>50.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3041,10 +3055,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2">
         <v>1953.0</v>
@@ -3053,13 +3067,13 @@
         <v>47.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3081,10 +3095,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2">
         <v>1959.0</v>
@@ -3093,13 +3107,13 @@
         <v>47.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3121,25 +3135,25 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2">
-        <v>2020.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D31" s="2">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3161,25 +3175,25 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="2">
-        <v>1988.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D32" s="2">
         <v>45.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3201,25 +3215,25 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
-        <v>2009.0</v>
+        <v>1988.0</v>
       </c>
       <c r="D33" s="2">
         <v>45.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3241,7 +3255,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>103</v>
@@ -3253,13 +3267,13 @@
         <v>42.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3281,7 +3295,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>62</v>
@@ -3293,13 +3307,13 @@
         <v>42.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3321,10 +3335,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2">
         <v>1976.0</v>
@@ -3333,13 +3347,13 @@
         <v>41.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3361,7 +3375,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>67</v>
@@ -3373,13 +3387,13 @@
         <v>40.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3401,7 +3415,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>28</v>
@@ -3413,12 +3427,14 @@
         <v>36.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3439,23 +3455,25 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="2">
+        <v>2018.0</v>
+      </c>
       <c r="D39" s="2">
         <v>36.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3477,25 +3495,25 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C40" s="2">
-        <v>2020.0</v>
+        <v>1967.0</v>
       </c>
       <c r="D40" s="2">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3517,25 +3535,25 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2">
-        <v>1967.0</v>
+        <v>1986.0</v>
       </c>
       <c r="D41" s="2">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3557,25 +3575,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
-        <v>1986.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D42" s="2">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3597,25 +3615,25 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="C43" s="2">
-        <v>2013.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D43" s="2">
         <v>30.0</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>173</v>
+      <c r="E43" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3637,25 +3655,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2">
-        <v>2015.0</v>
+        <v>1957.0</v>
       </c>
       <c r="D44" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>177</v>
+        <v>29.0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3677,25 +3695,25 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2">
-        <v>1957.0</v>
+        <v>1970.0</v>
       </c>
       <c r="D45" s="2">
         <v>29.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3717,25 +3735,25 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2">
-        <v>1970.0</v>
+        <v>1965.0</v>
       </c>
       <c r="D46" s="2">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3757,25 +3775,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
-        <v>1965.0</v>
+        <v>1992.0</v>
       </c>
       <c r="D47" s="2">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3797,25 +3815,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2">
-        <v>1992.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D48" s="2">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3837,25 +3855,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="C49" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D49" s="2">
         <v>26.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3877,25 +3895,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2">
-        <v>2020.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D50" s="2">
         <v>26.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3917,25 +3935,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="C51" s="2">
-        <v>2004.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D51" s="2">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3957,25 +3975,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="C52" s="2">
-        <v>2000.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D52" s="2">
         <v>25.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3997,25 +4015,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2">
-        <v>2011.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D53" s="2">
         <v>25.0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4037,25 +4055,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="C54" s="2">
-        <v>2004.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D54" s="2">
         <v>25.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4077,25 +4095,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="C55" s="2">
-        <v>2019.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D55" s="2">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4117,25 +4135,25 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>217</v>
+        <v>62</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2018.0</v>
       </c>
       <c r="D56" s="2">
         <v>24.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4157,22 +4175,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2">
-        <v>2018.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D57" s="2">
         <v>24.0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>221</v>
@@ -4200,22 +4218,22 @@
         <v>222</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2">
-        <v>1997.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D58" s="2">
         <v>24.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4237,25 +4255,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="C59" s="2">
-        <v>2021.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D59" s="2">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4277,25 +4295,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2">
-        <v>1981.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D60" s="2">
         <v>23.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4317,25 +4335,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="C61" s="2">
-        <v>2012.0</v>
+        <v>1959.0</v>
       </c>
       <c r="D61" s="2">
         <v>23.0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4357,25 +4375,25 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2">
-        <v>1959.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D62" s="2">
         <v>23.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4397,25 +4415,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="C63" s="2">
-        <v>1966.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D63" s="2">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4437,25 +4455,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C64" s="2">
-        <v>1981.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D64" s="2">
         <v>22.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4477,25 +4495,25 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D65" s="2">
         <v>22.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4517,25 +4535,25 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2">
-        <v>2016.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D66" s="2">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4557,25 +4575,25 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C67" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D67" s="2">
         <v>21.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4597,25 +4615,25 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="C68" s="2">
-        <v>2019.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D68" s="2">
         <v>21.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4637,25 +4655,25 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2">
-        <v>2016.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D69" s="2">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4677,25 +4695,25 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2">
-        <v>1997.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D70" s="2">
         <v>20.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4717,25 +4735,25 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D71" s="2">
         <v>20.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4757,25 +4775,25 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2">
-        <v>2013.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D72" s="2">
         <v>20.0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4797,25 +4815,25 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2">
-        <v>2019.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D73" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4837,25 +4855,25 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2">
-        <v>1997.0</v>
+        <v>1960.0</v>
       </c>
       <c r="D74" s="2">
         <v>19.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4877,25 +4895,25 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="C75" s="2">
-        <v>1960.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D75" s="2">
         <v>19.0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4917,25 +4935,25 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C76" s="2">
-        <v>2012.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D76" s="2">
         <v>19.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4957,25 +4975,25 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2">
-        <v>1995.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D77" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4997,25 +5015,25 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="C78" s="2">
-        <v>2020.0</v>
+        <v>1951.0</v>
       </c>
       <c r="D78" s="2">
         <v>18.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5037,25 +5055,25 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="C79" s="2">
-        <v>1951.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D79" s="2">
         <v>18.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5077,25 +5095,25 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2">
-        <v>1976.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D80" s="2">
         <v>18.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5117,23 +5135,25 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2021.0</v>
+      </c>
       <c r="D81" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5155,25 +5175,25 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C82" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D82" s="2">
         <v>17.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5195,25 +5215,25 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2">
-        <v>2019.0</v>
+        <v>1982.0</v>
       </c>
       <c r="D83" s="2">
         <v>17.0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5235,25 +5255,25 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C84" s="2">
-        <v>1982.0</v>
+        <v>1977.0</v>
       </c>
       <c r="D84" s="2">
         <v>17.0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5275,25 +5295,25 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2">
-        <v>1977.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D85" s="2">
         <v>17.0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5315,25 +5335,25 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C86" s="2">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D86" s="2">
         <v>17.0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5355,25 +5375,25 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="C87" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D87" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5395,10 +5415,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2">
         <v>1995.0</v>
@@ -5407,13 +5427,13 @@
         <v>16.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5435,10 +5455,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C89" s="2">
         <v>1993.0</v>
@@ -5447,13 +5467,13 @@
         <v>16.0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5475,10 +5495,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C90" s="2">
         <v>1976.0</v>
@@ -5487,13 +5507,13 @@
         <v>16.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5515,7 +5535,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>57</v>
@@ -5527,13 +5547,13 @@
         <v>15.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5555,10 +5575,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C92" s="2">
         <v>2018.0</v>
@@ -5567,13 +5587,13 @@
         <v>15.0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5595,18 +5615,26 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2001.0</v>
+      </c>
       <c r="D93" s="2">
         <v>15.0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -5627,25 +5655,25 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2">
-        <v>2001.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D94" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5667,25 +5695,25 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2">
-        <v>2007.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D95" s="2">
         <v>14.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5707,25 +5735,25 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C96" s="2">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D96" s="2">
         <v>14.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5747,25 +5775,25 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C97" s="2">
-        <v>2020.0</v>
+        <v>1969.0</v>
       </c>
       <c r="D97" s="2">
         <v>14.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -5787,25 +5815,25 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C98" s="2">
-        <v>1969.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D98" s="2">
         <v>14.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -5827,25 +5855,25 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>343</v>
+        <v>112</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1987.0</v>
       </c>
       <c r="D99" s="2">
         <v>14.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -5867,25 +5895,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="C100" s="2">
-        <v>1987.0</v>
+        <v>1994.0</v>
       </c>
       <c r="D100" s="2">
         <v>14.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -5907,25 +5935,25 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>314</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2">
-        <v>1994.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D101" s="2">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -5947,25 +5975,25 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="C102" s="2">
-        <v>1997.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D102" s="2">
         <v>13.0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5987,25 +6015,25 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2">
-        <v>1981.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D103" s="2">
         <v>13.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>358</v>
+        <v>57</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6027,25 +6055,25 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>343</v>
+        <v>13</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1980.0</v>
       </c>
       <c r="D104" s="2">
         <v>13.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -6067,25 +6095,25 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2">
-        <v>1980.0</v>
+        <v>1983.0</v>
       </c>
       <c r="D105" s="2">
         <v>13.0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6107,25 +6135,25 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="C106" s="2">
-        <v>1983.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D106" s="2">
         <v>13.0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6147,25 +6175,25 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D107" s="2">
         <v>13.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6187,25 +6215,25 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D108" s="2">
         <v>13.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6227,25 +6255,25 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="C109" s="2">
-        <v>2019.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D109" s="2">
         <v>13.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -6267,25 +6295,25 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="C110" s="2">
-        <v>2010.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D110" s="2">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -6307,25 +6335,25 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="C111" s="2">
-        <v>2017.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D111" s="2">
         <v>12.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6347,25 +6375,25 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2">
-        <v>2023.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D112" s="2">
         <v>12.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>382</v>
+        <v>153</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6387,25 +6415,25 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="C113" s="2">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D113" s="2">
         <v>12.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6427,25 +6455,25 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="C114" s="2">
-        <v>2013.0</v>
+        <v>1990.0</v>
       </c>
       <c r="D114" s="2">
         <v>12.0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>387</v>
+        <v>28</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6467,25 +6495,25 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="2">
-        <v>1990.0</v>
+        <v>62</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D115" s="2">
         <v>12.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>28</v>
+        <v>392</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6507,25 +6535,25 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>392</v>
+        <v>112</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2023.0</v>
       </c>
       <c r="D116" s="2">
         <v>12.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6547,25 +6575,25 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="C117" s="2">
-        <v>2023.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D117" s="2">
         <v>12.0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6587,25 +6615,25 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="C118" s="2">
-        <v>2006.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D118" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6627,25 +6655,25 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="2">
-        <v>1964.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D119" s="2">
         <v>11.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6667,25 +6695,25 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2">
-        <v>2007.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D120" s="2">
         <v>11.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6707,25 +6735,25 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="C121" s="2">
-        <v>1993.0</v>
+        <v>1958.0</v>
       </c>
       <c r="D121" s="2">
         <v>11.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>28</v>
+        <v>409</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -6747,25 +6775,25 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C122" s="2">
-        <v>2022.0</v>
+        <v>1950.0</v>
       </c>
       <c r="D122" s="2">
         <v>11.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>409</v>
+        <v>34</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -6787,25 +6815,25 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>343</v>
+        <v>414</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1947.0</v>
       </c>
       <c r="D123" s="2">
         <v>11.0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -6827,25 +6855,25 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2">
-        <v>1950.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D124" s="2">
         <v>11.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>28</v>
+        <v>417</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -6867,25 +6895,25 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>418</v>
+        <v>279</v>
       </c>
       <c r="C125" s="2">
-        <v>1947.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D125" s="2">
         <v>11.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -6907,25 +6935,25 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="C126" s="2">
-        <v>2007.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D126" s="2">
         <v>11.0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -6947,25 +6975,23 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C127" s="2">
-        <v>2015.0</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C127" s="1"/>
       <c r="D127" s="2">
         <v>11.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>424</v>
+        <v>34</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -6987,25 +7013,25 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="2">
-        <v>2011.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D128" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7027,23 +7053,25 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2016.0</v>
+      </c>
       <c r="D129" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7065,25 +7093,25 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="C130" s="2">
-        <v>2022.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D130" s="2">
         <v>10.0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7105,25 +7133,25 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D131" s="2">
         <v>10.0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7145,25 +7173,25 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="C132" s="2">
-        <v>1993.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D132" s="2">
         <v>10.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>439</v>
+        <v>43</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7185,10 +7213,10 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C133" s="2">
         <v>2018.0</v>
@@ -7197,13 +7225,13 @@
         <v>10.0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -7225,25 +7253,25 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="C134" s="2">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D134" s="2">
         <v>10.0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>38</v>
+        <v>446</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -7265,25 +7293,25 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C135" s="2">
-        <v>2018.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D135" s="2">
         <v>10.0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>447</v>
+        <v>18</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7305,25 +7333,25 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C136" s="2">
-        <v>2015.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D136" s="2">
         <v>10.0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -7345,25 +7373,25 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2">
-        <v>2005.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D137" s="2">
         <v>10.0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7385,22 +7413,22 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2">
-        <v>1999.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D138" s="2">
         <v>10.0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>455</v>
+        <v>57</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>456</v>
@@ -7428,19 +7456,19 @@
         <v>457</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="C139" s="2">
-        <v>2019.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D139" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>458</v>
@@ -7468,19 +7496,19 @@
         <v>459</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="C140" s="2">
-        <v>2009.0</v>
+        <v>1951.0</v>
       </c>
       <c r="D140" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>460</v>
@@ -7508,19 +7536,19 @@
         <v>461</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="C141" s="2">
-        <v>2002.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D141" s="2">
         <v>9.0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>462</v>
@@ -7548,22 +7576,22 @@
         <v>463</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2">
-        <v>1951.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D142" s="2">
         <v>9.0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>310</v>
+        <v>464</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7585,25 +7613,25 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="C143" s="2">
-        <v>2021.0</v>
+        <v>2003.0</v>
       </c>
       <c r="D143" s="2">
         <v>9.0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7625,22 +7653,22 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C144" s="2">
-        <v>1998.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D144" s="2">
         <v>9.0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>468</v>
+        <v>103</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>469</v>
@@ -7668,22 +7696,20 @@
         <v>470</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="C145" s="2">
-        <v>2003.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D145" s="2">
         <v>9.0</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>203</v>
+        <v>471</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -7705,25 +7731,25 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C146" s="2">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D146" s="2">
         <v>9.0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>103</v>
+        <v>474</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -7745,25 +7771,25 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="C147" s="2">
-        <v>2021.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D147" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>475</v>
+        <v>312</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -7785,25 +7811,25 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="C148" s="2">
-        <v>1998.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D148" s="2">
         <v>8.0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>310</v>
+        <v>479</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -7825,25 +7851,25 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C149" s="2">
-        <v>2016.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D149" s="2">
         <v>8.0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>480</v>
+        <v>13</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -7865,25 +7891,25 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C150" s="2">
-        <v>2004.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D150" s="2">
         <v>8.0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -7905,25 +7931,25 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C151" s="2">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D151" s="2">
         <v>8.0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -7945,25 +7971,25 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C152" s="2">
-        <v>2014.0</v>
+        <v>2024.0</v>
       </c>
       <c r="D152" s="2">
         <v>8.0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>28</v>
+        <v>489</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -7985,25 +8011,25 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C153" s="2">
-        <v>2024.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D153" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>489</v>
+        <v>34</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>490</v>
+        <v>33</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8025,26 +8051,20 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B154" s="1"/>
       <c r="C154" s="2">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D154" s="2">
         <v>7.0</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>493</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -8065,10 +8085,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C155" s="2">
         <v>2023.0</v>
@@ -8077,13 +8097,13 @@
         <v>7.0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8105,7 +8125,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>28</v>
@@ -8117,13 +8137,13 @@
         <v>7.0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8145,10 +8165,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C157" s="2">
         <v>2018.0</v>
@@ -8157,13 +8177,13 @@
         <v>7.0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8185,7 +8205,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>62</v>
@@ -8197,13 +8217,13 @@
         <v>7.0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8225,7 +8245,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>8</v>
@@ -8237,13 +8257,13 @@
         <v>6.0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8265,10 +8285,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2">
         <v>1964.0</v>
@@ -8278,10 +8298,10 @@
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8303,10 +8323,10 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c r="C161" s="2">
         <v>2009.0</v>
@@ -8315,13 +8335,13 @@
         <v>6.0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8343,23 +8363,25 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="2">
+        <v>2018.0</v>
+      </c>
       <c r="D162" s="2">
         <v>6.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8381,10 +8403,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C163" s="2">
         <v>1966.0</v>
@@ -8393,13 +8415,13 @@
         <v>6.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8421,10 +8443,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C164" s="2">
         <v>2010.0</v>
@@ -8433,13 +8455,13 @@
         <v>6.0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8461,10 +8483,10 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="C165" s="2">
         <v>2006.0</v>
@@ -8473,13 +8495,13 @@
         <v>6.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8501,7 +8523,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>103</v>
@@ -8513,13 +8535,13 @@
         <v>6.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8541,7 +8563,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>62</v>
@@ -8553,13 +8575,13 @@
         <v>6.0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8581,10 +8603,10 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C168" s="2">
         <v>1985.0</v>
@@ -8593,13 +8615,13 @@
         <v>6.0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -8621,7 +8643,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>103</v>
@@ -8633,13 +8655,13 @@
         <v>6.0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -8661,7 +8683,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>18</v>
@@ -8673,13 +8695,13 @@
         <v>6.0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -8701,10 +8723,10 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C171" s="2">
         <v>2006.0</v>
@@ -8713,13 +8735,13 @@
         <v>5.0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -8741,7 +8763,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>57</v>
@@ -8753,13 +8775,13 @@
         <v>5.0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -8781,7 +8803,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>62</v>
@@ -8797,7 +8819,7 @@
         <v>62</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -8819,10 +8841,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C174" s="2">
         <v>2018.0</v>
@@ -8831,13 +8853,13 @@
         <v>5.0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -8859,25 +8881,25 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>343</v>
+      <c r="C175" s="2">
+        <v>1978.0</v>
       </c>
       <c r="D175" s="2">
         <v>5.0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -8899,7 +8921,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>28</v>
@@ -8911,13 +8933,13 @@
         <v>5.0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -8939,22 +8961,22 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C177" s="2">
-        <v>2022.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D177" s="2">
         <v>5.0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>545</v>
+        <v>67</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>546</v>
@@ -8982,22 +9004,22 @@
         <v>547</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="C178" s="2">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D178" s="2">
         <v>5.0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>176</v>
+        <v>548</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9019,18 +9041,26 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" s="2">
+        <v>2017.0</v>
+      </c>
       <c r="D179" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -30419,160 +30449,163 @@
     <hyperlink r:id="rId20" ref="G21"/>
     <hyperlink r:id="rId21" ref="G22"/>
     <hyperlink r:id="rId22" ref="G23"/>
-    <hyperlink r:id="rId23" ref="G25"/>
-    <hyperlink r:id="rId24" ref="G26"/>
-    <hyperlink r:id="rId25" ref="G27"/>
-    <hyperlink r:id="rId26" ref="G28"/>
-    <hyperlink r:id="rId27" ref="G29"/>
-    <hyperlink r:id="rId28" ref="G30"/>
-    <hyperlink r:id="rId29" ref="G31"/>
-    <hyperlink r:id="rId30" ref="G32"/>
-    <hyperlink r:id="rId31" ref="G33"/>
-    <hyperlink r:id="rId32" ref="G34"/>
-    <hyperlink r:id="rId33" ref="G35"/>
-    <hyperlink r:id="rId34" ref="G36"/>
-    <hyperlink r:id="rId35" ref="G37"/>
-    <hyperlink r:id="rId36" ref="G39"/>
-    <hyperlink r:id="rId37" ref="G40"/>
-    <hyperlink r:id="rId38" ref="G41"/>
-    <hyperlink r:id="rId39" ref="G42"/>
-    <hyperlink r:id="rId40" ref="G43"/>
-    <hyperlink r:id="rId41" ref="E44"/>
-    <hyperlink r:id="rId42" ref="G44"/>
-    <hyperlink r:id="rId43" ref="G45"/>
-    <hyperlink r:id="rId44" ref="G46"/>
-    <hyperlink r:id="rId45" ref="G47"/>
-    <hyperlink r:id="rId46" ref="G48"/>
-    <hyperlink r:id="rId47" ref="G49"/>
-    <hyperlink r:id="rId48" ref="G50"/>
-    <hyperlink r:id="rId49" ref="G51"/>
-    <hyperlink r:id="rId50" ref="G52"/>
-    <hyperlink r:id="rId51" ref="G53"/>
-    <hyperlink r:id="rId52" ref="G54"/>
-    <hyperlink r:id="rId53" ref="G55"/>
-    <hyperlink r:id="rId54" ref="G56"/>
-    <hyperlink r:id="rId55" ref="G57"/>
-    <hyperlink r:id="rId56" ref="G58"/>
-    <hyperlink r:id="rId57" ref="G59"/>
-    <hyperlink r:id="rId58" ref="G60"/>
-    <hyperlink r:id="rId59" ref="G61"/>
-    <hyperlink r:id="rId60" ref="G62"/>
-    <hyperlink r:id="rId61" ref="G63"/>
-    <hyperlink r:id="rId62" ref="G64"/>
-    <hyperlink r:id="rId63" ref="G65"/>
-    <hyperlink r:id="rId64" ref="G66"/>
-    <hyperlink r:id="rId65" ref="G67"/>
-    <hyperlink r:id="rId66" ref="G68"/>
-    <hyperlink r:id="rId67" ref="G69"/>
-    <hyperlink r:id="rId68" ref="G70"/>
-    <hyperlink r:id="rId69" ref="G71"/>
-    <hyperlink r:id="rId70" ref="G72"/>
-    <hyperlink r:id="rId71" ref="G73"/>
-    <hyperlink r:id="rId72" ref="G74"/>
-    <hyperlink r:id="rId73" ref="G75"/>
-    <hyperlink r:id="rId74" ref="G76"/>
-    <hyperlink r:id="rId75" ref="G77"/>
-    <hyperlink r:id="rId76" ref="G78"/>
-    <hyperlink r:id="rId77" ref="G79"/>
-    <hyperlink r:id="rId78" ref="G80"/>
-    <hyperlink r:id="rId79" ref="G81"/>
-    <hyperlink r:id="rId80" ref="G82"/>
-    <hyperlink r:id="rId81" ref="G83"/>
-    <hyperlink r:id="rId82" ref="G84"/>
-    <hyperlink r:id="rId83" ref="G85"/>
-    <hyperlink r:id="rId84" ref="G86"/>
-    <hyperlink r:id="rId85" ref="G87"/>
-    <hyperlink r:id="rId86" ref="G88"/>
-    <hyperlink r:id="rId87" ref="G89"/>
-    <hyperlink r:id="rId88" ref="G90"/>
-    <hyperlink r:id="rId89" ref="G91"/>
-    <hyperlink r:id="rId90" ref="G92"/>
-    <hyperlink r:id="rId91" ref="G94"/>
-    <hyperlink r:id="rId92" ref="G95"/>
-    <hyperlink r:id="rId93" ref="G96"/>
-    <hyperlink r:id="rId94" ref="G97"/>
-    <hyperlink r:id="rId95" ref="G98"/>
-    <hyperlink r:id="rId96" ref="G99"/>
-    <hyperlink r:id="rId97" ref="G100"/>
-    <hyperlink r:id="rId98" ref="G101"/>
-    <hyperlink r:id="rId99" ref="G102"/>
-    <hyperlink r:id="rId100" ref="G103"/>
-    <hyperlink r:id="rId101" ref="G104"/>
-    <hyperlink r:id="rId102" ref="G105"/>
-    <hyperlink r:id="rId103" ref="G106"/>
-    <hyperlink r:id="rId104" ref="G107"/>
-    <hyperlink r:id="rId105" ref="G108"/>
-    <hyperlink r:id="rId106" ref="G109"/>
-    <hyperlink r:id="rId107" ref="G110"/>
-    <hyperlink r:id="rId108" ref="G111"/>
-    <hyperlink r:id="rId109" ref="G112"/>
-    <hyperlink r:id="rId110" ref="G113"/>
-    <hyperlink r:id="rId111" ref="G114"/>
-    <hyperlink r:id="rId112" ref="G115"/>
-    <hyperlink r:id="rId113" ref="G116"/>
-    <hyperlink r:id="rId114" ref="G117"/>
-    <hyperlink r:id="rId115" ref="G118"/>
-    <hyperlink r:id="rId116" ref="G119"/>
-    <hyperlink r:id="rId117" ref="G120"/>
-    <hyperlink r:id="rId118" ref="G121"/>
-    <hyperlink r:id="rId119" ref="G122"/>
-    <hyperlink r:id="rId120" ref="G123"/>
-    <hyperlink r:id="rId121" ref="G124"/>
-    <hyperlink r:id="rId122" ref="G125"/>
-    <hyperlink r:id="rId123" ref="G126"/>
-    <hyperlink r:id="rId124" ref="G127"/>
-    <hyperlink r:id="rId125" ref="G128"/>
-    <hyperlink r:id="rId126" ref="G129"/>
-    <hyperlink r:id="rId127" ref="G130"/>
-    <hyperlink r:id="rId128" ref="G131"/>
-    <hyperlink r:id="rId129" ref="G132"/>
-    <hyperlink r:id="rId130" ref="G133"/>
-    <hyperlink r:id="rId131" ref="G134"/>
-    <hyperlink r:id="rId132" ref="G135"/>
-    <hyperlink r:id="rId133" ref="G136"/>
-    <hyperlink r:id="rId134" ref="G137"/>
-    <hyperlink r:id="rId135" ref="G138"/>
-    <hyperlink r:id="rId136" ref="G139"/>
-    <hyperlink r:id="rId137" ref="G140"/>
-    <hyperlink r:id="rId138" ref="G141"/>
-    <hyperlink r:id="rId139" ref="G142"/>
-    <hyperlink r:id="rId140" ref="G143"/>
-    <hyperlink r:id="rId141" ref="G144"/>
-    <hyperlink r:id="rId142" ref="G145"/>
-    <hyperlink r:id="rId143" ref="G146"/>
-    <hyperlink r:id="rId144" ref="G147"/>
-    <hyperlink r:id="rId145" ref="G148"/>
-    <hyperlink r:id="rId146" ref="G149"/>
-    <hyperlink r:id="rId147" ref="G150"/>
-    <hyperlink r:id="rId148" ref="G151"/>
-    <hyperlink r:id="rId149" ref="G152"/>
-    <hyperlink r:id="rId150" ref="G153"/>
-    <hyperlink r:id="rId151" ref="G154"/>
-    <hyperlink r:id="rId152" ref="G155"/>
-    <hyperlink r:id="rId153" ref="G156"/>
-    <hyperlink r:id="rId154" ref="G157"/>
-    <hyperlink r:id="rId155" ref="G158"/>
-    <hyperlink r:id="rId156" ref="G159"/>
-    <hyperlink r:id="rId157" ref="G160"/>
-    <hyperlink r:id="rId158" ref="G161"/>
-    <hyperlink r:id="rId159" ref="G162"/>
-    <hyperlink r:id="rId160" ref="G163"/>
-    <hyperlink r:id="rId161" ref="G164"/>
-    <hyperlink r:id="rId162" ref="G165"/>
-    <hyperlink r:id="rId163" ref="G166"/>
-    <hyperlink r:id="rId164" ref="G167"/>
-    <hyperlink r:id="rId165" ref="G168"/>
-    <hyperlink r:id="rId166" ref="G169"/>
-    <hyperlink r:id="rId167" ref="G170"/>
-    <hyperlink r:id="rId168" ref="G171"/>
-    <hyperlink r:id="rId169" ref="G172"/>
-    <hyperlink r:id="rId170" ref="G173"/>
-    <hyperlink r:id="rId171" ref="G174"/>
-    <hyperlink r:id="rId172" ref="G175"/>
-    <hyperlink r:id="rId173" ref="G176"/>
-    <hyperlink r:id="rId174" ref="G177"/>
-    <hyperlink r:id="rId175" ref="G178"/>
+    <hyperlink r:id="rId23" ref="G24"/>
+    <hyperlink r:id="rId24" ref="G25"/>
+    <hyperlink r:id="rId25" ref="G26"/>
+    <hyperlink r:id="rId26" ref="G27"/>
+    <hyperlink r:id="rId27" ref="G28"/>
+    <hyperlink r:id="rId28" ref="G29"/>
+    <hyperlink r:id="rId29" ref="G30"/>
+    <hyperlink r:id="rId30" ref="G31"/>
+    <hyperlink r:id="rId31" ref="G32"/>
+    <hyperlink r:id="rId32" ref="G33"/>
+    <hyperlink r:id="rId33" ref="G34"/>
+    <hyperlink r:id="rId34" ref="G35"/>
+    <hyperlink r:id="rId35" ref="G36"/>
+    <hyperlink r:id="rId36" ref="G37"/>
+    <hyperlink r:id="rId37" ref="G38"/>
+    <hyperlink r:id="rId38" ref="G39"/>
+    <hyperlink r:id="rId39" ref="G40"/>
+    <hyperlink r:id="rId40" ref="G41"/>
+    <hyperlink r:id="rId41" ref="G42"/>
+    <hyperlink r:id="rId42" ref="E43"/>
+    <hyperlink r:id="rId43" ref="G43"/>
+    <hyperlink r:id="rId44" ref="G44"/>
+    <hyperlink r:id="rId45" ref="G45"/>
+    <hyperlink r:id="rId46" ref="G46"/>
+    <hyperlink r:id="rId47" ref="G47"/>
+    <hyperlink r:id="rId48" ref="G48"/>
+    <hyperlink r:id="rId49" ref="G49"/>
+    <hyperlink r:id="rId50" ref="G50"/>
+    <hyperlink r:id="rId51" ref="G51"/>
+    <hyperlink r:id="rId52" ref="G52"/>
+    <hyperlink r:id="rId53" ref="G53"/>
+    <hyperlink r:id="rId54" ref="G54"/>
+    <hyperlink r:id="rId55" ref="G55"/>
+    <hyperlink r:id="rId56" ref="G56"/>
+    <hyperlink r:id="rId57" ref="G57"/>
+    <hyperlink r:id="rId58" ref="G58"/>
+    <hyperlink r:id="rId59" ref="G59"/>
+    <hyperlink r:id="rId60" ref="G60"/>
+    <hyperlink r:id="rId61" ref="G61"/>
+    <hyperlink r:id="rId62" ref="G62"/>
+    <hyperlink r:id="rId63" ref="G63"/>
+    <hyperlink r:id="rId64" ref="G64"/>
+    <hyperlink r:id="rId65" ref="G65"/>
+    <hyperlink r:id="rId66" ref="G66"/>
+    <hyperlink r:id="rId67" ref="G67"/>
+    <hyperlink r:id="rId68" ref="G68"/>
+    <hyperlink r:id="rId69" ref="G69"/>
+    <hyperlink r:id="rId70" ref="G70"/>
+    <hyperlink r:id="rId71" ref="G71"/>
+    <hyperlink r:id="rId72" ref="G72"/>
+    <hyperlink r:id="rId73" ref="G73"/>
+    <hyperlink r:id="rId74" ref="G74"/>
+    <hyperlink r:id="rId75" ref="G75"/>
+    <hyperlink r:id="rId76" ref="G76"/>
+    <hyperlink r:id="rId77" ref="G77"/>
+    <hyperlink r:id="rId78" ref="G78"/>
+    <hyperlink r:id="rId79" ref="G79"/>
+    <hyperlink r:id="rId80" ref="G80"/>
+    <hyperlink r:id="rId81" ref="G81"/>
+    <hyperlink r:id="rId82" ref="G82"/>
+    <hyperlink r:id="rId83" ref="G83"/>
+    <hyperlink r:id="rId84" ref="G84"/>
+    <hyperlink r:id="rId85" ref="G85"/>
+    <hyperlink r:id="rId86" ref="G86"/>
+    <hyperlink r:id="rId87" ref="G87"/>
+    <hyperlink r:id="rId88" ref="G88"/>
+    <hyperlink r:id="rId89" ref="G89"/>
+    <hyperlink r:id="rId90" ref="G90"/>
+    <hyperlink r:id="rId91" ref="G91"/>
+    <hyperlink r:id="rId92" ref="G92"/>
+    <hyperlink r:id="rId93" ref="G93"/>
+    <hyperlink r:id="rId94" ref="G94"/>
+    <hyperlink r:id="rId95" ref="G95"/>
+    <hyperlink r:id="rId96" ref="G96"/>
+    <hyperlink r:id="rId97" ref="G97"/>
+    <hyperlink r:id="rId98" ref="G98"/>
+    <hyperlink r:id="rId99" ref="G99"/>
+    <hyperlink r:id="rId100" ref="G100"/>
+    <hyperlink r:id="rId101" ref="G101"/>
+    <hyperlink r:id="rId102" ref="G102"/>
+    <hyperlink r:id="rId103" ref="G103"/>
+    <hyperlink r:id="rId104" ref="G104"/>
+    <hyperlink r:id="rId105" ref="G105"/>
+    <hyperlink r:id="rId106" ref="G106"/>
+    <hyperlink r:id="rId107" ref="G107"/>
+    <hyperlink r:id="rId108" ref="G108"/>
+    <hyperlink r:id="rId109" ref="G109"/>
+    <hyperlink r:id="rId110" ref="G110"/>
+    <hyperlink r:id="rId111" ref="G111"/>
+    <hyperlink r:id="rId112" ref="G112"/>
+    <hyperlink r:id="rId113" ref="G113"/>
+    <hyperlink r:id="rId114" ref="G114"/>
+    <hyperlink r:id="rId115" ref="G115"/>
+    <hyperlink r:id="rId116" ref="G116"/>
+    <hyperlink r:id="rId117" ref="G117"/>
+    <hyperlink r:id="rId118" ref="G118"/>
+    <hyperlink r:id="rId119" ref="G119"/>
+    <hyperlink r:id="rId120" ref="G120"/>
+    <hyperlink r:id="rId121" ref="G121"/>
+    <hyperlink r:id="rId122" ref="G122"/>
+    <hyperlink r:id="rId123" ref="G123"/>
+    <hyperlink r:id="rId124" ref="G124"/>
+    <hyperlink r:id="rId125" ref="G125"/>
+    <hyperlink r:id="rId126" ref="G126"/>
+    <hyperlink r:id="rId127" ref="G127"/>
+    <hyperlink r:id="rId128" ref="G128"/>
+    <hyperlink r:id="rId129" ref="G129"/>
+    <hyperlink r:id="rId130" ref="G130"/>
+    <hyperlink r:id="rId131" ref="G131"/>
+    <hyperlink r:id="rId132" ref="G132"/>
+    <hyperlink r:id="rId133" ref="G133"/>
+    <hyperlink r:id="rId134" ref="G134"/>
+    <hyperlink r:id="rId135" ref="G135"/>
+    <hyperlink r:id="rId136" ref="G136"/>
+    <hyperlink r:id="rId137" ref="G137"/>
+    <hyperlink r:id="rId138" ref="G138"/>
+    <hyperlink r:id="rId139" ref="G139"/>
+    <hyperlink r:id="rId140" ref="G140"/>
+    <hyperlink r:id="rId141" ref="G141"/>
+    <hyperlink r:id="rId142" ref="G142"/>
+    <hyperlink r:id="rId143" ref="G143"/>
+    <hyperlink r:id="rId144" ref="G144"/>
+    <hyperlink r:id="rId145" ref="G145"/>
+    <hyperlink r:id="rId146" ref="G146"/>
+    <hyperlink r:id="rId147" ref="G147"/>
+    <hyperlink r:id="rId148" ref="G148"/>
+    <hyperlink r:id="rId149" ref="G149"/>
+    <hyperlink r:id="rId150" ref="G150"/>
+    <hyperlink r:id="rId151" ref="G151"/>
+    <hyperlink r:id="rId152" ref="G152"/>
+    <hyperlink r:id="rId153" ref="G153"/>
+    <hyperlink r:id="rId154" ref="G155"/>
+    <hyperlink r:id="rId155" ref="G156"/>
+    <hyperlink r:id="rId156" ref="G157"/>
+    <hyperlink r:id="rId157" ref="G158"/>
+    <hyperlink r:id="rId158" ref="G159"/>
+    <hyperlink r:id="rId159" ref="G160"/>
+    <hyperlink r:id="rId160" ref="G161"/>
+    <hyperlink r:id="rId161" ref="G162"/>
+    <hyperlink r:id="rId162" ref="G163"/>
+    <hyperlink r:id="rId163" ref="G164"/>
+    <hyperlink r:id="rId164" ref="G165"/>
+    <hyperlink r:id="rId165" ref="G166"/>
+    <hyperlink r:id="rId166" ref="G167"/>
+    <hyperlink r:id="rId167" ref="G168"/>
+    <hyperlink r:id="rId168" ref="G169"/>
+    <hyperlink r:id="rId169" ref="G170"/>
+    <hyperlink r:id="rId170" ref="G171"/>
+    <hyperlink r:id="rId171" ref="G172"/>
+    <hyperlink r:id="rId172" ref="G173"/>
+    <hyperlink r:id="rId173" ref="G174"/>
+    <hyperlink r:id="rId174" ref="G175"/>
+    <hyperlink r:id="rId175" ref="G176"/>
+    <hyperlink r:id="rId176" ref="G177"/>
+    <hyperlink r:id="rId177" ref="G178"/>
+    <hyperlink r:id="rId178" ref="G179"/>
   </hyperlinks>
-  <drawing r:id="rId176"/>
+  <drawing r:id="rId179"/>
 </worksheet>
 </file>
--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Car Wash Advisory - Companies" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Car_Wash_Advisory_Companies" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="553">
   <si>
     <t>Company Name</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Oaktree Capital Management LP</t>
   </si>
   <si>
-    <t>South Carolina | North Carolina | Georgia | Florida | Virginia | Ohio | Alabama | Tennessee | Kentucky | Indiana | Alaska | Arkansas | Colorado | Illinois | Kansas | Louisiana | Michigan | Mississippi | Missouri | New Mexico | Oklahoma | Texas | Utah | West Virginia | Wisconsin</t>
+    <t>South Carolina | North Carolina | Georgia | Florida | Virginia | Ohio | Alabama | Tennessee | Kentucky | Indiana | Arkansas | Colorado | Illinois | Kansas | Louisiana | Michigan | Mississippi | Missouri | New Mexico | Oklahoma | Texas | Utah | West Virginia | Wisconsin</t>
   </si>
   <si>
     <t>https://whistleexpresscarwash.com/</t>
@@ -235,6 +235,21 @@
     <t>https://www.superstarcarwashaz.com/</t>
   </si>
   <si>
+    <t>Summit Wash Holdings</t>
+  </si>
+  <si>
+    <t>Connecticut &amp; Florida</t>
+  </si>
+  <si>
+    <t>New Mountain Capital</t>
+  </si>
+  <si>
+    <t>New York | Nebraska | Connecticut | Missouri | Florida | New Jersey</t>
+  </si>
+  <si>
+    <t>https://summitwashholdings.com</t>
+  </si>
+  <si>
     <t>Autobell Car Wash</t>
   </si>
   <si>
@@ -244,21 +259,6 @@
     <t>https://www.autobell.com/</t>
   </si>
   <si>
-    <t>Summit Wash Holdings</t>
-  </si>
-  <si>
-    <t>Connecticut &amp; Florida</t>
-  </si>
-  <si>
-    <t>New Mountain Capital</t>
-  </si>
-  <si>
-    <t>New York | Nebraska | Connecticut | Missouri | Florida</t>
-  </si>
-  <si>
-    <t>https://www.summitwashassociates.com/</t>
-  </si>
-  <si>
     <t>LUV Car Wash</t>
   </si>
   <si>
@@ -400,6 +400,12 @@
     <t>https://www.jaxkarwash.com</t>
   </si>
   <si>
+    <t>Prestige Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.prestigewash.com/</t>
+  </si>
+  <si>
     <t>Terrible Herbst</t>
   </si>
   <si>
@@ -673,12 +679,6 @@
     <t>https://www.glidexwash.com/</t>
   </si>
   <si>
-    <t>Prestige Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.prestigewash.com/</t>
-  </si>
-  <si>
     <t>Ultra Clean Express</t>
   </si>
   <si>
@@ -871,6 +871,15 @@
     <t>https://elephantcarwash.com/</t>
   </si>
   <si>
+    <t>Flying Ace Express Car Wash</t>
+  </si>
+  <si>
+    <t>Ohio | Indiana</t>
+  </si>
+  <si>
+    <t>https://flyingacecarwash.com/</t>
+  </si>
+  <si>
     <t>Kaady Car Wash</t>
   </si>
   <si>
@@ -1015,9 +1024,6 @@
     <t>Tire Discounters</t>
   </si>
   <si>
-    <t>Ohio | Indiana</t>
-  </si>
-  <si>
     <t>https://carriagehousecarwash.com/</t>
   </si>
   <si>
@@ -1208,9 +1214,6 @@
   </si>
   <si>
     <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>https://www.xtremeautowash.com/</t>
   </si>
   <si>
     <t>7 Flags Car Wash</t>
@@ -1932,6 +1935,15 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.5"/>
+    <col customWidth="1" min="2" max="2" width="16.88"/>
+    <col customWidth="1" min="3" max="3" width="13.63"/>
+    <col customWidth="1" min="4" max="4" width="8.75"/>
+    <col customWidth="1" min="5" max="5" width="34.13"/>
+    <col customWidth="1" min="6" max="6" width="287.63"/>
+    <col customWidth="1" min="7" max="7" width="31.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2538,22 +2550,22 @@
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2">
-        <v>1969.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D16" s="2">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2575,19 +2587,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
-        <v>2022.0</v>
+        <v>1969.0</v>
       </c>
       <c r="D17" s="2">
-        <v>75.0</v>
+        <v>91.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>80</v>
@@ -2664,7 +2676,7 @@
         <v>1981.0</v>
       </c>
       <c r="D19" s="2">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>88</v>
@@ -3064,7 +3076,7 @@
         <v>1953.0</v>
       </c>
       <c r="D29" s="2">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>126</v>
@@ -3098,22 +3110,22 @@
         <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C30" s="2">
-        <v>1959.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D30" s="2">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3135,25 +3147,25 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1959.0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2009.0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>46.0</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3175,25 +3187,25 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2020.0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3215,25 +3227,25 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="2">
-        <v>1988.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D33" s="2">
         <v>45.0</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3255,25 +3267,25 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1988.0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1995.0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>42.0</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3295,25 +3307,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2">
-        <v>2013.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D35" s="2">
         <v>42.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3335,25 +3347,25 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2">
-        <v>1976.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D36" s="2">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3375,25 +3387,25 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="C37" s="2">
-        <v>1948.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D37" s="2">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3415,25 +3427,25 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2">
-        <v>2011.0</v>
+        <v>1948.0</v>
       </c>
       <c r="D38" s="2">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3455,13 +3467,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2">
-        <v>2018.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D39" s="2">
         <v>36.0</v>
@@ -3470,10 +3482,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3495,25 +3507,25 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2">
-        <v>1967.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D40" s="2">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3535,22 +3547,22 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2">
-        <v>1986.0</v>
+        <v>1967.0</v>
       </c>
       <c r="D41" s="2">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>170</v>
@@ -3578,22 +3590,22 @@
         <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2">
-        <v>2013.0</v>
+        <v>1986.0</v>
       </c>
       <c r="D42" s="2">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3615,25 +3627,25 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D43" s="2">
         <v>30.0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>176</v>
+      <c r="E43" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3655,25 +3667,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1957.0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3695,13 +3707,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C45" s="2">
-        <v>1970.0</v>
+        <v>1957.0</v>
       </c>
       <c r="D45" s="2">
         <v>29.0</v>
@@ -3710,10 +3722,10 @@
         <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3735,22 +3747,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2">
-        <v>1965.0</v>
+        <v>1970.0</v>
       </c>
       <c r="D46" s="2">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>186</v>
@@ -3778,22 +3790,22 @@
         <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="C47" s="2">
-        <v>1992.0</v>
+        <v>1965.0</v>
       </c>
       <c r="D47" s="2">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3815,22 +3827,22 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
-        <v>2021.0</v>
+        <v>1992.0</v>
       </c>
       <c r="D48" s="2">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>191</v>
@@ -3858,22 +3870,22 @@
         <v>192</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D49" s="2">
         <v>26.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3895,25 +3907,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="C50" s="2">
-        <v>2004.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D50" s="2">
         <v>26.0</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3935,25 +3947,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="G51" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2000.0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3975,22 +3987,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2">
-        <v>2011.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D52" s="2">
         <v>25.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>207</v>
@@ -4018,22 +4030,22 @@
         <v>208</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2">
-        <v>2004.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D53" s="2">
         <v>25.0</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4055,25 +4067,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2">
-        <v>2019.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D54" s="2">
         <v>25.0</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4095,22 +4107,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>216</v>
@@ -4138,10 +4150,10 @@
         <v>217</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2">
-        <v>2018.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D56" s="2">
         <v>24.0</v>
@@ -4150,10 +4162,10 @@
         <v>34</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4175,13 +4187,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2">
-        <v>1997.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D57" s="2">
         <v>24.0</v>
@@ -4190,7 +4202,7 @@
         <v>34</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>221</v>
@@ -4218,7 +4230,7 @@
         <v>222</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2">
         <v>2021.0</v>
@@ -4498,7 +4510,7 @@
         <v>245</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2">
         <v>2016.0</v>
@@ -4510,7 +4522,7 @@
         <v>246</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>247</v>
@@ -5018,7 +5030,7 @@
         <v>284</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C78" s="2">
         <v>1951.0</v>
@@ -5030,7 +5042,7 @@
         <v>34</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>285</v>
@@ -5058,17 +5070,15 @@
         <v>286</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2">
-        <v>1976.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D79" s="2">
         <v>18.0</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
         <v>287</v>
       </c>
@@ -5098,10 +5108,10 @@
         <v>289</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="C80" s="2">
-        <v>2018.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D80" s="2">
         <v>18.0</v>
@@ -5138,13 +5148,13 @@
         <v>292</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D81" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>34</v>
@@ -5178,10 +5188,10 @@
         <v>295</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D82" s="2">
         <v>17.0</v>
@@ -5190,10 +5200,10 @@
         <v>34</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5215,13 +5225,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C83" s="2">
-        <v>1982.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D83" s="2">
         <v>17.0</v>
@@ -5230,10 +5240,10 @@
         <v>34</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5255,13 +5265,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C84" s="2">
-        <v>1977.0</v>
+        <v>1982.0</v>
       </c>
       <c r="D84" s="2">
         <v>17.0</v>
@@ -5270,10 +5280,10 @@
         <v>34</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5295,13 +5305,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C85" s="2">
-        <v>2017.0</v>
+        <v>1977.0</v>
       </c>
       <c r="D85" s="2">
         <v>17.0</v>
@@ -5310,10 +5320,10 @@
         <v>34</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5335,13 +5345,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2">
-        <v>2015.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D86" s="2">
         <v>17.0</v>
@@ -5350,10 +5360,10 @@
         <v>34</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5375,22 +5385,22 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="C87" s="2">
-        <v>2007.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D87" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>306</v>
+        <v>33</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>307</v>
@@ -5418,10 +5428,10 @@
         <v>308</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="C88" s="2">
-        <v>1995.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D88" s="2">
         <v>16.0</v>
@@ -5458,10 +5468,10 @@
         <v>311</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2">
-        <v>1993.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D89" s="2">
         <v>16.0</v>
@@ -5470,10 +5480,10 @@
         <v>34</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5495,13 +5505,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C90" s="2">
-        <v>1976.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D90" s="2">
         <v>16.0</v>
@@ -5510,10 +5520,10 @@
         <v>34</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5535,16 +5545,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C91" s="2">
-        <v>1999.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D91" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>34</v>
@@ -5578,10 +5588,10 @@
         <v>322</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2">
-        <v>2018.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D92" s="2">
         <v>15.0</v>
@@ -5618,10 +5628,10 @@
         <v>325</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="C93" s="2">
-        <v>2001.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D93" s="2">
         <v>15.0</v>
@@ -5630,10 +5640,10 @@
         <v>34</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5655,16 +5665,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C94" s="2">
-        <v>2007.0</v>
+        <v>2001.0</v>
       </c>
       <c r="D94" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>34</v>
@@ -5698,22 +5708,22 @@
         <v>332</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2">
-        <v>2019.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D95" s="2">
         <v>14.0</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5735,25 +5745,25 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D96" s="2">
         <v>14.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>34</v>
+        <v>336</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5775,13 +5785,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>340</v>
+        <v>8</v>
       </c>
       <c r="C97" s="2">
-        <v>1969.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D97" s="2">
         <v>14.0</v>
@@ -5790,10 +5800,10 @@
         <v>34</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -5815,13 +5825,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C98" s="2">
-        <v>2000.0</v>
+        <v>1969.0</v>
       </c>
       <c r="D98" s="2">
         <v>14.0</v>
@@ -5830,7 +5840,7 @@
         <v>34</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>344</v>
@@ -5858,10 +5868,10 @@
         <v>345</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="C99" s="2">
-        <v>1987.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D99" s="2">
         <v>14.0</v>
@@ -5870,10 +5880,10 @@
         <v>34</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -5895,13 +5905,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2">
-        <v>1994.0</v>
+        <v>1987.0</v>
       </c>
       <c r="D100" s="2">
         <v>14.0</v>
@@ -5910,10 +5920,10 @@
         <v>34</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -5935,25 +5945,25 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1994.0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" s="2">
-        <v>1997.0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="G101" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -5975,25 +5985,25 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>356</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2">
-        <v>1981.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D102" s="2">
         <v>13.0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -6015,13 +6025,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
       <c r="C103" s="2">
-        <v>2015.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D103" s="2">
         <v>13.0</v>
@@ -6030,7 +6040,7 @@
         <v>34</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>360</v>
@@ -6058,10 +6068,10 @@
         <v>361</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2">
-        <v>1980.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D104" s="2">
         <v>13.0</v>
@@ -6070,7 +6080,7 @@
         <v>34</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>362</v>
@@ -6098,10 +6108,10 @@
         <v>363</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C105" s="2">
-        <v>1983.0</v>
+        <v>1980.0</v>
       </c>
       <c r="D105" s="2">
         <v>13.0</v>
@@ -6110,7 +6120,7 @@
         <v>34</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>364</v>
@@ -6138,10 +6148,10 @@
         <v>365</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2">
-        <v>2020.0</v>
+        <v>1983.0</v>
       </c>
       <c r="D106" s="2">
         <v>13.0</v>
@@ -6150,7 +6160,7 @@
         <v>34</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>366</v>
@@ -6178,22 +6188,22 @@
         <v>367</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="C107" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D107" s="2">
         <v>13.0</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6215,25 +6225,25 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C108" s="2">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D108" s="2">
         <v>13.0</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6255,25 +6265,25 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="C109" s="2">
-        <v>2010.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D109" s="2">
         <v>13.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>34</v>
+        <v>374</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -6295,22 +6305,22 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="C110" s="2">
-        <v>2017.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D110" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>379</v>
@@ -6338,10 +6348,10 @@
         <v>380</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="C111" s="2">
-        <v>2023.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D111" s="2">
         <v>12.0</v>
@@ -6350,10 +6360,10 @@
         <v>34</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6375,13 +6385,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="C112" s="2">
-        <v>2017.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D112" s="2">
         <v>12.0</v>
@@ -6390,7 +6400,7 @@
         <v>34</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>153</v>
+        <v>383</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>384</v>
@@ -6418,10 +6428,10 @@
         <v>385</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D113" s="2">
         <v>12.0</v>
@@ -6430,10 +6440,10 @@
         <v>34</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6455,13 +6465,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="C114" s="2">
-        <v>1990.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D114" s="2">
         <v>12.0</v>
@@ -6470,7 +6480,7 @@
         <v>34</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>28</v>
+        <v>388</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>389</v>
@@ -6498,10 +6508,10 @@
         <v>390</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>391</v>
+        <v>28</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1990.0</v>
       </c>
       <c r="D115" s="2">
         <v>12.0</v>
@@ -6510,10 +6520,10 @@
         <v>34</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>392</v>
+        <v>28</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6535,13 +6545,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C116" s="2">
-        <v>2023.0</v>
+        <v>62</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D116" s="2">
         <v>12.0</v>
@@ -6550,10 +6560,10 @@
         <v>34</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6575,13 +6585,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2">
-        <v>2006.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D117" s="2">
         <v>12.0</v>
@@ -6590,10 +6600,10 @@
         <v>34</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6615,26 +6625,24 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C118" s="2">
-        <v>1964.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D118" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>401</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -6655,13 +6663,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="2">
-        <v>1993.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D119" s="2">
         <v>11.0</v>
@@ -6673,7 +6681,7 @@
         <v>28</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6695,25 +6703,25 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C120" s="2">
-        <v>2022.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D120" s="2">
         <v>11.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>405</v>
+        <v>34</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>406</v>
+        <v>28</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6735,25 +6743,25 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2">
-        <v>1958.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D121" s="2">
         <v>11.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>34</v>
+        <v>406</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -6775,13 +6783,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="C122" s="2">
-        <v>1950.0</v>
+        <v>1958.0</v>
       </c>
       <c r="D122" s="2">
         <v>11.0</v>
@@ -6790,10 +6798,10 @@
         <v>34</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -6815,13 +6823,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="C123" s="2">
-        <v>1947.0</v>
+        <v>1950.0</v>
       </c>
       <c r="D123" s="2">
         <v>11.0</v>
@@ -6830,10 +6838,10 @@
         <v>34</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -6855,13 +6863,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>153</v>
+        <v>415</v>
       </c>
       <c r="C124" s="2">
-        <v>2007.0</v>
+        <v>1947.0</v>
       </c>
       <c r="D124" s="2">
         <v>11.0</v>
@@ -6870,10 +6878,10 @@
         <v>34</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -6895,25 +6903,25 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D125" s="2">
         <v>11.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -6935,25 +6943,25 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="C126" s="2">
-        <v>2011.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D126" s="2">
         <v>11.0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>34</v>
+        <v>421</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -6975,12 +6983,14 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2011.0</v>
+      </c>
       <c r="D127" s="2">
         <v>11.0</v>
       </c>
@@ -6988,10 +6998,10 @@
         <v>34</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -7013,25 +7023,23 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="2">
-        <v>2022.0</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C128" s="1"/>
       <c r="D128" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7053,13 +7061,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C129" s="2">
-        <v>2016.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D129" s="2">
         <v>10.0</v>
@@ -7068,10 +7076,10 @@
         <v>34</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>432</v>
+        <v>145</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7093,13 +7101,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="C130" s="2">
-        <v>1993.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D130" s="2">
         <v>10.0</v>
@@ -7108,10 +7116,10 @@
         <v>34</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7133,13 +7141,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="C131" s="2">
-        <v>2018.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D131" s="2">
         <v>10.0</v>
@@ -7148,10 +7156,10 @@
         <v>34</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7173,13 +7181,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C132" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D132" s="2">
         <v>10.0</v>
@@ -7188,10 +7196,10 @@
         <v>34</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7213,13 +7221,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C133" s="2">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D133" s="2">
         <v>10.0</v>
@@ -7228,10 +7236,10 @@
         <v>34</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -7253,13 +7261,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C134" s="2">
-        <v>2015.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D134" s="2">
         <v>10.0</v>
@@ -7268,10 +7276,10 @@
         <v>34</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -7293,13 +7301,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="C135" s="2">
-        <v>2005.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D135" s="2">
         <v>10.0</v>
@@ -7308,10 +7316,10 @@
         <v>34</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>18</v>
+        <v>447</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7333,13 +7341,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="C136" s="2">
-        <v>1999.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D136" s="2">
         <v>10.0</v>
@@ -7348,10 +7356,10 @@
         <v>34</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>451</v>
+        <v>18</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -7373,13 +7381,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="C137" s="2">
-        <v>2019.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D137" s="2">
         <v>10.0</v>
@@ -7388,10 +7396,10 @@
         <v>34</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>57</v>
+        <v>452</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7413,13 +7421,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C138" s="2">
-        <v>2009.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D138" s="2">
         <v>10.0</v>
@@ -7431,7 +7439,7 @@
         <v>57</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7453,25 +7461,25 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2">
-        <v>2002.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D139" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7493,13 +7501,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="C140" s="2">
-        <v>1951.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D140" s="2">
         <v>9.0</v>
@@ -7508,10 +7516,10 @@
         <v>34</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7533,13 +7541,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="C141" s="2">
-        <v>2021.0</v>
+        <v>1951.0</v>
       </c>
       <c r="D141" s="2">
         <v>9.0</v>
@@ -7548,10 +7556,10 @@
         <v>34</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7573,13 +7581,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C142" s="2">
-        <v>1998.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D142" s="2">
         <v>9.0</v>
@@ -7588,10 +7596,10 @@
         <v>34</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7613,13 +7621,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2">
-        <v>2003.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D143" s="2">
         <v>9.0</v>
@@ -7628,10 +7636,10 @@
         <v>34</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>202</v>
+        <v>465</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7653,13 +7661,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C144" s="2">
-        <v>2019.0</v>
+        <v>2003.0</v>
       </c>
       <c r="D144" s="2">
         <v>9.0</v>
@@ -7668,10 +7676,10 @@
         <v>34</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -7693,23 +7701,25 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="C145" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D145" s="2">
         <v>9.0</v>
       </c>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F145" s="1" t="s">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -7731,10 +7741,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C146" s="2">
         <v>2021.0</v>
@@ -7742,14 +7752,12 @@
       <c r="D146" s="2">
         <v>9.0</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -7771,25 +7779,25 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>312</v>
+        <v>48</v>
       </c>
       <c r="C147" s="2">
-        <v>1998.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D147" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>312</v>
+        <v>475</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -7811,13 +7819,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="C148" s="2">
-        <v>2016.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D148" s="2">
         <v>8.0</v>
@@ -7826,10 +7834,10 @@
         <v>34</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>479</v>
+        <v>315</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -7851,13 +7859,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C149" s="2">
-        <v>2004.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D149" s="2">
         <v>8.0</v>
@@ -7866,10 +7874,10 @@
         <v>34</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -7891,13 +7899,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C150" s="2">
-        <v>2017.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D150" s="2">
         <v>8.0</v>
@@ -7906,10 +7914,10 @@
         <v>34</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -7931,13 +7939,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C151" s="2">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D151" s="2">
         <v>8.0</v>
@@ -7946,10 +7954,10 @@
         <v>34</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -7971,25 +7979,25 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="C152" s="2">
-        <v>2024.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D152" s="2">
         <v>8.0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>488</v>
+        <v>34</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>489</v>
+        <v>28</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -8011,25 +8019,25 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2024.0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G153" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8051,20 +8059,26 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B154" s="1"/>
+        <v>492</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C154" s="2">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D154" s="2">
         <v>7.0</v>
       </c>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F154" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G154" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -8085,26 +8099,20 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B155" s="1"/>
       <c r="C155" s="2">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D155" s="2">
         <v>7.0</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>496</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -8125,25 +8133,25 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C156" s="2">
-        <v>2010.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D156" s="2">
         <v>7.0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>498</v>
+        <v>34</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8165,25 +8173,25 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="C157" s="2">
-        <v>2018.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D157" s="2">
         <v>7.0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>34</v>
+        <v>499</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8205,13 +8213,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="C158" s="2">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D158" s="2">
         <v>7.0</v>
@@ -8220,10 +8228,10 @@
         <v>34</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8245,25 +8253,25 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C159" s="2">
-        <v>1981.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D159" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8285,23 +8293,25 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="C160" s="2">
-        <v>1964.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D160" s="2">
         <v>6.0</v>
       </c>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F160" s="1" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8323,25 +8333,23 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C161" s="2">
-        <v>2009.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D161" s="2">
         <v>6.0</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8363,13 +8371,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C162" s="2">
-        <v>2018.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D162" s="2">
         <v>6.0</v>
@@ -8378,10 +8386,10 @@
         <v>34</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8403,13 +8411,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C163" s="2">
-        <v>1966.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D163" s="2">
         <v>6.0</v>
@@ -8418,10 +8426,10 @@
         <v>34</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>513</v>
+        <v>57</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8443,25 +8451,25 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>414</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2">
-        <v>2010.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D164" s="2">
         <v>6.0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>516</v>
+        <v>34</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>414</v>
+        <v>514</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8483,25 +8491,25 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>234</v>
+        <v>415</v>
       </c>
       <c r="C165" s="2">
-        <v>2006.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D165" s="2">
         <v>6.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>234</v>
+        <v>415</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8523,13 +8531,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="C166" s="2">
-        <v>2010.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D166" s="2">
         <v>6.0</v>
@@ -8538,10 +8546,10 @@
         <v>34</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>521</v>
+        <v>234</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8563,13 +8571,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C167" s="2">
-        <v>2023.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D167" s="2">
         <v>6.0</v>
@@ -8578,10 +8586,10 @@
         <v>34</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>62</v>
+        <v>522</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8603,13 +8611,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="C168" s="2">
-        <v>1985.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D168" s="2">
         <v>6.0</v>
@@ -8618,10 +8626,10 @@
         <v>34</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -8643,13 +8651,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="C169" s="2">
-        <v>2018.0</v>
+        <v>1985.0</v>
       </c>
       <c r="D169" s="2">
         <v>6.0</v>
@@ -8658,10 +8666,10 @@
         <v>34</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -8683,13 +8691,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C170" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D170" s="2">
         <v>6.0</v>
@@ -8698,10 +8706,10 @@
         <v>34</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -8723,25 +8731,25 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>532</v>
+        <v>18</v>
       </c>
       <c r="C171" s="2">
-        <v>2006.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D171" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>532</v>
+        <v>18</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -8763,13 +8771,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>57</v>
+        <v>533</v>
       </c>
       <c r="C172" s="2">
-        <v>2012.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D172" s="2">
         <v>5.0</v>
@@ -8778,10 +8786,10 @@
         <v>34</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>57</v>
+        <v>533</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -8803,23 +8811,25 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C173" s="2">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D173" s="2">
         <v>5.0</v>
       </c>
-      <c r="E173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F173" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -8841,25 +8851,23 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="C174" s="2">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D174" s="2">
         <v>5.0</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E174" s="1"/>
       <c r="F174" s="1" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -8881,13 +8889,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C175" s="2">
-        <v>1978.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D175" s="2">
         <v>5.0</v>
@@ -8896,10 +8904,10 @@
         <v>34</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>541</v>
+        <v>195</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -8921,13 +8929,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C176" s="2">
-        <v>2021.0</v>
+        <v>1978.0</v>
       </c>
       <c r="D176" s="2">
         <v>5.0</v>
@@ -8936,10 +8944,10 @@
         <v>34</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>28</v>
+        <v>542</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -8961,13 +8969,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C177" s="2">
-        <v>2002.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D177" s="2">
         <v>5.0</v>
@@ -8976,10 +8984,10 @@
         <v>34</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -9001,13 +9009,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C178" s="2">
-        <v>2022.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D178" s="2">
         <v>5.0</v>
@@ -9016,10 +9024,10 @@
         <v>34</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>548</v>
+        <v>67</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9041,13 +9049,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="C179" s="2">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D179" s="2">
         <v>5.0</v>
@@ -9056,10 +9064,10 @@
         <v>34</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>175</v>
+        <v>549</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -9080,13 +9088,27 @@
       <c r="X179" s="1"/>
     </row>
     <row r="180">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>552</v>
+      </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -30468,8 +30490,8 @@
     <hyperlink r:id="rId39" ref="G40"/>
     <hyperlink r:id="rId40" ref="G41"/>
     <hyperlink r:id="rId41" ref="G42"/>
-    <hyperlink r:id="rId42" ref="E43"/>
-    <hyperlink r:id="rId43" ref="G43"/>
+    <hyperlink r:id="rId42" ref="G43"/>
+    <hyperlink r:id="rId43" ref="E44"/>
     <hyperlink r:id="rId44" ref="G44"/>
     <hyperlink r:id="rId45" ref="G45"/>
     <hyperlink r:id="rId46" ref="G46"/>
@@ -30544,67 +30566,67 @@
     <hyperlink r:id="rId115" ref="G115"/>
     <hyperlink r:id="rId116" ref="G116"/>
     <hyperlink r:id="rId117" ref="G117"/>
-    <hyperlink r:id="rId118" ref="G118"/>
-    <hyperlink r:id="rId119" ref="G119"/>
-    <hyperlink r:id="rId120" ref="G120"/>
-    <hyperlink r:id="rId121" ref="G121"/>
-    <hyperlink r:id="rId122" ref="G122"/>
-    <hyperlink r:id="rId123" ref="G123"/>
-    <hyperlink r:id="rId124" ref="G124"/>
-    <hyperlink r:id="rId125" ref="G125"/>
-    <hyperlink r:id="rId126" ref="G126"/>
-    <hyperlink r:id="rId127" ref="G127"/>
-    <hyperlink r:id="rId128" ref="G128"/>
-    <hyperlink r:id="rId129" ref="G129"/>
-    <hyperlink r:id="rId130" ref="G130"/>
-    <hyperlink r:id="rId131" ref="G131"/>
-    <hyperlink r:id="rId132" ref="G132"/>
-    <hyperlink r:id="rId133" ref="G133"/>
-    <hyperlink r:id="rId134" ref="G134"/>
-    <hyperlink r:id="rId135" ref="G135"/>
-    <hyperlink r:id="rId136" ref="G136"/>
-    <hyperlink r:id="rId137" ref="G137"/>
-    <hyperlink r:id="rId138" ref="G138"/>
-    <hyperlink r:id="rId139" ref="G139"/>
-    <hyperlink r:id="rId140" ref="G140"/>
-    <hyperlink r:id="rId141" ref="G141"/>
-    <hyperlink r:id="rId142" ref="G142"/>
-    <hyperlink r:id="rId143" ref="G143"/>
-    <hyperlink r:id="rId144" ref="G144"/>
-    <hyperlink r:id="rId145" ref="G145"/>
-    <hyperlink r:id="rId146" ref="G146"/>
-    <hyperlink r:id="rId147" ref="G147"/>
-    <hyperlink r:id="rId148" ref="G148"/>
-    <hyperlink r:id="rId149" ref="G149"/>
-    <hyperlink r:id="rId150" ref="G150"/>
-    <hyperlink r:id="rId151" ref="G151"/>
-    <hyperlink r:id="rId152" ref="G152"/>
-    <hyperlink r:id="rId153" ref="G153"/>
-    <hyperlink r:id="rId154" ref="G155"/>
-    <hyperlink r:id="rId155" ref="G156"/>
-    <hyperlink r:id="rId156" ref="G157"/>
-    <hyperlink r:id="rId157" ref="G158"/>
-    <hyperlink r:id="rId158" ref="G159"/>
-    <hyperlink r:id="rId159" ref="G160"/>
-    <hyperlink r:id="rId160" ref="G161"/>
-    <hyperlink r:id="rId161" ref="G162"/>
-    <hyperlink r:id="rId162" ref="G163"/>
-    <hyperlink r:id="rId163" ref="G164"/>
-    <hyperlink r:id="rId164" ref="G165"/>
-    <hyperlink r:id="rId165" ref="G166"/>
-    <hyperlink r:id="rId166" ref="G167"/>
-    <hyperlink r:id="rId167" ref="G168"/>
-    <hyperlink r:id="rId168" ref="G169"/>
-    <hyperlink r:id="rId169" ref="G170"/>
-    <hyperlink r:id="rId170" ref="G171"/>
-    <hyperlink r:id="rId171" ref="G172"/>
-    <hyperlink r:id="rId172" ref="G173"/>
-    <hyperlink r:id="rId173" ref="G174"/>
-    <hyperlink r:id="rId174" ref="G175"/>
-    <hyperlink r:id="rId175" ref="G176"/>
-    <hyperlink r:id="rId176" ref="G177"/>
-    <hyperlink r:id="rId177" ref="G178"/>
-    <hyperlink r:id="rId178" ref="G179"/>
+    <hyperlink r:id="rId118" ref="G119"/>
+    <hyperlink r:id="rId119" ref="G120"/>
+    <hyperlink r:id="rId120" ref="G121"/>
+    <hyperlink r:id="rId121" ref="G122"/>
+    <hyperlink r:id="rId122" ref="G123"/>
+    <hyperlink r:id="rId123" ref="G124"/>
+    <hyperlink r:id="rId124" ref="G125"/>
+    <hyperlink r:id="rId125" ref="G126"/>
+    <hyperlink r:id="rId126" ref="G127"/>
+    <hyperlink r:id="rId127" ref="G128"/>
+    <hyperlink r:id="rId128" ref="G129"/>
+    <hyperlink r:id="rId129" ref="G130"/>
+    <hyperlink r:id="rId130" ref="G131"/>
+    <hyperlink r:id="rId131" ref="G132"/>
+    <hyperlink r:id="rId132" ref="G133"/>
+    <hyperlink r:id="rId133" ref="G134"/>
+    <hyperlink r:id="rId134" ref="G135"/>
+    <hyperlink r:id="rId135" ref="G136"/>
+    <hyperlink r:id="rId136" ref="G137"/>
+    <hyperlink r:id="rId137" ref="G138"/>
+    <hyperlink r:id="rId138" ref="G139"/>
+    <hyperlink r:id="rId139" ref="G140"/>
+    <hyperlink r:id="rId140" ref="G141"/>
+    <hyperlink r:id="rId141" ref="G142"/>
+    <hyperlink r:id="rId142" ref="G143"/>
+    <hyperlink r:id="rId143" ref="G144"/>
+    <hyperlink r:id="rId144" ref="G145"/>
+    <hyperlink r:id="rId145" ref="G146"/>
+    <hyperlink r:id="rId146" ref="G147"/>
+    <hyperlink r:id="rId147" ref="G148"/>
+    <hyperlink r:id="rId148" ref="G149"/>
+    <hyperlink r:id="rId149" ref="G150"/>
+    <hyperlink r:id="rId150" ref="G151"/>
+    <hyperlink r:id="rId151" ref="G152"/>
+    <hyperlink r:id="rId152" ref="G153"/>
+    <hyperlink r:id="rId153" ref="G154"/>
+    <hyperlink r:id="rId154" ref="G156"/>
+    <hyperlink r:id="rId155" ref="G157"/>
+    <hyperlink r:id="rId156" ref="G158"/>
+    <hyperlink r:id="rId157" ref="G159"/>
+    <hyperlink r:id="rId158" ref="G160"/>
+    <hyperlink r:id="rId159" ref="G161"/>
+    <hyperlink r:id="rId160" ref="G162"/>
+    <hyperlink r:id="rId161" ref="G163"/>
+    <hyperlink r:id="rId162" ref="G164"/>
+    <hyperlink r:id="rId163" ref="G165"/>
+    <hyperlink r:id="rId164" ref="G166"/>
+    <hyperlink r:id="rId165" ref="G167"/>
+    <hyperlink r:id="rId166" ref="G168"/>
+    <hyperlink r:id="rId167" ref="G169"/>
+    <hyperlink r:id="rId168" ref="G170"/>
+    <hyperlink r:id="rId169" ref="G171"/>
+    <hyperlink r:id="rId170" ref="G172"/>
+    <hyperlink r:id="rId171" ref="G173"/>
+    <hyperlink r:id="rId172" ref="G174"/>
+    <hyperlink r:id="rId173" ref="G175"/>
+    <hyperlink r:id="rId174" ref="G176"/>
+    <hyperlink r:id="rId175" ref="G177"/>
+    <hyperlink r:id="rId176" ref="G178"/>
+    <hyperlink r:id="rId177" ref="G179"/>
+    <hyperlink r:id="rId178" ref="G180"/>
   </hyperlinks>
   <drawing r:id="rId179"/>
 </worksheet>

--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -133,7 +133,7 @@
     <t>Wildcat Capital Management</t>
   </si>
   <si>
-    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois</t>
+    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois | Minnesota | Mississippi | Tennessee</t>
   </si>
   <si>
     <t>https://clubcarwash.com/</t>
@@ -2253,7 +2253,7 @@
         <v>2006.0</v>
       </c>
       <c r="D8" s="2">
-        <v>214.0</v>
+        <v>238.0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>39</v>
@@ -2673,7 +2673,7 @@
         <v>2021.0</v>
       </c>
       <c r="D18" s="2">
-        <v>78.0</v>
+        <v>76.0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>

--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -1222,6 +1222,108 @@
     <t>https://duckysexpress.com/</t>
   </si>
   <si>
+    <t>Mr Wash Car Wash</t>
+  </si>
+  <si>
+    <t>Virginia | Maryland | Delaware</t>
+  </si>
+  <si>
+    <t>https://mrwash.com/</t>
+  </si>
+  <si>
+    <t>Red Carpet Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.redcarpetcarwash.com/</t>
+  </si>
+  <si>
+    <t>Scrub-a-Dub</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>https://scrubadub.biz/</t>
+  </si>
+  <si>
+    <t>Shine Time Super Wash</t>
+  </si>
+  <si>
+    <t>Alabama | Mississippi</t>
+  </si>
+  <si>
+    <t>https://www.shinetimesuperwash.com/</t>
+  </si>
+  <si>
+    <t>Tsunami Express</t>
+  </si>
+  <si>
+    <t>Point72 Ventures</t>
+  </si>
+  <si>
+    <t>Wisconsin | Indiana | Minnesota</t>
+  </si>
+  <si>
+    <t>https://www.tsunamiexpress.com/</t>
+  </si>
+  <si>
+    <t>Wash Factory Car Wash</t>
+  </si>
+  <si>
+    <t>Georgia | Tennessee</t>
+  </si>
+  <si>
+    <t>https://www.washfactorycarwash.com/</t>
+  </si>
+  <si>
+    <t>Xpress Car Wash</t>
+  </si>
+  <si>
+    <t>Louisiana | Texas</t>
+  </si>
+  <si>
+    <t>https://timeitxpresswash.com/</t>
+  </si>
+  <si>
+    <t>Blue Penguin Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.bluepenguincarwash.com/</t>
+  </si>
+  <si>
+    <t>BriteworX Car Washery</t>
+  </si>
+  <si>
+    <t>Missouri | Illinois</t>
+  </si>
+  <si>
+    <t>https://briteworx.com/</t>
+  </si>
+  <si>
+    <t>Clean Sweep Car Wash</t>
+  </si>
+  <si>
+    <t>Illinois | Iowa | Kentucky</t>
+  </si>
+  <si>
+    <t>https://cleansweepcarwash.com/</t>
+  </si>
+  <si>
+    <t>Cloud 10 Smartwash</t>
+  </si>
+  <si>
+    <t>Pennsylvania | New Jersey</t>
+  </si>
+  <si>
+    <t>https://cloud10smartwash.com/</t>
+  </si>
+  <si>
+    <t>Everclean Car Wash</t>
+  </si>
+  <si>
+    <t>https://evercleancw.com/</t>
+  </si>
+  <si>
     <t>Groove Car Wash</t>
   </si>
   <si>
@@ -1232,108 +1334,6 @@
   </si>
   <si>
     <t>https://www.groovecarwash.com/</t>
-  </si>
-  <si>
-    <t>Mr Wash Car Wash</t>
-  </si>
-  <si>
-    <t>Virginia | Maryland | Delaware</t>
-  </si>
-  <si>
-    <t>https://mrwash.com/</t>
-  </si>
-  <si>
-    <t>Red Carpet Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.redcarpetcarwash.com/</t>
-  </si>
-  <si>
-    <t>Scrub-a-Dub</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>https://scrubadub.biz/</t>
-  </si>
-  <si>
-    <t>Shine Time Super Wash</t>
-  </si>
-  <si>
-    <t>Alabama | Mississippi</t>
-  </si>
-  <si>
-    <t>https://www.shinetimesuperwash.com/</t>
-  </si>
-  <si>
-    <t>Tsunami Express</t>
-  </si>
-  <si>
-    <t>Point72 Ventures</t>
-  </si>
-  <si>
-    <t>Wisconsin | Indiana | Minnesota</t>
-  </si>
-  <si>
-    <t>https://www.tsunamiexpress.com/</t>
-  </si>
-  <si>
-    <t>Wash Factory Car Wash</t>
-  </si>
-  <si>
-    <t>Georgia | Tennessee</t>
-  </si>
-  <si>
-    <t>https://www.washfactorycarwash.com/</t>
-  </si>
-  <si>
-    <t>Xpress Car Wash</t>
-  </si>
-  <si>
-    <t>Louisiana | Texas</t>
-  </si>
-  <si>
-    <t>https://timeitxpresswash.com/</t>
-  </si>
-  <si>
-    <t>Blue Penguin Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.bluepenguincarwash.com/</t>
-  </si>
-  <si>
-    <t>BriteworX Car Washery</t>
-  </si>
-  <si>
-    <t>Missouri | Illinois</t>
-  </si>
-  <si>
-    <t>https://briteworx.com/</t>
-  </si>
-  <si>
-    <t>Clean Sweep Car Wash</t>
-  </si>
-  <si>
-    <t>Illinois | Iowa | Kentucky</t>
-  </si>
-  <si>
-    <t>https://cleansweepcarwash.com/</t>
-  </si>
-  <si>
-    <t>Cloud 10 Smartwash</t>
-  </si>
-  <si>
-    <t>Pennsylvania | New Jersey</t>
-  </si>
-  <si>
-    <t>https://cloud10smartwash.com/</t>
-  </si>
-  <si>
-    <t>Everclean Car Wash</t>
-  </si>
-  <si>
-    <t>https://evercleancw.com/</t>
   </si>
   <si>
     <t>Scenic Suds Car Wash</t>
@@ -2001,7 +2001,7 @@
         <v>1969.0</v>
       </c>
       <c r="D2" s="2">
-        <v>501.0</v>
+        <v>506.0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -2043,7 +2043,7 @@
         <v>2014.0</v>
       </c>
       <c r="D3" s="2">
-        <v>477.0</v>
+        <v>472.0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -2127,7 +2127,7 @@
         <v>2004.0</v>
       </c>
       <c r="D5" s="2">
-        <v>277.0</v>
+        <v>276.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -2505,7 +2505,7 @@
         <v>2018.0</v>
       </c>
       <c r="D14" s="2">
-        <v>116.0</v>
+        <v>119.0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -6949,22 +6949,22 @@
         <v>403</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="C120" s="2">
-        <v>2022.0</v>
+        <v>1958.0</v>
       </c>
       <c r="D120" s="2">
         <v>11.0</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6988,13 +6988,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="C121" s="2">
-        <v>1958.0</v>
+        <v>1950.0</v>
       </c>
       <c r="D121" s="2">
         <v>11.0</v>
@@ -7003,10 +7003,10 @@
         <v>34</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>408</v>
+        <v>28</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -7030,13 +7030,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>28</v>
+        <v>409</v>
       </c>
       <c r="C122" s="2">
-        <v>1950.0</v>
+        <v>1947.0</v>
       </c>
       <c r="D122" s="2">
         <v>11.0</v>
@@ -7045,10 +7045,10 @@
         <v>34</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>28</v>
+        <v>409</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -7072,13 +7072,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>413</v>
+        <v>155</v>
       </c>
       <c r="C123" s="2">
-        <v>1947.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D123" s="2">
         <v>11.0</v>
@@ -7087,10 +7087,10 @@
         <v>34</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -7114,19 +7114,19 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="C124" s="2">
-        <v>2007.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D124" s="2">
         <v>11.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>34</v>
+        <v>415</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>416</v>
@@ -7159,22 +7159,22 @@
         <v>418</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="C125" s="2">
-        <v>2015.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D125" s="2">
         <v>11.0</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -7198,14 +7198,12 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="2">
-        <v>2011.0</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C126" s="1"/>
       <c r="D126" s="2">
         <v>11.0</v>
       </c>
@@ -7213,10 +7211,10 @@
         <v>34</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -7240,23 +7238,25 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2022.0</v>
+      </c>
       <c r="D127" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>426</v>
+        <v>145</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -7280,13 +7280,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C128" s="2">
-        <v>2022.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D128" s="2">
         <v>10.0</v>
@@ -7295,10 +7295,10 @@
         <v>34</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>145</v>
+        <v>427</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7322,13 +7322,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="C129" s="2">
-        <v>2016.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D129" s="2">
         <v>10.0</v>
@@ -7337,10 +7337,10 @@
         <v>34</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7364,13 +7364,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="C130" s="2">
-        <v>1993.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D130" s="2">
         <v>10.0</v>
@@ -7379,10 +7379,10 @@
         <v>34</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7406,13 +7406,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C131" s="2">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D131" s="2">
         <v>10.0</v>
@@ -7421,10 +7421,10 @@
         <v>34</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>437</v>
+        <v>43</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7448,22 +7448,22 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2">
-        <v>2019.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D132" s="2">
         <v>10.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>34</v>
+        <v>438</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>43</v>
+        <v>439</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>440</v>
@@ -8785,7 +8785,7 @@
         <v>514</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C164" s="2">
         <v>2010.0</v>
@@ -8797,7 +8797,7 @@
         <v>515</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>516</v>

--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="555">
   <si>
     <t>Company Name</t>
   </si>
@@ -79,6 +79,66 @@
     <t>https://www.tidalwaveautospa.com/</t>
   </si>
   <si>
+    <t>Quick Quack Express Car Wash</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>Texas | Colorado | Utah | Arizona | California</t>
+  </si>
+  <si>
+    <t>https://www.dontdrivedirty.com/</t>
+  </si>
+  <si>
+    <t>Tommy’s Express Car Wash</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Florida | Georgia | South Carolina | North Carolina | Louisiana | Tennessee | Mississippi | Virginia | Kentucky | Maryland | Indiana | Arkansas | Delaware | Texas | Pennsylvania | Missouri | Oklahoma | Michigan | Illinois | Iowa | Kansas | New York | Wisconsin | Nebraska | Minnesota | Colorado | South Dakota | North Dakota | Wyoming | Utah | Nevada | Idaho | California | Alaska | Washington</t>
+  </si>
+  <si>
+    <t>https://tommys-express.com/</t>
+  </si>
+  <si>
+    <t>Club Car Wash</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Wildcat Capital Management</t>
+  </si>
+  <si>
+    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois | Minnesota | Mississippi | Tennessee</t>
+  </si>
+  <si>
+    <t>https://clubcarwash.com/</t>
+  </si>
+  <si>
+    <t>Spotless Brands</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Access Holdings</t>
+  </si>
+  <si>
+    <t>Arizona | Colorado | Oklahoma | Maryland | Tennessee | Virginia | West Virginia | Idaho | Oregon</t>
+  </si>
+  <si>
+    <t>https://www.spotlessbrands.com/</t>
+  </si>
+  <si>
     <t>ZIPS Car Wash</t>
   </si>
   <si>
@@ -88,72 +148,12 @@
     <t>Atlantic Street Capital</t>
   </si>
   <si>
-    <t>Tennessee | Texas | Florida | North Carolina | Arkansas | Missouri | Oklahoma | Kansas | Kentucky | South Carolina | Virginia | Illinois | Louisiana</t>
+    <t>Tennessee | Texas | Florida | North Carolina | Arkansas | Missouri | Oklahoma | Kansas | Kentucky | South Carolina | Virginia | Illinois | Louisiana | Minnesota | Georgia | Indiana | Mississippi | New Mexico</t>
   </si>
   <si>
     <t>https://www.zipscarwash.com/</t>
   </si>
   <si>
-    <t>Quick Quack Express Car Wash</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>KKR</t>
-  </si>
-  <si>
-    <t>Texas | Colorado | Utah | Arizona | California</t>
-  </si>
-  <si>
-    <t>https://www.dontdrivedirty.com/</t>
-  </si>
-  <si>
-    <t>Tommy’s Express Car Wash</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Florida | Georgia | South Carolina | North Carolina | Louisiana | Tennessee | Mississippi | Virginia | Kentucky | Maryland | Indiana | Arkansas | Delaware | Texas | Pennsylvania | Missouri | Oklahoma | Michigan | Illinois | Iowa | Kansas | New York | Wisconsin | Nebraska | Minnesota | Colorado | South Dakota | North Dakota | Wyoming | Utah | Nevada | Idaho | California | Alaska | Washington</t>
-  </si>
-  <si>
-    <t>https://tommys-express.com/</t>
-  </si>
-  <si>
-    <t>Club Car Wash</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Wildcat Capital Management</t>
-  </si>
-  <si>
-    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois | Minnesota | Mississippi | Tennessee</t>
-  </si>
-  <si>
-    <t>https://clubcarwash.com/</t>
-  </si>
-  <si>
-    <t>Spotless Brands</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Access Holdings</t>
-  </si>
-  <si>
-    <t>Arizona | Colorado | Oklahoma | Maryland | Tennessee | Virginia | West Virginia | Idaho | Oregon</t>
-  </si>
-  <si>
-    <t>https://www.spotlessbrands.com/</t>
-  </si>
-  <si>
     <t>GO Car Wash</t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>Freeman Spogil &amp; Co.</t>
   </si>
   <si>
-    <t>Texas | Oklahoma | Louisiana | Kentucky | Ohio | Michigan</t>
+    <t>Texas | Oklahoma | Louisiana | Kentucky | Ohio | Michigan | South Carolina</t>
   </si>
   <si>
     <t>https://www.whitewatercw.com/</t>
@@ -442,6 +442,15 @@
     <t>https://www.bigdanscarwash.com/</t>
   </si>
   <si>
+    <t>Brown Bear Car Wash</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>https://www.brownbear.com/</t>
+  </si>
+  <si>
     <t>Mr. Clean Car Wash</t>
   </si>
   <si>
@@ -556,15 +565,6 @@
     <t>https://www.hurricanewash.com/</t>
   </si>
   <si>
-    <t>Brown Bear Car Wash</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>https://www.brownbear.com/</t>
-  </si>
-  <si>
     <t>Waterway Carwash</t>
   </si>
   <si>
@@ -691,6 +691,15 @@
     <t>https://ultracleanexpress.com/</t>
   </si>
   <si>
+    <t>Carnation Auto Spa</t>
+  </si>
+  <si>
+    <t>Iron Skillet Partners</t>
+  </si>
+  <si>
+    <t>https://carnationautospa.com/</t>
+  </si>
+  <si>
     <t>Flagstop Car Wash</t>
   </si>
   <si>
@@ -757,15 +766,6 @@
     <t>https://wowwash.com/</t>
   </si>
   <si>
-    <t>Carnation Auto Spa</t>
-  </si>
-  <si>
-    <t>Iron Skillet Partners</t>
-  </si>
-  <si>
-    <t>https://carnationautospa.com/</t>
-  </si>
-  <si>
     <t>Dirty Dog’s Car Wash</t>
   </si>
   <si>
@@ -808,156 +808,156 @@
     <t>https://flashcarwashes.com/</t>
   </si>
   <si>
-    <t>Sgt. Clean’s Car Wash</t>
+    <t>TruShine Car Wash</t>
+  </si>
+  <si>
+    <t>Tennessee | Virginia</t>
+  </si>
+  <si>
+    <t>https://www.trushinecarwash.com/</t>
+  </si>
+  <si>
+    <t>Francis &amp; Sons Car Wash</t>
+  </si>
+  <si>
+    <t>Acquired by Raceway Car Wash</t>
+  </si>
+  <si>
+    <t>https://francisandsonscarwash.com/</t>
+  </si>
+  <si>
+    <t>Fuller's Car Wash</t>
+  </si>
+  <si>
+    <t>https://fullerscarwash.com/</t>
+  </si>
+  <si>
+    <t>Shiny Shell Car Wash</t>
+  </si>
+  <si>
+    <t>Utah | Pennsylvania | Maryland</t>
+  </si>
+  <si>
+    <t>https://www.shinyshell.com/</t>
+  </si>
+  <si>
+    <t>Washman Car Washes</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>https://www.washmanusa.com/</t>
+  </si>
+  <si>
+    <t>Bubble Down Car Wash</t>
+  </si>
+  <si>
+    <t>Locally Owned</t>
+  </si>
+  <si>
+    <t>https://bubbledown.com/</t>
+  </si>
+  <si>
+    <t>Elephant Super Car Wash</t>
+  </si>
+  <si>
+    <t>https://elephantcarwash.com/</t>
+  </si>
+  <si>
+    <t>Kaady Car Wash</t>
+  </si>
+  <si>
+    <t>Oregon | Washington | California</t>
+  </si>
+  <si>
+    <t>https://kaady.com/</t>
+  </si>
+  <si>
+    <t>Ronny's Car Wash</t>
+  </si>
+  <si>
+    <t>Florida | Alabama</t>
+  </si>
+  <si>
+    <t>https://ronnyscarwash.net/</t>
+  </si>
+  <si>
+    <t>Big Peach Car Wash</t>
+  </si>
+  <si>
+    <t>Georgia | Tennessee | Florida</t>
+  </si>
+  <si>
+    <t>https://www.bigpeachusa.com/</t>
+  </si>
+  <si>
+    <t>Bliss Car Wash</t>
+  </si>
+  <si>
+    <t>https://blisscarwash.com/</t>
+  </si>
+  <si>
+    <t>Buddy Bear Car Wash</t>
+  </si>
+  <si>
+    <t>https://buddybearcarwash.com/</t>
+  </si>
+  <si>
+    <t>Fast Eddie's Car Wash &amp; Oil Change</t>
+  </si>
+  <si>
+    <t>https://www.fasteddiescarcare.com/</t>
+  </si>
+  <si>
+    <t>Gate Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://gateexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Zax Auto Wash</t>
+  </si>
+  <si>
+    <t>https://zaxautowash.com/</t>
+  </si>
+  <si>
+    <t>Cheetah Clean Auto Wash</t>
+  </si>
+  <si>
+    <t>Kentucky | Tennessee</t>
+  </si>
+  <si>
+    <t>https://cheetahclean.com/</t>
+  </si>
+  <si>
+    <t>Haffner's</t>
+  </si>
+  <si>
+    <t>Massachusetts | New Hampshire</t>
+  </si>
+  <si>
+    <t>https://haffners.com/</t>
+  </si>
+  <si>
+    <t>Rainforest Carwash &amp; Oil Change</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Louisiana | Mississippi</t>
+  </si>
+  <si>
+    <t>https://rainforestclean.com/</t>
+  </si>
+  <si>
+    <t>Sgt. Clean Car Wash</t>
   </si>
   <si>
     <t>https://sgtclean.com/</t>
   </si>
   <si>
-    <t>TruShine Car Wash</t>
-  </si>
-  <si>
-    <t>Tennessee | Virginia</t>
-  </si>
-  <si>
-    <t>https://www.trushinecarwash.com/</t>
-  </si>
-  <si>
-    <t>Francis &amp; Sons Car Wash</t>
-  </si>
-  <si>
-    <t>Acquired by Raceway Car Wash</t>
-  </si>
-  <si>
-    <t>https://francisandsonscarwash.com/</t>
-  </si>
-  <si>
-    <t>Fuller's Car Wash</t>
-  </si>
-  <si>
-    <t>https://fullerscarwash.com/</t>
-  </si>
-  <si>
-    <t>Shiny Shell Car Wash</t>
-  </si>
-  <si>
-    <t>Utah | Pennsylvania | Maryland</t>
-  </si>
-  <si>
-    <t>https://www.shinyshell.com/</t>
-  </si>
-  <si>
-    <t>Washman Car Washes</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>https://www.washmanusa.com/</t>
-  </si>
-  <si>
-    <t>Bubble Down Car Wash</t>
-  </si>
-  <si>
-    <t>Locally Owned</t>
-  </si>
-  <si>
-    <t>https://bubbledown.com/</t>
-  </si>
-  <si>
-    <t>Elephant Super Car Wash</t>
-  </si>
-  <si>
-    <t>https://elephantcarwash.com/</t>
-  </si>
-  <si>
-    <t>Kaady Car Wash</t>
-  </si>
-  <si>
-    <t>Oregon | Washington | California</t>
-  </si>
-  <si>
-    <t>https://kaady.com/</t>
-  </si>
-  <si>
-    <t>Ronny's Car Wash</t>
-  </si>
-  <si>
-    <t>Florida | Alabama</t>
-  </si>
-  <si>
-    <t>https://ronnyscarwash.net/</t>
-  </si>
-  <si>
-    <t>Big Peach Car Wash</t>
-  </si>
-  <si>
-    <t>Georgia | Tennessee | Florida</t>
-  </si>
-  <si>
-    <t>https://www.bigpeachusa.com/</t>
-  </si>
-  <si>
-    <t>Bliss Car Wash</t>
-  </si>
-  <si>
-    <t>https://blisscarwash.com/</t>
-  </si>
-  <si>
-    <t>Buddy Bear Car Wash</t>
-  </si>
-  <si>
-    <t>https://buddybearcarwash.com/</t>
-  </si>
-  <si>
-    <t>Fast Eddie's Car Wash &amp; Oil Change</t>
-  </si>
-  <si>
-    <t>https://www.fasteddiescarcare.com/</t>
-  </si>
-  <si>
-    <t>Gate Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://gateexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Zax Auto Wash</t>
-  </si>
-  <si>
-    <t>https://zaxautowash.com/</t>
-  </si>
-  <si>
-    <t>Cheetah Clean Auto Wash</t>
-  </si>
-  <si>
-    <t>Kentucky | Tennessee</t>
-  </si>
-  <si>
-    <t>https://cheetahclean.com/</t>
-  </si>
-  <si>
-    <t>Haffner's</t>
-  </si>
-  <si>
-    <t>Massachusetts | New Hampshire</t>
-  </si>
-  <si>
-    <t>https://haffners.com/</t>
-  </si>
-  <si>
-    <t>Rainforest Carwash &amp; Oil Change</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Louisiana | Mississippi</t>
-  </si>
-  <si>
-    <t>https://rainforestclean.com/</t>
-  </si>
-  <si>
     <t>Shammy Shine Car Washes</t>
   </si>
   <si>
@@ -1000,6 +1000,18 @@
     <t>https://rockymountaincarwash.com/</t>
   </si>
   <si>
+    <t>Sud Stop Car Wash</t>
+  </si>
+  <si>
+    <t>Real Capital Partners</t>
+  </si>
+  <si>
+    <t>Florida | Georgia | Alabama | North Carolina | South Carolina</t>
+  </si>
+  <si>
+    <t>https://www.sudstopcarwash.com/</t>
+  </si>
+  <si>
     <t>Breeze Thru Car Wash</t>
   </si>
   <si>
@@ -1057,6 +1069,15 @@
     <t>https://www.washluberepair.com/</t>
   </si>
   <si>
+    <t>The Bubble Bath Car Wash</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
+  </si>
+  <si>
+    <t>https://thebubblebathcarwash.com/</t>
+  </si>
+  <si>
     <t>Valet Auto Wash</t>
   </si>
   <si>
@@ -1183,18 +1204,6 @@
     <t>https://supercleanmycar.com/</t>
   </si>
   <si>
-    <t>Time To Shine Car Wash</t>
-  </si>
-  <si>
-    <t>2000's</t>
-  </si>
-  <si>
-    <t>Oklahoma | South Carolina | Kentucky</t>
-  </si>
-  <si>
-    <t>https://timetoshinecarwash.com/</t>
-  </si>
-  <si>
     <t>WashX Car Wash</t>
   </si>
   <si>
@@ -1471,18 +1480,6 @@
     <t>https://www.speedwashes.com/</t>
   </si>
   <si>
-    <t>Sud Stop Car Wash</t>
-  </si>
-  <si>
-    <t>Real Capital Partners</t>
-  </si>
-  <si>
-    <t>Florida | Georgia | Alabama | North Carolina | South Carolina</t>
-  </si>
-  <si>
-    <t>https://www.sudstopcarwash.com/</t>
-  </si>
-  <si>
     <t>Ace Auto Wash</t>
   </si>
   <si>
@@ -1564,12 +1561,6 @@
     <t>https://mrsplashcarwash.com/</t>
   </si>
   <si>
-    <t>Pete's Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://petesexpresscarwash.com/</t>
-  </si>
-  <si>
     <t>RaceWash</t>
   </si>
   <si>
@@ -1678,16 +1669,22 @@
     <t>https://www.cleanwheelswash.com/</t>
   </si>
   <si>
-    <t>Mint Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.mintexpresscarwash.com/</t>
+    <t>Country Club Auto Spa</t>
+  </si>
+  <si>
+    <t>Las Vegas, NV</t>
+  </si>
+  <si>
+    <t>https://www.countryclubautospa.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -1719,7 +1716,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1731,6 +1728,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,7 +2130,7 @@
         <v>2004.0</v>
       </c>
       <c r="D5" s="2">
-        <v>276.0</v>
+        <v>275.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -2166,10 +2169,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="2">
-        <v>2004.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D6" s="2">
-        <v>275.0</v>
+        <v>256.0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -2208,10 +2211,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="2">
-        <v>2011.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D7" s="2">
-        <v>256.0</v>
+        <v>249.0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -2250,10 +2253,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="2">
-        <v>2006.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D8" s="2">
-        <v>238.0</v>
+        <v>213.0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>39</v>
@@ -2292,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>2019.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D9" s="2">
-        <v>213.0</v>
+        <v>196.0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -2421,7 +2424,7 @@
         <v>2015.0</v>
       </c>
       <c r="D12" s="2">
-        <v>130.0</v>
+        <v>141.0</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>58</v>
@@ -2508,7 +2511,7 @@
         <v>119.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>68</v>
@@ -2634,7 +2637,7 @@
         <v>91.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>80</v>
@@ -2844,7 +2847,7 @@
         <v>63.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>100</v>
@@ -2970,7 +2973,7 @@
         <v>58.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>113</v>
@@ -3012,7 +3015,7 @@
         <v>54.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>116</v>
@@ -3054,7 +3057,7 @@
         <v>50.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>120</v>
@@ -3096,7 +3099,7 @@
         <v>50.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>123</v>
@@ -3129,7 +3132,7 @@
         <v>125</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
         <v>1953.0</v>
@@ -3180,7 +3183,7 @@
         <v>49.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>107</v>
@@ -3222,7 +3225,7 @@
         <v>47.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>133</v>
@@ -3339,22 +3342,22 @@
         <v>143</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2">
-        <v>1988.0</v>
+        <v>1957.0</v>
       </c>
       <c r="D34" s="2">
         <v>45.0</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3378,25 +3381,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1988.0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1995.0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>42.0</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3420,19 +3423,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2">
-        <v>2013.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D36" s="2">
         <v>42.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>152</v>
@@ -3465,22 +3468,22 @@
         <v>154</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="2">
-        <v>1976.0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3504,19 +3507,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C38" s="2">
-        <v>1948.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D38" s="2">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>159</v>
@@ -3549,16 +3552,16 @@
         <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2">
-        <v>2011.0</v>
+        <v>1948.0</v>
       </c>
       <c r="D39" s="2">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>162</v>
@@ -3591,16 +3594,16 @@
         <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>2018.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D40" s="2">
         <v>36.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>165</v>
@@ -3633,22 +3636,22 @@
         <v>167</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="2">
-        <v>1967.0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3672,25 +3675,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C42" s="2">
-        <v>1986.0</v>
+        <v>1967.0</v>
       </c>
       <c r="D42" s="2">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3714,22 +3717,22 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2">
-        <v>2013.0</v>
+        <v>1986.0</v>
       </c>
       <c r="D43" s="2">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>175</v>
@@ -3759,22 +3762,22 @@
         <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D44" s="2">
         <v>30.0</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3798,19 +3801,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1957.0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>182</v>
@@ -3843,7 +3846,7 @@
         <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2">
         <v>1970.0</v>
@@ -3852,7 +3855,7 @@
         <v>29.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>185</v>
@@ -3885,7 +3888,7 @@
         <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2">
         <v>1965.0</v>
@@ -3894,10 +3897,10 @@
         <v>28.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>188</v>
@@ -3936,7 +3939,7 @@
         <v>27.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>190</v>
@@ -3978,7 +3981,7 @@
         <v>26.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>57</v>
@@ -4137,7 +4140,7 @@
         <v>208</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2">
         <v>2011.0</v>
@@ -4146,10 +4149,10 @@
         <v>25.0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>209</v>
@@ -4221,7 +4224,7 @@
         <v>213</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2">
         <v>2019.0</v>
@@ -4263,7 +4266,7 @@
         <v>217</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C56" s="2">
         <v>2013.0</v>
@@ -4272,10 +4275,10 @@
         <v>24.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>218</v>
@@ -4314,7 +4317,7 @@
         <v>24.0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>220</v>
@@ -4389,22 +4392,22 @@
         <v>226</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2">
-        <v>1981.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D59" s="2">
         <v>23.0</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4428,22 +4431,22 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C60" s="2">
-        <v>2012.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D60" s="2">
         <v>23.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>232</v>
@@ -4473,22 +4476,22 @@
         <v>233</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
-        <v>1959.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D61" s="2">
         <v>23.0</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4512,19 +4515,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="C62" s="2">
-        <v>1966.0</v>
+        <v>1959.0</v>
       </c>
       <c r="D62" s="2">
         <v>23.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>239</v>
@@ -4557,22 +4560,22 @@
         <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2">
-        <v>1981.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D63" s="2">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4596,25 +4599,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2">
-        <v>2019.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D64" s="2">
         <v>22.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4638,22 +4641,22 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D65" s="2">
         <v>22.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>247</v>
@@ -4683,19 +4686,19 @@
         <v>248</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D66" s="2">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>250</v>
@@ -4776,7 +4779,7 @@
         <v>21.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>257</v>
@@ -4818,7 +4821,7 @@
         <v>20.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>260</v>
@@ -4860,7 +4863,7 @@
         <v>20.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>263</v>
@@ -4893,22 +4896,22 @@
         <v>265</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2">
-        <v>2013.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D71" s="2">
         <v>20.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4932,25 +4935,25 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2">
-        <v>2019.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D72" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4974,22 +4977,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2">
-        <v>1997.0</v>
+        <v>1960.0</v>
       </c>
       <c r="D73" s="2">
         <v>19.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>272</v>
@@ -5019,22 +5022,22 @@
         <v>273</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="C74" s="2">
-        <v>1960.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D74" s="2">
         <v>19.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5058,25 +5061,25 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="C75" s="2">
-        <v>2012.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D75" s="2">
         <v>19.0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5100,25 +5103,25 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2">
-        <v>1995.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D76" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5142,22 +5145,22 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C77" s="2">
-        <v>2020.0</v>
+        <v>1951.0</v>
       </c>
       <c r="D77" s="2">
         <v>18.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>283</v>
@@ -5187,22 +5190,22 @@
         <v>284</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="C78" s="2">
-        <v>1951.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D78" s="2">
         <v>18.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5226,25 +5229,25 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2">
-        <v>1976.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D79" s="2">
         <v>18.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5268,25 +5271,25 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D80" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5310,22 +5313,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C81" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D81" s="2">
         <v>17.0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>294</v>
@@ -5355,19 +5358,19 @@
         <v>295</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C82" s="2">
-        <v>2019.0</v>
+        <v>1982.0</v>
       </c>
       <c r="D82" s="2">
         <v>17.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>296</v>
@@ -5397,19 +5400,19 @@
         <v>297</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C83" s="2">
-        <v>1982.0</v>
+        <v>1977.0</v>
       </c>
       <c r="D83" s="2">
         <v>17.0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>298</v>
@@ -5439,19 +5442,19 @@
         <v>299</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2">
-        <v>1977.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D84" s="2">
         <v>17.0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>300</v>
@@ -5481,19 +5484,19 @@
         <v>301</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="C85" s="2">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D85" s="2">
         <v>17.0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>302</v>
@@ -5523,22 +5526,22 @@
         <v>303</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D86" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5562,25 +5565,25 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2">
-        <v>2007.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D87" s="2">
         <v>16.0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5604,25 +5607,25 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="C88" s="2">
-        <v>1995.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D88" s="2">
         <v>16.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5646,22 +5649,22 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2">
-        <v>1993.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D89" s="2">
         <v>16.0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>314</v>
@@ -5700,7 +5703,7 @@
         <v>16.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>317</v>
@@ -5742,7 +5745,7 @@
         <v>15.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>320</v>
@@ -5775,7 +5778,7 @@
         <v>322</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C92" s="2">
         <v>2018.0</v>
@@ -5784,7 +5787,7 @@
         <v>15.0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>323</v>
@@ -5826,7 +5829,7 @@
         <v>15.0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>327</v>
@@ -5859,22 +5862,22 @@
         <v>329</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2">
-        <v>2007.0</v>
+        <v>2024.0</v>
       </c>
       <c r="D94" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5898,19 +5901,19 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2">
-        <v>2019.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D95" s="2">
         <v>14.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>333</v>
+        <v>29</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>334</v>
@@ -5943,22 +5946,22 @@
         <v>336</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D96" s="2">
         <v>14.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5982,19 +5985,19 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2">
-        <v>1969.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D97" s="2">
         <v>14.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>341</v>
@@ -6027,22 +6030,22 @@
         <v>343</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="C98" s="2">
-        <v>2000.0</v>
+        <v>1969.0</v>
       </c>
       <c r="D98" s="2">
         <v>14.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6066,25 +6069,25 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="C99" s="2">
-        <v>1987.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D99" s="2">
         <v>14.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6108,25 +6111,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2">
-        <v>1994.0</v>
+        <v>1987.0</v>
       </c>
       <c r="D100" s="2">
         <v>14.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -6150,22 +6153,20 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C101" s="2">
-        <v>1997.0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>354</v>
@@ -6195,22 +6196,22 @@
         <v>355</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1994.0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C102" s="2">
-        <v>1981.0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -6234,25 +6235,25 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C103" s="2">
-        <v>2015.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D103" s="2">
         <v>13.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>57</v>
+        <v>360</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6276,25 +6277,25 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="C104" s="2">
-        <v>1980.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D104" s="2">
         <v>13.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -6318,25 +6319,25 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C105" s="2">
-        <v>1983.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D105" s="2">
         <v>13.0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6360,25 +6361,25 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
       <c r="C106" s="2">
-        <v>2020.0</v>
+        <v>1980.0</v>
       </c>
       <c r="D106" s="2">
         <v>13.0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6402,25 +6403,25 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2">
-        <v>2021.0</v>
+        <v>1983.0</v>
       </c>
       <c r="D107" s="2">
         <v>13.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6429,7 +6430,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
+      <c r="O107" s="4"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -6444,25 +6445,25 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="C108" s="2">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D108" s="2">
         <v>13.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6486,19 +6487,19 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="C109" s="2">
-        <v>2010.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D109" s="2">
         <v>13.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>376</v>
@@ -6531,22 +6532,22 @@
         <v>378</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C110" s="2">
-        <v>2017.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D110" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>34</v>
+        <v>379</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>33</v>
+        <v>380</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -6570,25 +6571,25 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C111" s="2">
-        <v>2023.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D111" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6612,10 +6613,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C112" s="2">
         <v>2017.0</v>
@@ -6624,13 +6625,13 @@
         <v>12.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6654,25 +6655,25 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="C113" s="2">
-        <v>2013.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D113" s="2">
         <v>12.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6696,25 +6697,25 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="C114" s="2">
-        <v>1990.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D114" s="2">
         <v>12.0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6738,25 +6739,25 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>391</v>
+        <v>310</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2013.0</v>
       </c>
       <c r="D115" s="2">
         <v>12.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6780,22 +6781,22 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="C116" s="2">
-        <v>2023.0</v>
+        <v>1990.0</v>
       </c>
       <c r="D116" s="2">
         <v>12.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>396</v>
@@ -6825,21 +6826,23 @@
         <v>397</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2">
-        <v>2006.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D117" s="2">
         <v>12.0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G117" s="1"/>
+      <c r="G117" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -6862,26 +6865,24 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>28</v>
+        <v>401</v>
       </c>
       <c r="C118" s="2">
-        <v>1964.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D118" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>400</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -6904,25 +6905,25 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C119" s="2">
-        <v>1993.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D119" s="2">
         <v>11.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6946,22 +6947,22 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="C120" s="2">
-        <v>1958.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D120" s="2">
         <v>11.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>404</v>
+        <v>23</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>405</v>
@@ -6991,22 +6992,22 @@
         <v>406</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="C121" s="2">
-        <v>1950.0</v>
+        <v>1958.0</v>
       </c>
       <c r="D121" s="2">
         <v>11.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>28</v>
+        <v>407</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -7030,22 +7031,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>409</v>
+        <v>23</v>
       </c>
       <c r="C122" s="2">
-        <v>1947.0</v>
+        <v>1950.0</v>
       </c>
       <c r="D122" s="2">
         <v>11.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>409</v>
+        <v>23</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>410</v>
@@ -7075,16 +7076,16 @@
         <v>411</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="C123" s="2">
-        <v>2007.0</v>
+        <v>1947.0</v>
       </c>
       <c r="D123" s="2">
         <v>11.0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>412</v>
@@ -7117,22 +7118,22 @@
         <v>414</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="C124" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D124" s="2">
         <v>11.0</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -7156,19 +7157,19 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="C125" s="2">
-        <v>2011.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D125" s="2">
         <v>11.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>419</v>
@@ -7201,14 +7202,16 @@
         <v>421</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C126" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2011.0</v>
+      </c>
       <c r="D126" s="2">
         <v>11.0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>422</v>
@@ -7241,22 +7244,20 @@
         <v>424</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="2">
-        <v>2022.0</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C127" s="1"/>
       <c r="D127" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>145</v>
+        <v>425</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -7280,22 +7281,22 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C128" s="2">
-        <v>2016.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D128" s="2">
         <v>10.0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>427</v>
+        <v>148</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>428</v>
@@ -7325,16 +7326,16 @@
         <v>429</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2">
-        <v>1993.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D129" s="2">
         <v>10.0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>430</v>
@@ -7367,16 +7368,16 @@
         <v>432</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="C130" s="2">
-        <v>2018.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D130" s="2">
         <v>10.0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>433</v>
@@ -7409,22 +7410,22 @@
         <v>435</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C131" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D131" s="2">
         <v>10.0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>43</v>
+        <v>436</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7448,25 +7449,25 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2">
-        <v>2022.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D132" s="2">
         <v>10.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7490,19 +7491,19 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2">
-        <v>2018.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D133" s="2">
         <v>10.0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>34</v>
+        <v>441</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>442</v>
@@ -7535,16 +7536,16 @@
         <v>444</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="C134" s="2">
-        <v>2015.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D134" s="2">
         <v>10.0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>445</v>
@@ -7577,22 +7578,22 @@
         <v>447</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="C135" s="2">
-        <v>2005.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D135" s="2">
         <v>10.0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>18</v>
+        <v>448</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7616,22 +7617,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="C136" s="2">
-        <v>1999.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D136" s="2">
         <v>10.0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>451</v>
@@ -7661,22 +7662,22 @@
         <v>452</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="C137" s="2">
-        <v>2019.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D137" s="2">
         <v>10.0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>57</v>
+        <v>453</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7700,25 +7701,25 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C138" s="2">
-        <v>2009.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D138" s="2">
         <v>10.0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7742,25 +7743,25 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2">
-        <v>2002.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D139" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7784,25 +7785,25 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="C140" s="2">
-        <v>1951.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D140" s="2">
         <v>9.0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7826,25 +7827,25 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="C141" s="2">
-        <v>2021.0</v>
+        <v>1951.0</v>
       </c>
       <c r="D141" s="2">
         <v>9.0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7868,22 +7869,22 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C142" s="2">
-        <v>1998.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D142" s="2">
         <v>9.0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>463</v>
+        <v>38</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>464</v>
@@ -7913,22 +7914,22 @@
         <v>465</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2">
-        <v>2003.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D143" s="2">
         <v>9.0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>204</v>
+        <v>466</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7952,25 +7953,25 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C144" s="2">
-        <v>2019.0</v>
+        <v>2003.0</v>
       </c>
       <c r="D144" s="2">
         <v>9.0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -7994,20 +7995,22 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C145" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D145" s="2">
         <v>9.0</v>
       </c>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F145" s="1" t="s">
-        <v>470</v>
+        <v>103</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>471</v>
@@ -8037,7 +8040,7 @@
         <v>472</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C146" s="2">
         <v>2021.0</v>
@@ -8045,9 +8048,7 @@
       <c r="D146" s="2">
         <v>9.0</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
         <v>473</v>
       </c>
@@ -8079,22 +8080,22 @@
         <v>475</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>312</v>
+        <v>48</v>
       </c>
       <c r="C147" s="2">
-        <v>1998.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D147" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -8118,22 +8119,22 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="C148" s="2">
-        <v>2016.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D148" s="2">
         <v>8.0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>478</v>
+        <v>310</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>479</v>
@@ -8163,22 +8164,22 @@
         <v>480</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C149" s="2">
-        <v>2004.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D149" s="2">
         <v>8.0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>8</v>
+        <v>481</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -8202,25 +8203,25 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C150" s="2">
-        <v>2017.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D150" s="2">
         <v>8.0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -8244,25 +8245,25 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C151" s="2">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D151" s="2">
         <v>8.0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8286,25 +8287,25 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C152" s="2">
-        <v>2024.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D152" s="2">
         <v>8.0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>487</v>
+        <v>29</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -8328,10 +8329,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C153" s="2">
         <v>2018.0</v>
@@ -8340,13 +8341,13 @@
         <v>7.0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8370,7 +8371,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="2">
@@ -8381,7 +8382,7 @@
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -8406,10 +8407,10 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C155" s="2">
         <v>2023.0</v>
@@ -8418,13 +8419,13 @@
         <v>7.0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8448,10 +8449,10 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C156" s="2">
         <v>2010.0</v>
@@ -8460,13 +8461,13 @@
         <v>7.0</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8490,10 +8491,10 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C157" s="2">
         <v>2018.0</v>
@@ -8502,13 +8503,13 @@
         <v>7.0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8532,7 +8533,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>62</v>
@@ -8544,13 +8545,13 @@
         <v>7.0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8574,7 +8575,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>13</v>
@@ -8586,13 +8587,13 @@
         <v>6.0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8616,10 +8617,10 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2">
         <v>1964.0</v>
@@ -8629,10 +8630,10 @@
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8656,7 +8657,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>112</v>
@@ -8668,13 +8669,13 @@
         <v>6.0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8698,7 +8699,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>57</v>
@@ -8710,13 +8711,13 @@
         <v>6.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8740,7 +8741,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>87</v>
@@ -8752,13 +8753,13 @@
         <v>6.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8782,10 +8783,10 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C164" s="2">
         <v>2010.0</v>
@@ -8794,13 +8795,13 @@
         <v>6.0</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8824,22 +8825,22 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="C165" s="2">
-        <v>2006.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D165" s="2">
         <v>6.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>234</v>
+        <v>517</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>518</v>
@@ -8869,22 +8870,22 @@
         <v>519</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C166" s="2">
-        <v>2010.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D166" s="2">
         <v>6.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8908,25 +8909,25 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C167" s="2">
-        <v>2023.0</v>
+        <v>1985.0</v>
       </c>
       <c r="D167" s="2">
         <v>6.0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8950,25 +8951,25 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="C168" s="2">
-        <v>1985.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D168" s="2">
         <v>6.0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -8992,25 +8993,25 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C169" s="2">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D169" s="2">
         <v>6.0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -9034,22 +9035,22 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C170" s="2">
-        <v>2019.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D170" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>18</v>
+        <v>528</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>529</v>
@@ -9079,22 +9080,20 @@
         <v>530</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>531</v>
+        <v>171</v>
       </c>
       <c r="C171" s="2">
-        <v>2006.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D171" s="2">
         <v>5.0</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -9118,23 +9117,25 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="C172" s="2">
-        <v>1981.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D172" s="2">
         <v>5.0</v>
       </c>
-      <c r="E172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F172" s="1" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -9158,25 +9159,23 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C173" s="2">
-        <v>2012.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D173" s="2">
         <v>5.0</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -9200,23 +9199,25 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="C174" s="2">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D174" s="2">
         <v>5.0</v>
       </c>
-      <c r="E174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F174" s="1" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -9240,22 +9241,22 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="C175" s="2">
-        <v>2018.0</v>
+        <v>1978.0</v>
       </c>
       <c r="D175" s="2">
         <v>5.0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>195</v>
+        <v>539</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>540</v>
@@ -9285,22 +9286,22 @@
         <v>541</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C176" s="2">
-        <v>1978.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D176" s="2">
         <v>5.0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -9324,25 +9325,25 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C177" s="2">
-        <v>2021.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D177" s="2">
         <v>5.0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -9366,22 +9367,22 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C178" s="2">
-        <v>2002.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D178" s="2">
         <v>5.0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>67</v>
+        <v>546</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>547</v>
@@ -9411,22 +9412,22 @@
         <v>548</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="C179" s="2">
-        <v>2022.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D179" s="2">
         <v>5.0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -9450,25 +9451,23 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C180" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -9492,20 +9491,20 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="2">
-        <v>2018.0</v>
+      <c r="C181" s="5">
+        <v>37694.0</v>
       </c>
       <c r="D181" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>554</v>
@@ -9531,25 +9530,13 @@
       <c r="Z181" s="1"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C182" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>4.0</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>556</v>
-      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -32518,8 +32505,8 @@
     <hyperlink r:id="rId40" ref="G41"/>
     <hyperlink r:id="rId41" ref="G42"/>
     <hyperlink r:id="rId42" ref="G43"/>
-    <hyperlink r:id="rId43" ref="E44"/>
-    <hyperlink r:id="rId44" ref="G44"/>
+    <hyperlink r:id="rId43" ref="G44"/>
+    <hyperlink r:id="rId44" ref="E45"/>
     <hyperlink r:id="rId45" ref="G45"/>
     <hyperlink r:id="rId46" ref="G46"/>
     <hyperlink r:id="rId47" ref="G47"/>
@@ -32592,7 +32579,7 @@
     <hyperlink r:id="rId114" ref="G114"/>
     <hyperlink r:id="rId115" ref="G115"/>
     <hyperlink r:id="rId116" ref="G116"/>
-    <hyperlink r:id="rId117" ref="G118"/>
+    <hyperlink r:id="rId117" ref="G117"/>
     <hyperlink r:id="rId118" ref="G119"/>
     <hyperlink r:id="rId119" ref="G120"/>
     <hyperlink r:id="rId120" ref="G121"/>
@@ -32655,8 +32642,7 @@
     <hyperlink r:id="rId177" ref="G179"/>
     <hyperlink r:id="rId178" ref="G180"/>
     <hyperlink r:id="rId179" ref="G181"/>
-    <hyperlink r:id="rId180" ref="G182"/>
   </hyperlinks>
-  <drawing r:id="rId181"/>
+  <drawing r:id="rId180"/>
 </worksheet>
 </file>
--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Car Wash Advisory - Companies" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Car Wash Advisory - Companies (" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="556">
   <si>
     <t>Company Name</t>
   </si>
@@ -49,6 +49,177 @@
     <t>https://mistercarwash.com/</t>
   </si>
   <si>
+    <t>Tidal Wave Auto Spa</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Golden Gate Capital</t>
+  </si>
+  <si>
+    <t>Montana | North Dakota | Nebraska | Minnesota | Iowa | Ohio | Kentucky | Oklahoma | Tennessee | Virginia | North Carolina | Georgia | Florida | Alabama | Mississippi | Texas | New York | Kansas | Idaho | Illinois | Indiana | Michigan | New Mexico | Pennsylvania | West Virginia | Wisconsin | Missouri | Arkansas | South Dakota</t>
+  </si>
+  <si>
+    <t>https://www.tidalwaveautospa.com/</t>
+  </si>
+  <si>
+    <t>Quick Quack Express Car Wash</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>Texas | Colorado | Utah | Arizona | California</t>
+  </si>
+  <si>
+    <t>https://www.dontdrivedirty.com/</t>
+  </si>
+  <si>
+    <t>Tommy’s Express Car Wash</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Florida | Georgia | South Carolina | North Carolina | Louisiana | Tennessee | Mississippi | Virginia | Kentucky | Maryland | Indiana | Arkansas | Delaware | Texas | Pennsylvania | Missouri | Oklahoma | Michigan | Illinois | Iowa | Kansas | New York | Wisconsin | Nebraska | Minnesota | Colorado | South Dakota | North Dakota | Wyoming | Utah | Nevada | Idaho | California | Alaska | Washington</t>
+  </si>
+  <si>
+    <t>https://tommys-express.com/</t>
+  </si>
+  <si>
+    <t>Club Car Wash</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Wildcat Capital Management</t>
+  </si>
+  <si>
+    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois | Minnesota | Mississippi | Tennessee</t>
+  </si>
+  <si>
+    <t>https://clubcarwash.com/</t>
+  </si>
+  <si>
+    <t>Spotless Brands</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Access Holdings</t>
+  </si>
+  <si>
+    <t>Arizona | Colorado | Oklahoma | Maryland | Tennessee | Virginia | West Virginia | Idaho | Oregon</t>
+  </si>
+  <si>
+    <t>https://www.spotlessbrands.com/</t>
+  </si>
+  <si>
+    <t>ZIPS Car Wash</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Atlantic Street Capital</t>
+  </si>
+  <si>
+    <t>Arkansas | Florida | Georgia | Indiana | Kansas | Kentucky | Minnesota | Missouri | Mississippi | North Carolina | North Dakota | New Mexico | Oklahoma | South Carolina | Tennessee | Texas | Virginia</t>
+  </si>
+  <si>
+    <t>https://www.zipscarwash.com/</t>
+  </si>
+  <si>
+    <t>GO Car Wash</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Imperial Capital</t>
+  </si>
+  <si>
+    <t>Kansas | Missouri | Nevada | New York | Texas | Virginia | California</t>
+  </si>
+  <si>
+    <t>https://gocarwash.com/</t>
+  </si>
+  <si>
+    <t>Mammoth Holdings LLC</t>
+  </si>
+  <si>
+    <t>Red Dog Equity and CCMP Growth Advisors</t>
+  </si>
+  <si>
+    <t>Georgia | Alabama | Kentucky | Illinois | Utah | South Carolina | Mississippi | Louisiana | Tennessee | North Dakota | Iowa | Florida | Minnesota | Missouri | South Dakota | Texas | West Virginia</t>
+  </si>
+  <si>
+    <t>https://mammothholdings.com/</t>
+  </si>
+  <si>
+    <t>WhiteWater Express Car Wash</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Freeman Spogil &amp; Co.</t>
+  </si>
+  <si>
+    <t>Texas | Oklahoma | Louisiana | Kentucky | Ohio | Michigan | South Carolina</t>
+  </si>
+  <si>
+    <t>https://www.whitewatercw.com/</t>
+  </si>
+  <si>
+    <t>Express Wash Concepts</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Ohio | Virginia | Pennsylvania | North Carolina | Indiana | Michigan</t>
+  </si>
+  <si>
+    <t>https://www.expresswashconcepts.com/</t>
+  </si>
+  <si>
+    <t>ModWash</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Hutton</t>
+  </si>
+  <si>
+    <t>Alabama | Florida | Georgia | Maryland | New Jersey | North Carolina | Ohio | Pennsylvania | South Carolina | Tennessee | Virginia | Delaware</t>
+  </si>
+  <si>
+    <t>https://www.modwash.com/</t>
+  </si>
+  <si>
+    <t>Super Star Car Wash</t>
+  </si>
+  <si>
+    <t>TSG Consumer Partners</t>
+  </si>
+  <si>
+    <t>Arizona | California | Colorado | Texas</t>
+  </si>
+  <si>
+    <t>https://www.superstarcarwashaz.com/</t>
+  </si>
+  <si>
     <t>Whistle Express Car Wash</t>
   </si>
   <si>
@@ -58,183 +229,12 @@
     <t>Oaktree Capital Management LP</t>
   </si>
   <si>
-    <t>South Carolina | North Carolina | Georgia | Florida | Virginia | Ohio | Alabama | Tennessee | Kentucky | Indiana | Arkansas | Colorado | Illinois | Kansas | Louisiana | Michigan | Mississippi | Missouri | New Mexico | Oklahoma | Texas | Utah | West Virginia | Wisconsin</t>
+    <t>Alabama | Florida | Georgia | Indiana | Kentucky | North Carolina | Ohio | South Carolina | Tennessee | Virginia</t>
   </si>
   <si>
     <t>https://whistleexpresscarwash.com/</t>
   </si>
   <si>
-    <t>Tidal Wave Auto Spa</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Golden Gate Capital</t>
-  </si>
-  <si>
-    <t>Montana | North Dakota | Nebraska | Minnesota | Iowa | Ohio | Kentucky | Oklahoma | Tennessee | Virginia | North Carolina | Georgia | Florida | Alabama | Mississippi | Texas | New York | Kansas | Idaho | Illinois | Indiana | Michigan | New Mexico | Pennsylvania | West Virginia | Wisconsin | Missouri | Arkansas | South Dakota</t>
-  </si>
-  <si>
-    <t>https://www.tidalwaveautospa.com/</t>
-  </si>
-  <si>
-    <t>Quick Quack Express Car Wash</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>KKR</t>
-  </si>
-  <si>
-    <t>Texas | Colorado | Utah | Arizona | California</t>
-  </si>
-  <si>
-    <t>https://www.dontdrivedirty.com/</t>
-  </si>
-  <si>
-    <t>Tommy’s Express Car Wash</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Florida | Georgia | South Carolina | North Carolina | Louisiana | Tennessee | Mississippi | Virginia | Kentucky | Maryland | Indiana | Arkansas | Delaware | Texas | Pennsylvania | Missouri | Oklahoma | Michigan | Illinois | Iowa | Kansas | New York | Wisconsin | Nebraska | Minnesota | Colorado | South Dakota | North Dakota | Wyoming | Utah | Nevada | Idaho | California | Alaska | Washington</t>
-  </si>
-  <si>
-    <t>https://tommys-express.com/</t>
-  </si>
-  <si>
-    <t>Club Car Wash</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Wildcat Capital Management</t>
-  </si>
-  <si>
-    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois | Minnesota | Mississippi | Tennessee</t>
-  </si>
-  <si>
-    <t>https://clubcarwash.com/</t>
-  </si>
-  <si>
-    <t>Spotless Brands</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Access Holdings</t>
-  </si>
-  <si>
-    <t>Arizona | Colorado | Oklahoma | Maryland | Tennessee | Virginia | West Virginia | Idaho | Oregon</t>
-  </si>
-  <si>
-    <t>https://www.spotlessbrands.com/</t>
-  </si>
-  <si>
-    <t>ZIPS Car Wash</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Atlantic Street Capital</t>
-  </si>
-  <si>
-    <t>Tennessee | Texas | Florida | North Carolina | Arkansas | Missouri | Oklahoma | Kansas | Kentucky | South Carolina | Virginia | Illinois | Louisiana | Minnesota | Georgia | Indiana | Mississippi | New Mexico</t>
-  </si>
-  <si>
-    <t>https://www.zipscarwash.com/</t>
-  </si>
-  <si>
-    <t>GO Car Wash</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Imperial Capital</t>
-  </si>
-  <si>
-    <t>Kansas | Missouri | Nevada | New York | Texas | Virginia | California</t>
-  </si>
-  <si>
-    <t>https://gocarwash.com/</t>
-  </si>
-  <si>
-    <t>Mammoth Holdings LLC</t>
-  </si>
-  <si>
-    <t>Red Dog Equity and CCMP Growth Advisors</t>
-  </si>
-  <si>
-    <t>Georgia | Alabama | Kentucky | Illinois | Utah | South Carolina | Mississippi | Louisiana | Tennessee | North Dakota | Iowa | Florida | Minnesota | Missouri | South Dakota | Texas | West Virginia</t>
-  </si>
-  <si>
-    <t>https://mammothholdings.com/</t>
-  </si>
-  <si>
-    <t>WhiteWater Express Car Wash</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Freeman Spogil &amp; Co.</t>
-  </si>
-  <si>
-    <t>Texas | Oklahoma | Louisiana | Kentucky | Ohio | Michigan | South Carolina</t>
-  </si>
-  <si>
-    <t>https://www.whitewatercw.com/</t>
-  </si>
-  <si>
-    <t>ModWash</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Hutton</t>
-  </si>
-  <si>
-    <t>Alabama | Florida | Georgia | Maryland | New Jersey | North Carolina | Ohio | Pennsylvania | South Carolina | Tennessee | Virginia | Delaware</t>
-  </si>
-  <si>
-    <t>https://www.modwash.com/</t>
-  </si>
-  <si>
-    <t>Express Wash Concepts</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Ohio | Virginia | Pennsylvania | North Carolina | Indiana | Michigan</t>
-  </si>
-  <si>
-    <t>https://www.expresswashconcepts.com/</t>
-  </si>
-  <si>
-    <t>Super Star Car Wash</t>
-  </si>
-  <si>
-    <t>TSG Consumer Partners</t>
-  </si>
-  <si>
-    <t>Arizona | California | Colorado | Texas</t>
-  </si>
-  <si>
-    <t>https://www.superstarcarwashaz.com/</t>
-  </si>
-  <si>
     <t>Summit Wash Holdings</t>
   </si>
   <si>
@@ -259,6 +259,18 @@
     <t>https://www.autobell.com/</t>
   </si>
   <si>
+    <t>El Car Wash</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Warburg Pincus</t>
+  </si>
+  <si>
+    <t>https://elcarwash.com/</t>
+  </si>
+  <si>
     <t>LUV Car Wash</t>
   </si>
   <si>
@@ -286,6 +298,21 @@
     <t>https://splashcarwashes.com/</t>
   </si>
   <si>
+    <t>Tsunami Express</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Point72 Ventures</t>
+  </si>
+  <si>
+    <t>Arkansas | Indiana | Illinois | Kansas | Michigan | Missouri | Minnesota | Ohio | Wisconsin</t>
+  </si>
+  <si>
+    <t>https://www.tsunamiexpress.com/</t>
+  </si>
+  <si>
     <t>True Blue Car Wash</t>
   </si>
   <si>
@@ -319,18 +346,6 @@
     <t>https://bluewaveexpress.com/</t>
   </si>
   <si>
-    <t>El Car Wash</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Warburg Pincus</t>
-  </si>
-  <si>
-    <t>https://elcarwash.com/</t>
-  </si>
-  <si>
     <t>Golden Nozzle Car Wash</t>
   </si>
   <si>
@@ -574,6 +589,18 @@
     <t>https://www.waterway.com/</t>
   </si>
   <si>
+    <t>Flagstop Car Wash</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Garnet Station Partners</t>
+  </si>
+  <si>
+    <t>https://www.flagstopcarwash.com/</t>
+  </si>
+  <si>
     <t>Hoffman Car Wash</t>
   </si>
   <si>
@@ -700,18 +727,6 @@
     <t>https://carnationautospa.com/</t>
   </si>
   <si>
-    <t>Flagstop Car Wash</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Garnet Station Partners</t>
-  </si>
-  <si>
-    <t>https://www.flagstopcarwash.com/</t>
-  </si>
-  <si>
     <t>Mighty Wash</t>
   </si>
   <si>
@@ -757,6 +772,120 @@
     <t>https://www.woodieswash.com/</t>
   </si>
   <si>
+    <t>Dirty Dog’s Car Wash</t>
+  </si>
+  <si>
+    <t>Cynosure Group</t>
+  </si>
+  <si>
+    <t>Alabama | Florida | Georgia</t>
+  </si>
+  <si>
+    <t>https://dirtydogscarwash.com/</t>
+  </si>
+  <si>
+    <t>Tagg-N-Go</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Utah | Nevada | Idaho</t>
+  </si>
+  <si>
+    <t>https://taggngo.com/</t>
+  </si>
+  <si>
+    <t>Drive &amp; Shine Car Wash</t>
+  </si>
+  <si>
+    <t>Indiana | Michigan</t>
+  </si>
+  <si>
+    <t>https://driveandshine.com/</t>
+  </si>
+  <si>
+    <t>Flash Car Wash</t>
+  </si>
+  <si>
+    <t>Connecticut | Massachusetts | Rhode Island</t>
+  </si>
+  <si>
+    <t>https://flashcarwashes.com/</t>
+  </si>
+  <si>
+    <t>TruShine Car Wash</t>
+  </si>
+  <si>
+    <t>Tennessee | Virginia</t>
+  </si>
+  <si>
+    <t>https://www.trushinecarwash.com/</t>
+  </si>
+  <si>
+    <t>Francis &amp; Sons Car Wash</t>
+  </si>
+  <si>
+    <t>Acquired by Raceway Car Wash</t>
+  </si>
+  <si>
+    <t>https://francisandsonscarwash.com/</t>
+  </si>
+  <si>
+    <t>Fuller's Car Wash</t>
+  </si>
+  <si>
+    <t>https://fullerscarwash.com/</t>
+  </si>
+  <si>
+    <t>Shiny Shell Car Wash</t>
+  </si>
+  <si>
+    <t>Utah | Pennsylvania | Maryland</t>
+  </si>
+  <si>
+    <t>https://www.shinyshell.com/</t>
+  </si>
+  <si>
+    <t>Washman Car Washes</t>
+  </si>
+  <si>
+    <t>https://www.washmanusa.com/</t>
+  </si>
+  <si>
+    <t>Bubble Down Car Wash</t>
+  </si>
+  <si>
+    <t>Locally Owned</t>
+  </si>
+  <si>
+    <t>https://bubbledown.com/</t>
+  </si>
+  <si>
+    <t>Elephant Super Car Wash</t>
+  </si>
+  <si>
+    <t>https://elephantcarwash.com/</t>
+  </si>
+  <si>
+    <t>Kaady Car Wash</t>
+  </si>
+  <si>
+    <t>Oregon | Washington | California</t>
+  </si>
+  <si>
+    <t>https://kaady.com/</t>
+  </si>
+  <si>
+    <t>Ronny's Car Wash</t>
+  </si>
+  <si>
+    <t>Florida | Alabama</t>
+  </si>
+  <si>
+    <t>https://ronnyscarwash.net/</t>
+  </si>
+  <si>
     <t>WOW Carwash</t>
   </si>
   <si>
@@ -766,123 +895,6 @@
     <t>https://wowwash.com/</t>
   </si>
   <si>
-    <t>Dirty Dog’s Car Wash</t>
-  </si>
-  <si>
-    <t>Cynosure Group</t>
-  </si>
-  <si>
-    <t>Alabama | Florida | Georgia</t>
-  </si>
-  <si>
-    <t>https://dirtydogscarwash.com/</t>
-  </si>
-  <si>
-    <t>Tagg-N-Go</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Utah | Nevada | Idaho</t>
-  </si>
-  <si>
-    <t>https://taggngo.com/</t>
-  </si>
-  <si>
-    <t>Drive &amp; Shine Car Wash</t>
-  </si>
-  <si>
-    <t>Indiana | Michigan</t>
-  </si>
-  <si>
-    <t>https://driveandshine.com/</t>
-  </si>
-  <si>
-    <t>Flash Car Wash</t>
-  </si>
-  <si>
-    <t>Connecticut | Massachusetts | Rhode Island</t>
-  </si>
-  <si>
-    <t>https://flashcarwashes.com/</t>
-  </si>
-  <si>
-    <t>TruShine Car Wash</t>
-  </si>
-  <si>
-    <t>Tennessee | Virginia</t>
-  </si>
-  <si>
-    <t>https://www.trushinecarwash.com/</t>
-  </si>
-  <si>
-    <t>Francis &amp; Sons Car Wash</t>
-  </si>
-  <si>
-    <t>Acquired by Raceway Car Wash</t>
-  </si>
-  <si>
-    <t>https://francisandsonscarwash.com/</t>
-  </si>
-  <si>
-    <t>Fuller's Car Wash</t>
-  </si>
-  <si>
-    <t>https://fullerscarwash.com/</t>
-  </si>
-  <si>
-    <t>Shiny Shell Car Wash</t>
-  </si>
-  <si>
-    <t>Utah | Pennsylvania | Maryland</t>
-  </si>
-  <si>
-    <t>https://www.shinyshell.com/</t>
-  </si>
-  <si>
-    <t>Washman Car Washes</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>https://www.washmanusa.com/</t>
-  </si>
-  <si>
-    <t>Bubble Down Car Wash</t>
-  </si>
-  <si>
-    <t>Locally Owned</t>
-  </si>
-  <si>
-    <t>https://bubbledown.com/</t>
-  </si>
-  <si>
-    <t>Elephant Super Car Wash</t>
-  </si>
-  <si>
-    <t>https://elephantcarwash.com/</t>
-  </si>
-  <si>
-    <t>Kaady Car Wash</t>
-  </si>
-  <si>
-    <t>Oregon | Washington | California</t>
-  </si>
-  <si>
-    <t>https://kaady.com/</t>
-  </si>
-  <si>
-    <t>Ronny's Car Wash</t>
-  </si>
-  <si>
-    <t>Florida | Alabama</t>
-  </si>
-  <si>
-    <t>https://ronnyscarwash.net/</t>
-  </si>
-  <si>
     <t>Big Peach Car Wash</t>
   </si>
   <si>
@@ -922,6 +934,54 @@
     <t>https://zaxautowash.com/</t>
   </si>
   <si>
+    <t>Haffner's</t>
+  </si>
+  <si>
+    <t>Massachusetts | New Hampshire</t>
+  </si>
+  <si>
+    <t>https://haffners.com/</t>
+  </si>
+  <si>
+    <t>Rainforest Carwash &amp; Oil Change</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Louisiana | Mississippi</t>
+  </si>
+  <si>
+    <t>https://rainforestclean.com/</t>
+  </si>
+  <si>
+    <t>Sgt. Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://sgtclean.com/</t>
+  </si>
+  <si>
+    <t>Shammy Shine Car Washes</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Jersey | Pennsylvania</t>
+  </si>
+  <si>
+    <t>https://www.shammyshine.com/</t>
+  </si>
+  <si>
+    <t>Car Spa</t>
+  </si>
+  <si>
+    <t>Florida | Georgia | Texas | Virginia</t>
+  </si>
+  <si>
+    <t>https://carspa.net/</t>
+  </si>
+  <si>
     <t>Cheetah Clean Auto Wash</t>
   </si>
   <si>
@@ -931,54 +991,6 @@
     <t>https://cheetahclean.com/</t>
   </si>
   <si>
-    <t>Haffner's</t>
-  </si>
-  <si>
-    <t>Massachusetts | New Hampshire</t>
-  </si>
-  <si>
-    <t>https://haffners.com/</t>
-  </si>
-  <si>
-    <t>Rainforest Carwash &amp; Oil Change</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Louisiana | Mississippi</t>
-  </si>
-  <si>
-    <t>https://rainforestclean.com/</t>
-  </si>
-  <si>
-    <t>Sgt. Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://sgtclean.com/</t>
-  </si>
-  <si>
-    <t>Shammy Shine Car Washes</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Jersey | Pennsylvania</t>
-  </si>
-  <si>
-    <t>https://www.shammyshine.com/</t>
-  </si>
-  <si>
-    <t>Car Spa</t>
-  </si>
-  <si>
-    <t>Florida | Georgia | Texas | Virginia</t>
-  </si>
-  <si>
-    <t>https://carspa.net/</t>
-  </si>
-  <si>
     <t>Mach-1 Express Wash</t>
   </si>
   <si>
@@ -1264,18 +1276,6 @@
     <t>https://www.shinetimesuperwash.com/</t>
   </si>
   <si>
-    <t>Tsunami Express</t>
-  </si>
-  <si>
-    <t>Point72 Ventures</t>
-  </si>
-  <si>
-    <t>Wisconsin | Indiana | Minnesota</t>
-  </si>
-  <si>
-    <t>https://www.tsunamiexpress.com/</t>
-  </si>
-  <si>
     <t>Wash Factory Car Wash</t>
   </si>
   <si>
@@ -1309,364 +1309,367 @@
     <t>https://briteworx.com/</t>
   </si>
   <si>
+    <t>Cloud 10 Smartwash</t>
+  </si>
+  <si>
+    <t>Pennsylvania | New Jersey</t>
+  </si>
+  <si>
+    <t>https://cloud10smartwash.com/</t>
+  </si>
+  <si>
+    <t>Everclean Car Wash</t>
+  </si>
+  <si>
+    <t>https://evercleancw.com/</t>
+  </si>
+  <si>
+    <t>Groove Car Wash</t>
+  </si>
+  <si>
+    <t>Vaquero Ventures</t>
+  </si>
+  <si>
+    <t>Texas | Florida | Oklahoma</t>
+  </si>
+  <si>
+    <t>https://www.groovecarwash.com/</t>
+  </si>
+  <si>
+    <t>Scenic Suds Car Wash</t>
+  </si>
+  <si>
+    <t>Tennessee | Georgia</t>
+  </si>
+  <si>
+    <t>https://www.scenicsuds.com/</t>
+  </si>
+  <si>
+    <t>Scrubby’s Car Wash</t>
+  </si>
+  <si>
+    <t>South Carolina | North Carolina</t>
+  </si>
+  <si>
+    <t>https://scrubbyscarwashes.com/</t>
+  </si>
+  <si>
+    <t>Skweeky Kleen Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.skweekykleen.com/</t>
+  </si>
+  <si>
+    <t>SpeedWash Car Wash</t>
+  </si>
+  <si>
+    <t>Kentucky | Indiana</t>
+  </si>
+  <si>
+    <t>https://speedwashusa.com/</t>
+  </si>
+  <si>
+    <t>Suds Deluxe Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.sudsdeluxe.com/</t>
+  </si>
+  <si>
+    <t>WashGuys Car Wash</t>
+  </si>
+  <si>
+    <t>https://washguystx.com/</t>
+  </si>
+  <si>
+    <t>Auto Spa Car Wash (WA)</t>
+  </si>
+  <si>
+    <t>https://www.autospacw.com</t>
+  </si>
+  <si>
+    <t>Benny’s Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.bennyscarwash.com/</t>
+  </si>
+  <si>
+    <t>Driven Car Wash</t>
+  </si>
+  <si>
+    <t>https://drivencarwash.com/</t>
+  </si>
+  <si>
+    <t>Fabulous Freddy’s Car Wash</t>
+  </si>
+  <si>
+    <t>Nevada | Utah</t>
+  </si>
+  <si>
+    <t>https://fabfred.com/</t>
+  </si>
+  <si>
+    <t>Jet Splash Car Wash</t>
+  </si>
+  <si>
+    <t>https://jetsplash.com</t>
+  </si>
+  <si>
+    <t>Radiant Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.radiantexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Rocket Wash</t>
+  </si>
+  <si>
+    <t>North Carolina | South Carolina</t>
+  </si>
+  <si>
+    <t>https://rocketcarwashexpress.com/</t>
+  </si>
+  <si>
+    <t>Velocity Car Wash</t>
+  </si>
+  <si>
+    <t>Colorado | Utah</t>
+  </si>
+  <si>
+    <t>https://www.velocitywash.com/</t>
+  </si>
+  <si>
+    <t>Auto Spa LA</t>
+  </si>
+  <si>
+    <t>https://autospala.com/</t>
+  </si>
+  <si>
+    <t>Clearwave Car Wash</t>
+  </si>
+  <si>
+    <t>Illinois | Michigan</t>
+  </si>
+  <si>
+    <t>https://clearwavecarwash.com/</t>
+  </si>
+  <si>
+    <t>Ocean Blue Car Wash</t>
+  </si>
+  <si>
+    <t>https://oceanbluecarwash.com/</t>
+  </si>
+  <si>
+    <t>Snap Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://snapcleancarwash.com/</t>
+  </si>
+  <si>
+    <t>Speedwash</t>
+  </si>
+  <si>
+    <t>https://www.speedwashes.com/</t>
+  </si>
+  <si>
+    <t>Dash Car Wash</t>
+  </si>
+  <si>
+    <t>Arizona | Texas | Nevada</t>
+  </si>
+  <si>
+    <t>Dream Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.dreamcleancw.com/</t>
+  </si>
+  <si>
+    <t>H2Go Car Wash</t>
+  </si>
+  <si>
+    <t>Privately Owned</t>
+  </si>
+  <si>
+    <t>https://h2gocarwash.com/</t>
+  </si>
+  <si>
+    <t>Pony Express Carwash</t>
+  </si>
+  <si>
+    <t>https://ponycarwash.com/</t>
+  </si>
+  <si>
+    <t>Washtopia Car Wash</t>
+  </si>
+  <si>
+    <t>https://washtopia.com/</t>
+  </si>
+  <si>
+    <t>American Pride Xpress Carwash</t>
+  </si>
+  <si>
+    <t>https://americanpridexpress.com/</t>
+  </si>
+  <si>
+    <t>Bebo's Carwash</t>
+  </si>
+  <si>
+    <t>https://www.beboscarwash.com/</t>
+  </si>
+  <si>
+    <t>Canton Car Wash</t>
+  </si>
+  <si>
+    <t>https://cantoncarwash.com/</t>
+  </si>
+  <si>
+    <t>Endless Clean Car Wash</t>
+  </si>
+  <si>
+    <t>https://endlesscleancarwash.com/</t>
+  </si>
+  <si>
+    <t>Mr. Sparkle Car Wash</t>
+  </si>
+  <si>
+    <t>Connecticut | Massachusetts | New Jersey</t>
+  </si>
+  <si>
+    <t>https://www.mrsparklecarwash.com/</t>
+  </si>
+  <si>
+    <t>Mr. Splash Car Wash</t>
+  </si>
+  <si>
+    <t>Argosy Private Equity</t>
+  </si>
+  <si>
+    <t>https://mrsplashcarwash.com/</t>
+  </si>
+  <si>
+    <t>RaceWash</t>
+  </si>
+  <si>
+    <t>Florida | Indiana | Kentucky</t>
+  </si>
+  <si>
+    <t>https://racewash.com/</t>
+  </si>
+  <si>
+    <t>Screaming Eagle  Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.screamingeagleexpress.com/</t>
+  </si>
+  <si>
+    <t>Shur-Kleen Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.shurkleencarwash.com/</t>
+  </si>
+  <si>
+    <t>Spin Car Wash</t>
+  </si>
+  <si>
+    <t>https://spincarwash.com/</t>
+  </si>
+  <si>
+    <t>Supershine Xpress Carwash</t>
+  </si>
+  <si>
+    <t>https://supershinexpress.com/</t>
+  </si>
+  <si>
+    <t>5 Minute Express Car Wash</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>https://5minuteexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Auto Wash Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.autowashcarwash.com/</t>
+  </si>
+  <si>
+    <t>Cadillac Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.cadillacexpresscarwash.com/</t>
+  </si>
+  <si>
+    <t>Camel Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://camelexpress.com/</t>
+  </si>
+  <si>
+    <t>Fast Freddy’s Car Wash</t>
+  </si>
+  <si>
+    <t>https://fastfreddyscarwashes.com/</t>
+  </si>
+  <si>
+    <t>FullSpeed Automotive</t>
+  </si>
+  <si>
+    <t>New Mexico | Texas</t>
+  </si>
+  <si>
+    <t>https://fullspeedautomotive.com/</t>
+  </si>
+  <si>
+    <t>Magic Brush Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.magicbrushexpress.com/</t>
+  </si>
+  <si>
+    <t>Ridi Stores</t>
+  </si>
+  <si>
+    <t>https://ridistores.com/</t>
+  </si>
+  <si>
+    <t>Soapy Noble Car Wash</t>
+  </si>
+  <si>
+    <t>Connecticut | Massachusetts</t>
+  </si>
+  <si>
+    <t>https://soapynoble.com/</t>
+  </si>
+  <si>
+    <t>Waves Express Car Wash</t>
+  </si>
+  <si>
+    <t>https://wavesexpresswash.com/</t>
+  </si>
+  <si>
+    <t>Clean Wheels Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.cleanwheelswash.com/</t>
+  </si>
+  <si>
     <t>Clean Sweep Car Wash</t>
   </si>
   <si>
-    <t>Illinois | Iowa | Kentucky</t>
-  </si>
-  <si>
     <t>https://cleansweepcarwash.com/</t>
   </si>
   <si>
-    <t>Cloud 10 Smartwash</t>
-  </si>
-  <si>
-    <t>Pennsylvania | New Jersey</t>
-  </si>
-  <si>
-    <t>https://cloud10smartwash.com/</t>
-  </si>
-  <si>
-    <t>Everclean Car Wash</t>
-  </si>
-  <si>
-    <t>https://evercleancw.com/</t>
-  </si>
-  <si>
-    <t>Groove Car Wash</t>
-  </si>
-  <si>
-    <t>Vaquero Ventures</t>
-  </si>
-  <si>
-    <t>Texas | Florida | Oklahoma</t>
-  </si>
-  <si>
-    <t>https://www.groovecarwash.com/</t>
-  </si>
-  <si>
-    <t>Scenic Suds Car Wash</t>
-  </si>
-  <si>
-    <t>Tennessee | Georgia</t>
-  </si>
-  <si>
-    <t>https://www.scenicsuds.com/</t>
-  </si>
-  <si>
-    <t>Scrubby’s Car Wash</t>
-  </si>
-  <si>
-    <t>South Carolina | North Carolina</t>
-  </si>
-  <si>
-    <t>https://scrubbyscarwashes.com/</t>
-  </si>
-  <si>
-    <t>Skweeky Kleen Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.skweekykleen.com/</t>
-  </si>
-  <si>
-    <t>SpeedWash Car Wash</t>
-  </si>
-  <si>
-    <t>Kentucky | Indiana</t>
-  </si>
-  <si>
-    <t>https://speedwashusa.com/</t>
-  </si>
-  <si>
-    <t>Suds Deluxe Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.sudsdeluxe.com/</t>
-  </si>
-  <si>
-    <t>WashGuys Car Wash</t>
-  </si>
-  <si>
-    <t>https://washguystx.com/</t>
-  </si>
-  <si>
-    <t>Auto Spa Car Wash (WA)</t>
-  </si>
-  <si>
-    <t>https://www.autospacw.com</t>
-  </si>
-  <si>
-    <t>Benny’s Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.bennyscarwash.com/</t>
-  </si>
-  <si>
-    <t>Driven Car Wash</t>
-  </si>
-  <si>
-    <t>https://drivencarwash.com/</t>
-  </si>
-  <si>
-    <t>Fabulous Freddy’s Car Wash</t>
-  </si>
-  <si>
-    <t>Nevada | Utah</t>
-  </si>
-  <si>
-    <t>https://fabfred.com/</t>
-  </si>
-  <si>
-    <t>Jet Splash Car Wash</t>
-  </si>
-  <si>
-    <t>https://jetsplash.com</t>
-  </si>
-  <si>
-    <t>Radiant Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.radiantexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Rocket Wash</t>
-  </si>
-  <si>
-    <t>North Carolina | South Carolina</t>
-  </si>
-  <si>
-    <t>https://rocketcarwashexpress.com/</t>
-  </si>
-  <si>
-    <t>Velocity Car Wash</t>
-  </si>
-  <si>
-    <t>Colorado | Utah</t>
-  </si>
-  <si>
-    <t>https://www.velocitywash.com/</t>
-  </si>
-  <si>
-    <t>Auto Spa LA</t>
-  </si>
-  <si>
-    <t>https://autospala.com/</t>
-  </si>
-  <si>
-    <t>Clearwave Car Wash</t>
-  </si>
-  <si>
-    <t>Illinois | Michigan</t>
-  </si>
-  <si>
-    <t>https://clearwavecarwash.com/</t>
-  </si>
-  <si>
-    <t>Ocean Blue Car Wash</t>
-  </si>
-  <si>
-    <t>https://oceanbluecarwash.com/</t>
-  </si>
-  <si>
-    <t>Snap Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://snapcleancarwash.com/</t>
-  </si>
-  <si>
-    <t>Speedwash</t>
-  </si>
-  <si>
-    <t>https://www.speedwashes.com/</t>
+    <t>Shammy's Auto Wash</t>
+  </si>
+  <si>
+    <t>https://www.shammysautowash.com/</t>
   </si>
   <si>
     <t>Ace Auto Wash</t>
   </si>
   <si>
     <t>https://www.aceautowash.com/</t>
-  </si>
-  <si>
-    <t>Dash Car Wash</t>
-  </si>
-  <si>
-    <t>Arizona | Texas | Nevada</t>
-  </si>
-  <si>
-    <t>Dream Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.dreamcleancw.com/</t>
-  </si>
-  <si>
-    <t>H2Go Car Wash</t>
-  </si>
-  <si>
-    <t>Privately Owned</t>
-  </si>
-  <si>
-    <t>https://h2gocarwash.com/</t>
-  </si>
-  <si>
-    <t>Pony Express Carwash</t>
-  </si>
-  <si>
-    <t>https://ponycarwash.com/</t>
-  </si>
-  <si>
-    <t>Washtopia Car Wash</t>
-  </si>
-  <si>
-    <t>https://washtopia.com/</t>
-  </si>
-  <si>
-    <t>American Pride Xpress Carwash</t>
-  </si>
-  <si>
-    <t>https://americanpridexpress.com/</t>
-  </si>
-  <si>
-    <t>Bebo's Carwash</t>
-  </si>
-  <si>
-    <t>https://www.beboscarwash.com/</t>
-  </si>
-  <si>
-    <t>Canton Car Wash</t>
-  </si>
-  <si>
-    <t>https://cantoncarwash.com/</t>
-  </si>
-  <si>
-    <t>Endless Clean Car Wash</t>
-  </si>
-  <si>
-    <t>https://endlesscleancarwash.com/</t>
-  </si>
-  <si>
-    <t>Mr. Sparkle Car Wash</t>
-  </si>
-  <si>
-    <t>Connecticut | Massachusetts | New Jersey</t>
-  </si>
-  <si>
-    <t>https://www.mrsparklecarwash.com/</t>
-  </si>
-  <si>
-    <t>Mr. Splash Car Wash</t>
-  </si>
-  <si>
-    <t>Argosy Private Equity</t>
-  </si>
-  <si>
-    <t>https://mrsplashcarwash.com/</t>
-  </si>
-  <si>
-    <t>RaceWash</t>
-  </si>
-  <si>
-    <t>Florida | Indiana | Kentucky</t>
-  </si>
-  <si>
-    <t>https://racewash.com/</t>
-  </si>
-  <si>
-    <t>Screaming Eagle  Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.screamingeagleexpress.com/</t>
-  </si>
-  <si>
-    <t>Shur-Kleen Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.shurkleencarwash.com/</t>
-  </si>
-  <si>
-    <t>Spin Car Wash</t>
-  </si>
-  <si>
-    <t>https://spincarwash.com/</t>
-  </si>
-  <si>
-    <t>Supershine Xpress Carwash</t>
-  </si>
-  <si>
-    <t>https://supershinexpress.com/</t>
-  </si>
-  <si>
-    <t>5 Minute Express Car Wash</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>https://5minuteexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Auto Wash Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.autowashcarwash.com/</t>
-  </si>
-  <si>
-    <t>Cadillac Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.cadillacexpresscarwash.com/</t>
-  </si>
-  <si>
-    <t>Camel Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://camelexpress.com/</t>
-  </si>
-  <si>
-    <t>Fast Freddy’s Car Wash</t>
-  </si>
-  <si>
-    <t>https://fastfreddyscarwashes.com/</t>
-  </si>
-  <si>
-    <t>FullSpeed Automotive</t>
-  </si>
-  <si>
-    <t>New Mexico | Texas</t>
-  </si>
-  <si>
-    <t>https://fullspeedautomotive.com/</t>
-  </si>
-  <si>
-    <t>Magic Brush Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.magicbrushexpress.com/</t>
-  </si>
-  <si>
-    <t>Ridi Stores</t>
-  </si>
-  <si>
-    <t>https://ridistores.com/</t>
-  </si>
-  <si>
-    <t>Soapy Noble Car Wash</t>
-  </si>
-  <si>
-    <t>Connecticut | Massachusetts</t>
-  </si>
-  <si>
-    <t>https://soapynoble.com/</t>
-  </si>
-  <si>
-    <t>Waves Express Car Wash</t>
-  </si>
-  <si>
-    <t>https://wavesexpresswash.com/</t>
-  </si>
-  <si>
-    <t>Clean Wheels Car Wash</t>
-  </si>
-  <si>
-    <t>https://www.cleanwheelswash.com/</t>
   </si>
   <si>
     <t>Country Club Auto Spa</t>
@@ -1716,7 +1719,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1731,9 +1734,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,7 +2004,7 @@
         <v>1969.0</v>
       </c>
       <c r="D2" s="2">
-        <v>506.0</v>
+        <v>518.0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -2043,10 +2043,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>2014.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D3" s="2">
-        <v>472.0</v>
+        <v>296.0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -2085,10 +2085,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1999.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D4" s="2">
-        <v>296.0</v>
+        <v>275.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -2127,10 +2127,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>2004.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D5" s="2">
-        <v>275.0</v>
+        <v>256.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -2169,10 +2169,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="2">
-        <v>2011.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D6" s="2">
-        <v>256.0</v>
+        <v>249.0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -2211,10 +2211,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="2">
-        <v>2006.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D7" s="2">
-        <v>249.0</v>
+        <v>213.0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -2253,10 +2253,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="2">
-        <v>2019.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D8" s="2">
-        <v>213.0</v>
+        <v>197.0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>39</v>
@@ -2295,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>2004.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D9" s="2">
-        <v>196.0</v>
+        <v>154.0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -2334,22 +2334,22 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>154.0</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2373,16 +2373,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="2">
-        <v>2002.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D11" s="2">
-        <v>150.0</v>
+        <v>141.0</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>53</v>
@@ -2421,19 +2421,19 @@
         <v>57</v>
       </c>
       <c r="C12" s="2">
-        <v>2015.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D12" s="2">
-        <v>141.0</v>
+        <v>127.0</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C13" s="2">
         <v>2020.0</v>
@@ -2469,13 +2469,13 @@
         <v>120.0</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2499,25 +2499,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>112.0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>119.0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2541,16 +2541,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C15" s="2">
-        <v>1993.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D15" s="2">
-        <v>112.0</v>
+        <v>108.0</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>71</v>
@@ -2628,7 +2628,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2">
         <v>1969.0</v>
@@ -2637,7 +2637,7 @@
         <v>91.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>80</v>
@@ -2670,19 +2670,19 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2">
-        <v>2021.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D18" s="2">
-        <v>76.0</v>
+        <v>84.0</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>85</v>
@@ -2712,22 +2712,22 @@
         <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2">
-        <v>1981.0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>71.0</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C20" s="2">
-        <v>2016.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D20" s="2">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>92</v>
@@ -2796,22 +2796,22 @@
         <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D21" s="2">
-        <v>64.0</v>
+        <v>71.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2835,25 +2835,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>2007.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D22" s="2">
-        <v>63.0</v>
+        <v>68.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2877,25 +2877,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
-        <v>2010.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D23" s="2">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2919,19 +2919,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2">
-        <v>1970.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D24" s="2">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>109</v>
@@ -2967,19 +2967,19 @@
         <v>112</v>
       </c>
       <c r="C25" s="2">
-        <v>2007.0</v>
+        <v>1970.0</v>
       </c>
       <c r="D25" s="2">
         <v>58.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3003,25 +3003,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D26" s="2">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3045,25 +3045,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2">
-        <v>1948.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D27" s="2">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3087,25 +3087,25 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C28" s="2">
-        <v>2012.0</v>
+        <v>1948.0</v>
       </c>
       <c r="D28" s="2">
         <v>50.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3129,25 +3129,25 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2">
-        <v>1953.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D29" s="2">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3171,25 +3171,25 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>1997.0</v>
+        <v>1953.0</v>
       </c>
       <c r="D30" s="2">
         <v>49.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3213,25 +3213,25 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2">
-        <v>1959.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D31" s="2">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3255,25 +3255,25 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2">
-        <v>2009.0</v>
+        <v>1959.0</v>
       </c>
       <c r="D32" s="2">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3297,25 +3297,25 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>2020.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D33" s="2">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3339,25 +3339,25 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2">
-        <v>1957.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D34" s="2">
         <v>45.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3381,25 +3381,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2">
-        <v>1988.0</v>
+        <v>1957.0</v>
       </c>
       <c r="D35" s="2">
         <v>45.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3423,25 +3423,25 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2">
-        <v>1995.0</v>
+        <v>1988.0</v>
       </c>
       <c r="D36" s="2">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3465,25 +3465,25 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2">
-        <v>2013.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D37" s="2">
         <v>42.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3507,25 +3507,25 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2">
-        <v>1976.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D38" s="2">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3549,25 +3549,25 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="C39" s="2">
-        <v>1948.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D39" s="2">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3591,25 +3591,25 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2">
-        <v>2011.0</v>
+        <v>1948.0</v>
       </c>
       <c r="D40" s="2">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3633,25 +3633,25 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2">
-        <v>2018.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D41" s="2">
         <v>36.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3675,25 +3675,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2">
-        <v>1967.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D42" s="2">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3717,25 +3717,25 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2">
-        <v>1986.0</v>
+        <v>1967.0</v>
       </c>
       <c r="D43" s="2">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3759,25 +3759,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2">
-        <v>2013.0</v>
+        <v>1986.0</v>
       </c>
       <c r="D44" s="2">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3801,22 +3801,22 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D45" s="2">
         <v>30.0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>181</v>
+      <c r="E45" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>183</v>
@@ -3846,22 +3846,22 @@
         <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2">
-        <v>1970.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D46" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>29</v>
+        <v>30.0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3885,25 +3885,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="C47" s="2">
-        <v>1965.0</v>
+        <v>1970.0</v>
       </c>
       <c r="D47" s="2">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3927,25 +3927,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2">
-        <v>1992.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D48" s="2">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3969,25 +3969,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2">
-        <v>2021.0</v>
+        <v>1965.0</v>
       </c>
       <c r="D49" s="2">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -4011,25 +4011,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2">
-        <v>2020.0</v>
+        <v>1992.0</v>
       </c>
       <c r="D50" s="2">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4053,22 +4053,22 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2">
-        <v>2004.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D51" s="2">
         <v>26.0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>202</v>
@@ -4101,10 +4101,10 @@
         <v>204</v>
       </c>
       <c r="C52" s="2">
-        <v>2000.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D52" s="2">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>205</v>
@@ -4140,22 +4140,22 @@
         <v>208</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2">
-        <v>2011.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D53" s="2">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4179,25 +4179,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="C54" s="2">
-        <v>2004.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D54" s="2">
         <v>25.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4221,25 +4221,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>2019.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D55" s="2">
         <v>25.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4263,25 +4263,25 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2">
-        <v>2013.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D56" s="2">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4305,25 +4305,25 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="C57" s="2">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D57" s="2">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>2021.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D58" s="2">
         <v>24.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4389,25 +4389,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D59" s="2">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4431,25 +4431,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="C60" s="2">
-        <v>1981.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D60" s="2">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4473,25 +4473,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C61" s="2">
-        <v>2012.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D61" s="2">
         <v>23.0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4515,19 +4515,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="C62" s="2">
-        <v>1959.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D62" s="2">
         <v>23.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>239</v>
@@ -4560,22 +4560,22 @@
         <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="C63" s="2">
-        <v>1966.0</v>
+        <v>1959.0</v>
       </c>
       <c r="D63" s="2">
         <v>23.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4599,25 +4599,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2">
-        <v>1981.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D64" s="2">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4641,25 +4641,25 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="C65" s="2">
-        <v>2019.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D65" s="2">
         <v>22.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4683,25 +4683,25 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2">
-        <v>2016.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D66" s="2">
         <v>22.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C67" s="2">
         <v>2019.0</v>
@@ -4737,13 +4737,13 @@
         <v>21.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4767,10 +4767,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C68" s="2">
         <v>2016.0</v>
@@ -4779,13 +4779,13 @@
         <v>21.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2">
         <v>1997.0</v>
@@ -4821,13 +4821,13 @@
         <v>20.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4851,10 +4851,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2">
         <v>2012.0</v>
@@ -4863,13 +4863,13 @@
         <v>20.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2">
         <v>2019.0</v>
@@ -4905,13 +4905,13 @@
         <v>20.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
@@ -4947,13 +4947,13 @@
         <v>19.0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C73" s="2">
         <v>1960.0</v>
@@ -4989,13 +4989,13 @@
         <v>19.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C74" s="2">
         <v>2012.0</v>
@@ -5031,13 +5031,13 @@
         <v>19.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2">
         <v>1995.0</v>
@@ -5073,13 +5073,13 @@
         <v>19.0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C76" s="2">
         <v>2020.0</v>
@@ -5115,13 +5115,13 @@
         <v>18.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5145,10 +5145,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C77" s="2">
         <v>1951.0</v>
@@ -5157,13 +5157,13 @@
         <v>18.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5187,10 +5187,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2">
         <v>1976.0</v>
@@ -5199,13 +5199,13 @@
         <v>18.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2">
         <v>2018.0</v>
@@ -5241,13 +5241,13 @@
         <v>18.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5271,25 +5271,25 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2">
-        <v>2021.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D80" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>29</v>
+        <v>292</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5313,25 +5313,25 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D81" s="2">
         <v>17.0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5355,25 +5355,25 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2">
-        <v>1982.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D82" s="2">
         <v>17.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5397,25 +5397,25 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2">
-        <v>1977.0</v>
+        <v>1982.0</v>
       </c>
       <c r="D83" s="2">
         <v>17.0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C84" s="2">
-        <v>2017.0</v>
+        <v>1977.0</v>
       </c>
       <c r="D84" s="2">
         <v>17.0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5481,25 +5481,25 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2">
-        <v>2015.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D85" s="2">
         <v>17.0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5523,25 +5523,25 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="C86" s="2">
-        <v>2007.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D86" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2">
         <v>1995.0</v>
@@ -5577,13 +5577,13 @@
         <v>16.0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C88" s="2">
         <v>1993.0</v>
@@ -5619,13 +5619,13 @@
         <v>16.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2">
         <v>2013.0</v>
@@ -5661,13 +5661,13 @@
         <v>16.0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C90" s="2">
         <v>1976.0</v>
@@ -5703,13 +5703,13 @@
         <v>16.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2">
         <v>1999.0</v>
@@ -5745,13 +5745,13 @@
         <v>15.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5775,25 +5775,25 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C92" s="2">
-        <v>2018.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D92" s="2">
         <v>15.0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5817,19 +5817,19 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="C93" s="2">
-        <v>2001.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D93" s="2">
         <v>15.0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>327</v>
@@ -5862,16 +5862,16 @@
         <v>329</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="C94" s="2">
-        <v>2024.0</v>
+        <v>2001.0</v>
       </c>
       <c r="D94" s="2">
         <v>15.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>331</v>
@@ -5904,22 +5904,22 @@
         <v>333</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2">
-        <v>2007.0</v>
+        <v>2024.0</v>
       </c>
       <c r="D95" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5943,19 +5943,19 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2">
-        <v>2019.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D96" s="2">
         <v>14.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>338</v>
@@ -5988,22 +5988,22 @@
         <v>340</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D97" s="2">
         <v>14.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6027,19 +6027,19 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2">
-        <v>1969.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D98" s="2">
         <v>14.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>345</v>
@@ -6072,22 +6072,22 @@
         <v>347</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="C99" s="2">
-        <v>2000.0</v>
+        <v>1969.0</v>
       </c>
       <c r="D99" s="2">
         <v>14.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="C100" s="2">
-        <v>1987.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D100" s="2">
         <v>14.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -6153,23 +6153,25 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="C101" s="2">
-        <v>2008.0</v>
+        <v>1987.0</v>
       </c>
       <c r="D101" s="2">
         <v>14.0</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F101" s="1" t="s">
-        <v>57</v>
+        <v>354</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -6193,25 +6195,23 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C102" s="2">
-        <v>1994.0</v>
+        <v>2008.0</v>
       </c>
       <c r="D102" s="2">
         <v>14.0</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>356</v>
+        <v>52</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -6235,19 +6235,19 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="C103" s="2">
-        <v>1997.0</v>
+        <v>1994.0</v>
       </c>
       <c r="D103" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>359</v>
+        <v>24</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>360</v>
@@ -6280,16 +6280,16 @@
         <v>362</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>363</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2">
-        <v>1981.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D104" s="2">
         <v>13.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>364</v>
@@ -6322,22 +6322,22 @@
         <v>366</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>57</v>
+        <v>367</v>
       </c>
       <c r="C105" s="2">
-        <v>2015.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D105" s="2">
         <v>13.0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>57</v>
+        <v>368</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6361,25 +6361,25 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2">
-        <v>1980.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D106" s="2">
         <v>13.0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6403,25 +6403,25 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C107" s="2">
-        <v>1983.0</v>
+        <v>1980.0</v>
       </c>
       <c r="D107" s="2">
         <v>13.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6445,25 +6445,25 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2">
-        <v>2020.0</v>
+        <v>1983.0</v>
       </c>
       <c r="D108" s="2">
         <v>13.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6487,22 +6487,22 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="C109" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D109" s="2">
         <v>13.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>375</v>
+        <v>24</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>377</v>
@@ -6532,10 +6532,10 @@
         <v>378</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C110" s="2">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D110" s="2">
         <v>13.0</v>
@@ -6574,22 +6574,22 @@
         <v>382</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="C111" s="2">
-        <v>2010.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D111" s="2">
         <v>13.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>29</v>
+        <v>383</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6613,25 +6613,25 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="C112" s="2">
-        <v>2017.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D112" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>28</v>
+        <v>387</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6655,25 +6655,25 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="C113" s="2">
-        <v>2023.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D113" s="2">
         <v>12.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>388</v>
+        <v>23</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6697,25 +6697,25 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C114" s="2">
-        <v>2017.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D114" s="2">
         <v>12.0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>158</v>
+        <v>392</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="C115" s="2">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D115" s="2">
         <v>12.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>393</v>
+        <v>163</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6781,25 +6781,25 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="C116" s="2">
-        <v>1990.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D116" s="2">
         <v>12.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6823,25 +6823,25 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="C117" s="2">
-        <v>2023.0</v>
+        <v>1990.0</v>
       </c>
       <c r="D117" s="2">
         <v>12.0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6865,24 +6865,26 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>401</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2">
-        <v>2006.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D118" s="2">
         <v>12.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G118" s="1"/>
+        <v>402</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -6905,26 +6907,24 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>23</v>
+        <v>405</v>
       </c>
       <c r="C119" s="2">
-        <v>1964.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D119" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>403</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C120" s="2">
-        <v>1993.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D120" s="2">
         <v>11.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6989,25 +6989,25 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="C121" s="2">
-        <v>1958.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D121" s="2">
         <v>11.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -7031,25 +7031,25 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="C122" s="2">
-        <v>1950.0</v>
+        <v>1958.0</v>
       </c>
       <c r="D122" s="2">
         <v>11.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -7073,25 +7073,25 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="C123" s="2">
-        <v>1947.0</v>
+        <v>1950.0</v>
       </c>
       <c r="D123" s="2">
         <v>11.0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -7115,25 +7115,25 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>158</v>
+        <v>416</v>
       </c>
       <c r="C124" s="2">
-        <v>2007.0</v>
+        <v>1947.0</v>
       </c>
       <c r="D124" s="2">
         <v>11.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -7157,19 +7157,19 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="C125" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D125" s="2">
         <v>11.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>419</v>
@@ -7202,7 +7202,7 @@
         <v>421</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C126" s="2">
         <v>2011.0</v>
@@ -7211,7 +7211,7 @@
         <v>11.0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>422</v>
@@ -7244,14 +7244,14 @@
         <v>424</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="2">
         <v>11.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>425</v>
@@ -7284,7 +7284,7 @@
         <v>427</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C128" s="2">
         <v>2022.0</v>
@@ -7293,10 +7293,10 @@
         <v>10.0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>428</v>
@@ -7326,7 +7326,7 @@
         <v>429</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C129" s="2">
         <v>2016.0</v>
@@ -7335,7 +7335,7 @@
         <v>10.0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>430</v>
@@ -7368,16 +7368,16 @@
         <v>432</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2">
-        <v>1993.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D130" s="2">
         <v>10.0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>433</v>
@@ -7410,22 +7410,22 @@
         <v>435</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C131" s="2">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D131" s="2">
         <v>10.0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7449,25 +7449,25 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C132" s="2">
-        <v>2019.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D132" s="2">
         <v>10.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>29</v>
+        <v>438</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7491,19 +7491,19 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2">
-        <v>2022.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D133" s="2">
         <v>10.0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>441</v>
+        <v>24</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>442</v>
@@ -7536,16 +7536,16 @@
         <v>444</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="C134" s="2">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D134" s="2">
         <v>10.0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>445</v>
@@ -7578,22 +7578,22 @@
         <v>447</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="C135" s="2">
-        <v>2015.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D135" s="2">
         <v>10.0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7617,22 +7617,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="C136" s="2">
-        <v>2005.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D136" s="2">
         <v>10.0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>18</v>
+        <v>450</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>451</v>
@@ -7662,22 +7662,22 @@
         <v>452</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2">
-        <v>1999.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D137" s="2">
         <v>10.0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2">
-        <v>2019.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D138" s="2">
         <v>10.0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7743,25 +7743,25 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C139" s="2">
-        <v>2009.0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7785,25 +7785,25 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C140" s="2">
-        <v>2002.0</v>
+        <v>1951.0</v>
       </c>
       <c r="D140" s="2">
         <v>9.0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7827,25 +7827,25 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="C141" s="2">
-        <v>1951.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D141" s="2">
         <v>9.0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7869,22 +7869,22 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C142" s="2">
-        <v>2021.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D142" s="2">
         <v>9.0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>38</v>
+        <v>463</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>464</v>
@@ -7914,22 +7914,22 @@
         <v>465</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C143" s="2">
-        <v>1998.0</v>
+        <v>2003.0</v>
       </c>
       <c r="D143" s="2">
         <v>9.0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7953,25 +7953,25 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2">
-        <v>2003.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D144" s="2">
         <v>9.0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -7995,22 +7995,20 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C145" s="2">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D145" s="2">
         <v>9.0</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>103</v>
+        <v>470</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>471</v>
@@ -8040,7 +8038,7 @@
         <v>472</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C146" s="2">
         <v>2021.0</v>
@@ -8048,7 +8046,9 @@
       <c r="D146" s="2">
         <v>9.0</v>
       </c>
-      <c r="E146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F146" s="1" t="s">
         <v>473</v>
       </c>
@@ -8080,22 +8080,22 @@
         <v>475</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>48</v>
+        <v>311</v>
       </c>
       <c r="C147" s="2">
-        <v>2021.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D147" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -8119,22 +8119,22 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="C148" s="2">
-        <v>1998.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D148" s="2">
         <v>8.0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>310</v>
+        <v>478</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>479</v>
@@ -8164,22 +8164,22 @@
         <v>480</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C149" s="2">
-        <v>2016.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D149" s="2">
         <v>8.0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -8203,25 +8203,25 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C150" s="2">
-        <v>2004.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D150" s="2">
         <v>8.0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -8245,25 +8245,25 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C151" s="2">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D151" s="2">
         <v>8.0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8287,26 +8287,20 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152" s="2">
-        <v>2014.0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>488</v>
-      </c>
+      <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -8329,25 +8323,25 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C153" s="2">
-        <v>2018.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D153" s="2">
         <v>7.0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8371,20 +8365,26 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B154" s="1"/>
+        <v>490</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C154" s="2">
-        <v>2021.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D154" s="2">
         <v>7.0</v>
       </c>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="F154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -8410,19 +8410,19 @@
         <v>493</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="C155" s="2">
-        <v>2023.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D155" s="2">
         <v>7.0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>494</v>
@@ -8452,22 +8452,22 @@
         <v>495</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C156" s="2">
-        <v>2010.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D156" s="2">
         <v>7.0</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8491,25 +8491,25 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1981.0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C157" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8533,25 +8533,23 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1964.0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C158" s="2">
-        <v>2016.0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8575,25 +8573,25 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C159" s="2">
-        <v>1981.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D159" s="2">
         <v>6.0</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8617,23 +8615,25 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="C160" s="2">
-        <v>1964.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D160" s="2">
         <v>6.0</v>
       </c>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F160" s="1" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8657,22 +8657,22 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C161" s="2">
-        <v>2009.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D161" s="2">
         <v>6.0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>112</v>
+        <v>506</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>507</v>
@@ -8702,22 +8702,22 @@
         <v>508</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>57</v>
+        <v>416</v>
       </c>
       <c r="C162" s="2">
-        <v>2018.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D162" s="2">
         <v>6.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>57</v>
+        <v>416</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8741,25 +8741,25 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C163" s="2">
-        <v>1966.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D163" s="2">
         <v>6.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8783,22 +8783,22 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>412</v>
+        <v>61</v>
       </c>
       <c r="C164" s="2">
-        <v>2010.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D164" s="2">
         <v>6.0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>514</v>
+        <v>24</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>412</v>
+        <v>61</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>515</v>
@@ -8828,22 +8828,22 @@
         <v>516</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C165" s="2">
-        <v>2010.0</v>
+        <v>1985.0</v>
       </c>
       <c r="D165" s="2">
         <v>6.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G165" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8867,25 +8867,25 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C166" s="2">
-        <v>2023.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D166" s="2">
         <v>6.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8909,25 +8909,25 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="C167" s="2">
-        <v>1985.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D167" s="2">
         <v>6.0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8951,22 +8951,22 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C168" s="2">
-        <v>2018.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D168" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>103</v>
+        <v>523</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>524</v>
@@ -8996,19 +8996,17 @@
         <v>525</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="C169" s="2">
-        <v>2019.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D169" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="E169" s="1"/>
       <c r="F169" s="1" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>526</v>
@@ -9038,22 +9036,22 @@
         <v>527</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>528</v>
+        <v>52</v>
       </c>
       <c r="C170" s="2">
-        <v>2006.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D170" s="2">
         <v>5.0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G170" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -9077,23 +9075,23 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="C171" s="2">
-        <v>1981.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D171" s="2">
         <v>5.0</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -9117,25 +9115,25 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="C172" s="2">
-        <v>2012.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D172" s="2">
         <v>5.0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -9159,20 +9157,22 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2">
-        <v>2016.0</v>
+        <v>1978.0</v>
       </c>
       <c r="D173" s="2">
         <v>5.0</v>
       </c>
-      <c r="E173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F173" s="1" t="s">
-        <v>62</v>
+        <v>534</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>535</v>
@@ -9202,19 +9202,19 @@
         <v>536</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="C174" s="2">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D174" s="2">
         <v>5.0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>537</v>
@@ -9244,22 +9244,22 @@
         <v>538</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C175" s="2">
-        <v>1978.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D175" s="2">
         <v>5.0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G175" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -9283,22 +9283,22 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C176" s="2">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D176" s="2">
         <v>5.0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>23</v>
+        <v>541</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>542</v>
@@ -9328,19 +9328,19 @@
         <v>543</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="C177" s="2">
-        <v>2002.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D177" s="2">
         <v>5.0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>544</v>
@@ -9370,22 +9370,20 @@
         <v>545</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C178" s="2">
-        <v>2022.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D178" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="E178" s="1"/>
       <c r="F178" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9409,25 +9407,25 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G179" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C179" s="2">
-        <v>2017.0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -9451,23 +9449,23 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="C180" s="2">
-        <v>2018.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D180" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -9491,23 +9489,25 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C181" s="5">
-        <v>37694.0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -9530,13 +9530,25 @@
       <c r="Z181" s="1"/>
     </row>
     <row r="182">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -32506,8 +32518,8 @@
     <hyperlink r:id="rId41" ref="G42"/>
     <hyperlink r:id="rId42" ref="G43"/>
     <hyperlink r:id="rId43" ref="G44"/>
-    <hyperlink r:id="rId44" ref="E45"/>
-    <hyperlink r:id="rId45" ref="G45"/>
+    <hyperlink r:id="rId44" ref="G45"/>
+    <hyperlink r:id="rId45" ref="E46"/>
     <hyperlink r:id="rId46" ref="G46"/>
     <hyperlink r:id="rId47" ref="G47"/>
     <hyperlink r:id="rId48" ref="G48"/>
@@ -32580,7 +32592,7 @@
     <hyperlink r:id="rId115" ref="G115"/>
     <hyperlink r:id="rId116" ref="G116"/>
     <hyperlink r:id="rId117" ref="G117"/>
-    <hyperlink r:id="rId118" ref="G119"/>
+    <hyperlink r:id="rId118" ref="G118"/>
     <hyperlink r:id="rId119" ref="G120"/>
     <hyperlink r:id="rId120" ref="G121"/>
     <hyperlink r:id="rId121" ref="G122"/>
@@ -32613,8 +32625,8 @@
     <hyperlink r:id="rId148" ref="G149"/>
     <hyperlink r:id="rId149" ref="G150"/>
     <hyperlink r:id="rId150" ref="G151"/>
-    <hyperlink r:id="rId151" ref="G152"/>
-    <hyperlink r:id="rId152" ref="G153"/>
+    <hyperlink r:id="rId151" ref="G153"/>
+    <hyperlink r:id="rId152" ref="G154"/>
     <hyperlink r:id="rId153" ref="G155"/>
     <hyperlink r:id="rId154" ref="G156"/>
     <hyperlink r:id="rId155" ref="G157"/>
@@ -32642,7 +32654,8 @@
     <hyperlink r:id="rId177" ref="G179"/>
     <hyperlink r:id="rId178" ref="G180"/>
     <hyperlink r:id="rId179" ref="G181"/>
+    <hyperlink r:id="rId180" ref="G182"/>
   </hyperlinks>
-  <drawing r:id="rId180"/>
+  <drawing r:id="rId181"/>
 </worksheet>
 </file>
--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Car Wash Advisory - Companies (" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Car Wash Advisory - Companies" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="566">
   <si>
     <t>Company Name</t>
   </si>
@@ -109,6 +109,21 @@
     <t>https://clubcarwash.com/</t>
   </si>
   <si>
+    <t>Take 5 Car Wash</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Roark Capital Group</t>
+  </si>
+  <si>
+    <t>Alabama | Arkansas | Colorado | Florida | Georgia | Indiana | Kentucky | Louisiana | Mississippi | North Carolina | Ohio | Oklahoma | South Carolina | Tennessee | Texas | West Virginia</t>
+  </si>
+  <si>
+    <t>https://www.take5carwash.com/</t>
+  </si>
+  <si>
     <t>Spotless Brands</t>
   </si>
   <si>
@@ -223,9 +238,6 @@
     <t>Whistle Express Car Wash</t>
   </si>
   <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
     <t>Oaktree Capital Management LP</t>
   </si>
   <si>
@@ -271,6 +283,15 @@
     <t>https://elcarwash.com/</t>
   </si>
   <si>
+    <t>ClearWater Express Wash</t>
+  </si>
+  <si>
+    <t>Texas | California</t>
+  </si>
+  <si>
+    <t>https://www.clearwaterexpresswash.com</t>
+  </si>
+  <si>
     <t>LUV Car Wash</t>
   </si>
   <si>
@@ -337,15 +358,6 @@
     <t>https://calibercarwash.com/</t>
   </si>
   <si>
-    <t>BlueWave Express Car Wash</t>
-  </si>
-  <si>
-    <t>Texas | California</t>
-  </si>
-  <si>
-    <t>https://bluewaveexpress.com/</t>
-  </si>
-  <si>
     <t>Golden Nozzle Car Wash</t>
   </si>
   <si>
@@ -616,12 +628,6 @@
     <t>https://quicknclean.net/</t>
   </si>
   <si>
-    <t>ClearWater Express Wash</t>
-  </si>
-  <si>
-    <t>https://www.clearwaterexpresswash.com</t>
-  </si>
-  <si>
     <t>Thoroughbred Express Auto Wash</t>
   </si>
   <si>
@@ -1483,6 +1489,15 @@
     <t>https://www.dreamcleancw.com/</t>
   </si>
   <si>
+    <t>Greenhill Car Wash</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>https://greenhillcarwash.com/</t>
+  </si>
+  <si>
     <t>H2Go Car Wash</t>
   </si>
   <si>
@@ -1660,6 +1675,12 @@
     <t>https://cleansweepcarwash.com/</t>
   </si>
   <si>
+    <t>Peak Shine Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.thepeakshine.com/</t>
+  </si>
+  <si>
     <t>Shammy's Auto Wash</t>
   </si>
   <si>
@@ -1679,6 +1700,15 @@
   </si>
   <si>
     <t>https://www.countryclubautospa.com/</t>
+  </si>
+  <si>
+    <t>Rocket Shine Car Wash</t>
+  </si>
+  <si>
+    <t>Flroida</t>
+  </si>
+  <si>
+    <t>https://sunandsudscarwashes.com/rocket-shine-car-wash/</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2202,7 @@
         <v>2006.0</v>
       </c>
       <c r="D6" s="2">
-        <v>249.0</v>
+        <v>253.0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -2211,10 +2241,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="2">
-        <v>2019.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D7" s="2">
-        <v>213.0</v>
+        <v>226.0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
@@ -2253,10 +2283,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="2">
-        <v>2004.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D8" s="2">
-        <v>197.0</v>
+        <v>213.0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>39</v>
@@ -2295,10 +2325,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>2019.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D9" s="2">
-        <v>154.0</v>
+        <v>197.0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -2334,22 +2364,22 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
-        <v>2002.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D10" s="2">
-        <v>150.0</v>
+        <v>154.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2373,16 +2403,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>2015.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D11" s="2">
-        <v>141.0</v>
+        <v>150.0</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>53</v>
@@ -2421,19 +2451,19 @@
         <v>57</v>
       </c>
       <c r="C12" s="2">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D12" s="2">
-        <v>127.0</v>
+        <v>141.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2457,19 +2487,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D13" s="2">
-        <v>120.0</v>
+        <v>127.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>63</v>
@@ -2502,22 +2532,22 @@
         <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2">
-        <v>1993.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D14" s="2">
-        <v>112.0</v>
+        <v>120.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2541,16 +2571,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>2014.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D15" s="2">
-        <v>108.0</v>
+        <v>112.0</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>71</v>
@@ -2586,22 +2616,22 @@
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>108.0</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>104.0</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2625,25 +2655,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" s="2">
-        <v>1969.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D17" s="2">
-        <v>91.0</v>
+        <v>104.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2667,22 +2697,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
-        <v>2010.0</v>
+        <v>1969.0</v>
       </c>
       <c r="D18" s="2">
-        <v>84.0</v>
+        <v>91.0</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>85</v>
@@ -2712,19 +2742,19 @@
         <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2">
-        <v>2021.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D19" s="2">
-        <v>76.0</v>
+        <v>84.0</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>89</v>
@@ -2754,22 +2784,22 @@
         <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="2">
-        <v>1981.0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>71.0</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2793,25 +2823,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2015.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>71.0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2835,25 +2865,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1981.0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>71.0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2016.0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>68.0</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2877,25 +2907,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>71.0</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2919,19 +2949,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2007.0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>63.0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>109</v>
@@ -2964,22 +2994,22 @@
         <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="2">
-        <v>1970.0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>58.0</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3003,19 +3033,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" s="2">
-        <v>2007.0</v>
+        <v>1970.0</v>
       </c>
       <c r="D26" s="2">
         <v>58.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>118</v>
@@ -3048,22 +3078,22 @@
         <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2">
-        <v>2015.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D27" s="2">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3087,16 +3117,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2">
-        <v>1948.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D28" s="2">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>24</v>
@@ -3132,10 +3162,10 @@
         <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2">
-        <v>2012.0</v>
+        <v>1948.0</v>
       </c>
       <c r="D29" s="2">
         <v>50.0</v>
@@ -3144,10 +3174,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3171,19 +3201,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2">
-        <v>1953.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D30" s="2">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>132</v>
@@ -3216,22 +3246,22 @@
         <v>134</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>1997.0</v>
+        <v>1953.0</v>
       </c>
       <c r="D31" s="2">
         <v>49.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3255,22 +3285,22 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C32" s="2">
-        <v>1959.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D32" s="2">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>139</v>
@@ -3300,16 +3330,16 @@
         <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2">
-        <v>2009.0</v>
+        <v>1959.0</v>
       </c>
       <c r="D33" s="2">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>142</v>
@@ -3342,13 +3372,13 @@
         <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>2020.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D34" s="2">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>145</v>
@@ -3384,22 +3414,22 @@
         <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
-        <v>1957.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D35" s="2">
         <v>45.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3423,19 +3453,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2">
-        <v>1988.0</v>
+        <v>1957.0</v>
       </c>
       <c r="D36" s="2">
         <v>45.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>153</v>
@@ -3468,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2">
-        <v>1995.0</v>
+        <v>1988.0</v>
       </c>
       <c r="D37" s="2">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>156</v>
@@ -3510,22 +3540,22 @@
         <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2">
-        <v>2013.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D38" s="2">
         <v>42.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3549,16 +3579,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2">
-        <v>1976.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D39" s="2">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>24</v>
@@ -3594,22 +3624,22 @@
         <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2">
-        <v>1948.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D40" s="2">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3633,25 +3663,25 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2">
-        <v>2011.0</v>
+        <v>1948.0</v>
       </c>
       <c r="D41" s="2">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3675,13 +3705,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
-        <v>2018.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D42" s="2">
         <v>36.0</v>
@@ -3690,10 +3720,10 @@
         <v>24</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3717,16 +3747,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2">
-        <v>1967.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D43" s="2">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>24</v>
@@ -3762,22 +3792,22 @@
         <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2">
-        <v>1986.0</v>
+        <v>1967.0</v>
       </c>
       <c r="D44" s="2">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3801,25 +3831,25 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2">
-        <v>2013.0</v>
+        <v>1986.0</v>
       </c>
       <c r="D45" s="2">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3843,25 +3873,25 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D46" s="2">
         <v>30.0</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3885,25 +3915,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C47" s="2">
-        <v>1970.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D47" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>24</v>
+        <v>30.0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3927,22 +3957,22 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2">
-        <v>1981.0</v>
+        <v>1970.0</v>
       </c>
       <c r="D48" s="2">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>195</v>
@@ -3972,22 +4002,22 @@
         <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2">
-        <v>1965.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D49" s="2">
         <v>28.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -4011,25 +4041,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2">
-        <v>1992.0</v>
+        <v>1965.0</v>
       </c>
       <c r="D50" s="2">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4053,25 +4083,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C51" s="2">
-        <v>2021.0</v>
+        <v>1992.0</v>
       </c>
       <c r="D51" s="2">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4095,10 +4125,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2">
         <v>2020.0</v>
@@ -4107,13 +4137,13 @@
         <v>26.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4137,10 +4167,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2">
         <v>2004.0</v>
@@ -4149,13 +4179,13 @@
         <v>26.0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4179,10 +4209,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C54" s="2">
         <v>2000.0</v>
@@ -4191,13 +4221,13 @@
         <v>25.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4221,7 +4251,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>18</v>
@@ -4239,7 +4269,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4263,10 +4293,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2">
         <v>2004.0</v>
@@ -4275,13 +4305,13 @@
         <v>25.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4305,10 +4335,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C57" s="2">
         <v>2019.0</v>
@@ -4317,13 +4347,13 @@
         <v>25.0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4347,7 +4377,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -4365,7 +4395,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4389,10 +4419,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2">
         <v>2018.0</v>
@@ -4404,10 +4434,10 @@
         <v>24</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4431,10 +4461,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C60" s="2">
         <v>2021.0</v>
@@ -4443,13 +4473,13 @@
         <v>24.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4473,10 +4503,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
         <v>2021.0</v>
@@ -4485,13 +4515,13 @@
         <v>23.0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4515,10 +4545,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C62" s="2">
         <v>2012.0</v>
@@ -4530,10 +4560,10 @@
         <v>24</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4557,10 +4587,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C63" s="2">
         <v>1959.0</v>
@@ -4569,13 +4599,13 @@
         <v>23.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4599,10 +4629,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2">
         <v>1966.0</v>
@@ -4614,10 +4644,10 @@
         <v>24</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4641,10 +4671,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2">
         <v>1981.0</v>
@@ -4656,10 +4686,10 @@
         <v>24</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4683,10 +4713,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2">
         <v>2019.0</v>
@@ -4698,10 +4728,10 @@
         <v>24</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4725,7 +4755,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>13</v>
@@ -4737,13 +4767,13 @@
         <v>21.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4767,10 +4797,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C68" s="2">
         <v>2016.0</v>
@@ -4782,10 +4812,10 @@
         <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4809,10 +4839,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2">
         <v>1997.0</v>
@@ -4824,10 +4854,10 @@
         <v>24</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4851,10 +4881,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2">
         <v>2012.0</v>
@@ -4866,10 +4896,10 @@
         <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4893,10 +4923,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2">
         <v>2019.0</v>
@@ -4908,10 +4938,10 @@
         <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4935,7 +4965,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
@@ -4947,13 +4977,13 @@
         <v>19.0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4977,10 +5007,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2">
         <v>1960.0</v>
@@ -4992,10 +5022,10 @@
         <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5019,10 +5049,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C74" s="2">
         <v>2012.0</v>
@@ -5034,10 +5064,10 @@
         <v>24</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5061,10 +5091,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2">
         <v>1995.0</v>
@@ -5076,10 +5106,10 @@
         <v>24</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5103,10 +5133,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C76" s="2">
         <v>2020.0</v>
@@ -5115,13 +5145,13 @@
         <v>18.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5145,10 +5175,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C77" s="2">
         <v>1951.0</v>
@@ -5160,10 +5190,10 @@
         <v>24</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5187,10 +5217,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2">
         <v>1976.0</v>
@@ -5202,10 +5232,10 @@
         <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5229,10 +5259,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C79" s="2">
         <v>2018.0</v>
@@ -5244,10 +5274,10 @@
         <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5271,10 +5301,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2">
         <v>2016.0</v>
@@ -5283,13 +5313,13 @@
         <v>18.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5313,7 +5343,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>13</v>
@@ -5328,10 +5358,10 @@
         <v>24</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5355,7 +5385,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
@@ -5373,7 +5403,7 @@
         <v>18</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5397,10 +5427,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C83" s="2">
         <v>1982.0</v>
@@ -5412,10 +5442,10 @@
         <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5439,7 +5469,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>23</v>
@@ -5457,7 +5487,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5481,10 +5511,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2">
         <v>2017.0</v>
@@ -5496,10 +5526,10 @@
         <v>24</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5523,7 +5553,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>23</v>
@@ -5541,7 +5571,7 @@
         <v>23</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5565,10 +5595,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2">
         <v>1995.0</v>
@@ -5580,10 +5610,10 @@
         <v>24</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5607,10 +5637,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C88" s="2">
         <v>1993.0</v>
@@ -5622,10 +5652,10 @@
         <v>24</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5649,10 +5679,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2">
         <v>2013.0</v>
@@ -5664,10 +5694,10 @@
         <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5691,10 +5721,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C90" s="2">
         <v>1976.0</v>
@@ -5706,10 +5736,10 @@
         <v>24</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5733,10 +5763,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2">
         <v>1999.0</v>
@@ -5748,10 +5778,10 @@
         <v>24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5775,10 +5805,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C92" s="2">
         <v>2007.0</v>
@@ -5790,10 +5820,10 @@
         <v>24</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5817,10 +5847,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C93" s="2">
         <v>2018.0</v>
@@ -5832,10 +5862,10 @@
         <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5859,10 +5889,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C94" s="2">
         <v>2001.0</v>
@@ -5874,10 +5904,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5901,10 +5931,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2">
         <v>2024.0</v>
@@ -5913,13 +5943,13 @@
         <v>15.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5943,10 +5973,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2">
         <v>2007.0</v>
@@ -5958,10 +5988,10 @@
         <v>24</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5985,10 +6015,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2">
         <v>2019.0</v>
@@ -5997,13 +6027,13 @@
         <v>14.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6027,10 +6057,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2">
         <v>2020.0</v>
@@ -6042,10 +6072,10 @@
         <v>24</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6069,10 +6099,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C99" s="2">
         <v>1969.0</v>
@@ -6084,10 +6114,10 @@
         <v>24</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6111,10 +6141,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C100" s="2">
         <v>2000.0</v>
@@ -6126,10 +6156,10 @@
         <v>24</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -6153,10 +6183,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2">
         <v>1987.0</v>
@@ -6168,10 +6198,10 @@
         <v>24</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -6195,10 +6225,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C102" s="2">
         <v>2008.0</v>
@@ -6208,10 +6238,10 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -6235,10 +6265,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C103" s="2">
         <v>1994.0</v>
@@ -6250,10 +6280,10 @@
         <v>24</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6277,10 +6307,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2">
         <v>1997.0</v>
@@ -6289,13 +6319,13 @@
         <v>13.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -6319,10 +6349,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C105" s="2">
         <v>1981.0</v>
@@ -6334,10 +6364,10 @@
         <v>24</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6361,10 +6391,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2">
         <v>2015.0</v>
@@ -6376,10 +6406,10 @@
         <v>24</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6403,7 +6433,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>8</v>
@@ -6421,7 +6451,7 @@
         <v>8</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6445,10 +6475,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2">
         <v>1983.0</v>
@@ -6460,10 +6490,10 @@
         <v>24</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6487,10 +6517,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C109" s="2">
         <v>2020.0</v>
@@ -6502,10 +6532,10 @@
         <v>24</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -6529,7 +6559,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>13</v>
@@ -6541,13 +6571,13 @@
         <v>13.0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -6571,10 +6601,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C111" s="2">
         <v>2019.0</v>
@@ -6583,13 +6613,13 @@
         <v>13.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -6613,10 +6643,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C112" s="2">
         <v>2010.0</v>
@@ -6628,10 +6658,10 @@
         <v>24</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6655,7 +6685,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>23</v>
@@ -6673,7 +6703,7 @@
         <v>23</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6697,10 +6727,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C114" s="2">
         <v>2023.0</v>
@@ -6712,10 +6742,10 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6739,10 +6769,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C115" s="2">
         <v>2017.0</v>
@@ -6754,10 +6784,10 @@
         <v>24</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6781,10 +6811,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C116" s="2">
         <v>2013.0</v>
@@ -6796,10 +6826,10 @@
         <v>24</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6823,7 +6853,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>18</v>
@@ -6841,7 +6871,7 @@
         <v>18</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6865,10 +6895,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2">
         <v>2023.0</v>
@@ -6880,10 +6910,10 @@
         <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6907,10 +6937,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C119" s="2">
         <v>2006.0</v>
@@ -6922,7 +6952,7 @@
         <v>24</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -6947,7 +6977,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>18</v>
@@ -6965,7 +6995,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6989,7 +7019,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>18</v>
@@ -7007,7 +7037,7 @@
         <v>18</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -7031,10 +7061,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C122" s="2">
         <v>1958.0</v>
@@ -7046,10 +7076,10 @@
         <v>24</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -7073,7 +7103,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>18</v>
@@ -7091,7 +7121,7 @@
         <v>18</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -7115,10 +7145,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C124" s="2">
         <v>1947.0</v>
@@ -7130,10 +7160,10 @@
         <v>24</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -7157,10 +7187,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C125" s="2">
         <v>2007.0</v>
@@ -7172,10 +7202,10 @@
         <v>24</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -7199,7 +7229,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>13</v>
@@ -7214,10 +7244,10 @@
         <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -7241,10 +7271,10 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="2">
@@ -7254,10 +7284,10 @@
         <v>24</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -7281,7 +7311,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>13</v>
@@ -7296,10 +7326,10 @@
         <v>24</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7323,7 +7353,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>28</v>
@@ -7338,10 +7368,10 @@
         <v>24</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -7365,10 +7395,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C130" s="2">
         <v>2018.0</v>
@@ -7380,10 +7410,10 @@
         <v>24</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -7407,10 +7437,10 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C131" s="2">
         <v>2019.0</v>
@@ -7422,10 +7452,10 @@
         <v>24</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7449,10 +7479,10 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2">
         <v>2022.0</v>
@@ -7461,13 +7491,13 @@
         <v>10.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7491,10 +7521,10 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C133" s="2">
         <v>2018.0</v>
@@ -7506,10 +7536,10 @@
         <v>24</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -7533,10 +7563,10 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C134" s="2">
         <v>2015.0</v>
@@ -7548,10 +7578,10 @@
         <v>24</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -7575,7 +7605,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>13</v>
@@ -7593,7 +7623,7 @@
         <v>13</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7617,10 +7647,10 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C136" s="2">
         <v>1999.0</v>
@@ -7632,10 +7662,10 @@
         <v>24</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -7659,10 +7689,10 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2">
         <v>2019.0</v>
@@ -7674,10 +7704,10 @@
         <v>24</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7701,10 +7731,10 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2">
         <v>2009.0</v>
@@ -7716,10 +7746,10 @@
         <v>24</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7743,10 +7773,10 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C139" s="2">
         <v>2002.0</v>
@@ -7758,10 +7788,10 @@
         <v>24</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7785,10 +7815,10 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C140" s="2">
         <v>1951.0</v>
@@ -7800,10 +7830,10 @@
         <v>24</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7827,10 +7857,10 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C141" s="2">
         <v>2021.0</v>
@@ -7842,10 +7872,10 @@
         <v>24</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7869,10 +7899,10 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C142" s="2">
         <v>1998.0</v>
@@ -7884,10 +7914,10 @@
         <v>24</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -7911,10 +7941,10 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C143" s="2">
         <v>2003.0</v>
@@ -7926,10 +7956,10 @@
         <v>24</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7953,10 +7983,10 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C144" s="2">
         <v>2019.0</v>
@@ -7968,10 +7998,10 @@
         <v>24</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -7995,10 +8025,10 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C145" s="2">
         <v>2021.0</v>
@@ -8008,10 +8038,10 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -8035,10 +8065,10 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C146" s="2">
         <v>2021.0</v>
@@ -8050,10 +8080,10 @@
         <v>24</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -8077,10 +8107,10 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C147" s="2">
         <v>1998.0</v>
@@ -8092,10 +8122,10 @@
         <v>24</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -8119,10 +8149,10 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C148" s="2">
         <v>2016.0</v>
@@ -8134,10 +8164,10 @@
         <v>24</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -8161,7 +8191,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>8</v>
@@ -8179,7 +8209,7 @@
         <v>8</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -8203,10 +8233,10 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C150" s="2">
         <v>2017.0</v>
@@ -8218,10 +8248,10 @@
         <v>24</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -8245,7 +8275,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>18</v>
@@ -8263,7 +8293,7 @@
         <v>18</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8287,7 +8317,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="2">
@@ -8298,7 +8328,7 @@
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -8323,10 +8353,10 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C153" s="2">
         <v>2023.0</v>
@@ -8338,10 +8368,10 @@
         <v>24</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8365,25 +8395,23 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>18</v>
+        <v>493</v>
       </c>
       <c r="C154" s="2">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D154" s="2">
         <v>7.0</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>18</v>
+        <v>493</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -8407,25 +8435,25 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="C155" s="2">
-        <v>2018.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D155" s="2">
         <v>7.0</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>24</v>
+        <v>496</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>348</v>
+        <v>18</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8449,13 +8477,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="C156" s="2">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D156" s="2">
         <v>7.0</v>
@@ -8464,10 +8492,10 @@
         <v>24</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8491,25 +8519,25 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C157" s="2">
-        <v>1981.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D157" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8533,23 +8561,25 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="C158" s="2">
-        <v>1964.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D158" s="2">
         <v>6.0</v>
       </c>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F158" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8573,25 +8603,23 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C159" s="2">
-        <v>2009.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D159" s="2">
         <v>6.0</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8615,13 +8643,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C160" s="2">
-        <v>2018.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D160" s="2">
         <v>6.0</v>
@@ -8630,10 +8658,10 @@
         <v>24</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8657,13 +8685,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C161" s="2">
-        <v>1966.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D161" s="2">
         <v>6.0</v>
@@ -8672,10 +8700,10 @@
         <v>24</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>506</v>
+        <v>57</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8699,25 +8727,25 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>416</v>
+        <v>98</v>
       </c>
       <c r="C162" s="2">
-        <v>2010.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D162" s="2">
         <v>6.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>509</v>
+        <v>24</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>416</v>
+        <v>511</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -8741,10 +8769,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>83</v>
+        <v>418</v>
       </c>
       <c r="C163" s="2">
         <v>2010.0</v>
@@ -8753,13 +8781,13 @@
         <v>6.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>24</v>
+        <v>514</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -8783,13 +8811,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2">
-        <v>2023.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D164" s="2">
         <v>6.0</v>
@@ -8798,10 +8826,10 @@
         <v>24</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>61</v>
+        <v>517</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8825,13 +8853,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="C165" s="2">
-        <v>1985.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D165" s="2">
         <v>6.0</v>
@@ -8840,10 +8868,10 @@
         <v>24</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8867,13 +8895,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="C166" s="2">
-        <v>2018.0</v>
+        <v>1985.0</v>
       </c>
       <c r="D166" s="2">
         <v>6.0</v>
@@ -8882,10 +8910,10 @@
         <v>24</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8909,13 +8937,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C167" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D167" s="2">
         <v>6.0</v>
@@ -8924,10 +8952,10 @@
         <v>24</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8951,25 +8979,25 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>523</v>
+        <v>13</v>
       </c>
       <c r="C168" s="2">
-        <v>2006.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D168" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>523</v>
+        <v>13</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -8993,23 +9021,25 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>176</v>
+        <v>528</v>
       </c>
       <c r="C169" s="2">
-        <v>1981.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D169" s="2">
         <v>5.0</v>
       </c>
-      <c r="E169" s="1"/>
+      <c r="E169" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F169" s="1" t="s">
-        <v>176</v>
+        <v>528</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -9033,25 +9063,23 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C170" s="2">
-        <v>2012.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D170" s="2">
         <v>5.0</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E170" s="1"/>
       <c r="F170" s="1" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -9075,23 +9103,25 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C171" s="2">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D171" s="2">
         <v>5.0</v>
       </c>
-      <c r="E171" s="1"/>
+      <c r="E171" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F171" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -9115,25 +9145,23 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D172" s="2">
         <v>5.0</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E172" s="1"/>
       <c r="F172" s="1" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -9157,13 +9185,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="C173" s="2">
-        <v>1978.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D173" s="2">
         <v>5.0</v>
@@ -9172,10 +9200,10 @@
         <v>24</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>534</v>
+        <v>206</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -9199,13 +9227,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C174" s="2">
-        <v>2021.0</v>
+        <v>1978.0</v>
       </c>
       <c r="D174" s="2">
         <v>5.0</v>
@@ -9214,10 +9242,10 @@
         <v>24</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>18</v>
+        <v>539</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -9241,13 +9269,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C175" s="2">
-        <v>2002.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D175" s="2">
         <v>5.0</v>
@@ -9256,10 +9284,10 @@
         <v>24</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -9283,13 +9311,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C176" s="2">
-        <v>2022.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D176" s="2">
         <v>5.0</v>
@@ -9298,10 +9326,10 @@
         <v>24</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>541</v>
+        <v>62</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -9325,13 +9353,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C177" s="2">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D177" s="2">
         <v>5.0</v>
@@ -9340,10 +9368,10 @@
         <v>24</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>185</v>
+        <v>546</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -9367,23 +9395,25 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="C178" s="2">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D178" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E178" s="1"/>
+        <v>5.0</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F178" s="1" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9407,25 +9437,23 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="C179" s="2">
-        <v>1993.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D179" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="E179" s="1"/>
       <c r="F179" s="1" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -9449,23 +9477,25 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C180" s="2">
-        <v>2006.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D180" s="2">
         <v>3.0</v>
       </c>
-      <c r="E180" s="1"/>
+      <c r="E180" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F180" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -9489,25 +9519,23 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C181" s="2">
-        <v>2018.0</v>
+        <v>2025.0</v>
       </c>
       <c r="D181" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -9531,23 +9559,23 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>554</v>
+        <v>206</v>
       </c>
       <c r="C182" s="2">
-        <v>2003.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D182" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -9570,13 +9598,27 @@
       <c r="Z182" s="1"/>
     </row>
     <row r="183">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -9598,13 +9640,25 @@
       <c r="Z183" s="1"/>
     </row>
     <row r="184">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C184" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>562</v>
+      </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -9626,13 +9680,23 @@
       <c r="Z184" s="1"/>
     </row>
     <row r="185">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="D185" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>565</v>
+      </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -32519,8 +32583,8 @@
     <hyperlink r:id="rId42" ref="G43"/>
     <hyperlink r:id="rId43" ref="G44"/>
     <hyperlink r:id="rId44" ref="G45"/>
-    <hyperlink r:id="rId45" ref="E46"/>
-    <hyperlink r:id="rId46" ref="G46"/>
+    <hyperlink r:id="rId45" ref="G46"/>
+    <hyperlink r:id="rId46" ref="E47"/>
     <hyperlink r:id="rId47" ref="G47"/>
     <hyperlink r:id="rId48" ref="G48"/>
     <hyperlink r:id="rId49" ref="G49"/>
@@ -32655,7 +32719,10 @@
     <hyperlink r:id="rId178" ref="G180"/>
     <hyperlink r:id="rId179" ref="G181"/>
     <hyperlink r:id="rId180" ref="G182"/>
+    <hyperlink r:id="rId181" ref="G183"/>
+    <hyperlink r:id="rId182" ref="G184"/>
+    <hyperlink r:id="rId183" ref="G185"/>
   </hyperlinks>
-  <drawing r:id="rId181"/>
+  <drawing r:id="rId184"/>
 </worksheet>
 </file>
--- a/Car_Wash_Advisory_Companies.xlsx
+++ b/Car_Wash_Advisory_Companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Car Wash Advisory - Companies" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Car Wash Advisory - Companies -" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="571">
   <si>
     <t>Company Name</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Golden Gate Capital</t>
   </si>
   <si>
-    <t>Montana | North Dakota | Nebraska | Minnesota | Iowa | Ohio | Kentucky | Oklahoma | Tennessee | Virginia | North Carolina | Georgia | Florida | Alabama | Mississippi | Texas | New York | Kansas | Idaho | Illinois | Indiana | Michigan | New Mexico | Pennsylvania | West Virginia | Wisconsin | Missouri | Arkansas | South Dakota</t>
+    <t>Alabama | Arkansas | Florida | Georgia | Idaho | Illinois | Indiana | Iowa | Kansas | Kentucky | Michigan | Minnesota | Mississippi | Missouri | Montana | Nebraska | New Mexico | New York | North Carolina | North Dakota | Tennessee | Texas | Virginia | West Virginia | Wisconsin</t>
   </si>
   <si>
     <t>https://www.tidalwaveautospa.com/</t>
@@ -79,6 +79,21 @@
     <t>https://www.dontdrivedirty.com/</t>
   </si>
   <si>
+    <t>Club Car Wash</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Wildcat Capital Management</t>
+  </si>
+  <si>
+    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois | Minnesota | Mississippi | Tennessee</t>
+  </si>
+  <si>
+    <t>https://clubcarwash.com/</t>
+  </si>
+  <si>
     <t>Tommy’s Express Car Wash</t>
   </si>
   <si>
@@ -94,21 +109,6 @@
     <t>https://tommys-express.com/</t>
   </si>
   <si>
-    <t>Club Car Wash</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Wildcat Capital Management</t>
-  </si>
-  <si>
-    <t>Texas | Oklahoma | Kansas | Arkansas | Missouri | Iowa | Nebraska | Wisconsin | Colorado | Illinois | Minnesota | Mississippi | Tennessee</t>
-  </si>
-  <si>
-    <t>https://clubcarwash.com/</t>
-  </si>
-  <si>
     <t>Take 5 Car Wash</t>
   </si>
   <si>
@@ -961,6 +961,18 @@
     <t>https://rainforestclean.com/</t>
   </si>
   <si>
+    <t>Rocky Mountain Car Wash</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Wyoming | Montana</t>
+  </si>
+  <si>
+    <t>https://rockymountaincarwash.com/</t>
+  </si>
+  <si>
     <t>Sgt. Clean Car Wash</t>
   </si>
   <si>
@@ -1006,18 +1018,6 @@
     <t>https://www.mach1expresswash.com/</t>
   </si>
   <si>
-    <t>Rocky Mountain Car Wash</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Wyoming | Montana</t>
-  </si>
-  <si>
-    <t>https://rockymountaincarwash.com/</t>
-  </si>
-  <si>
     <t>Sud Stop Car Wash</t>
   </si>
   <si>
@@ -1129,6 +1129,18 @@
     <t>https://charlies.com/</t>
   </si>
   <si>
+    <t>IQ Car Wash</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oklahoma | Texas | Nebraska | Kansas | Georgia</t>
+  </si>
+  <si>
+    <t>https://www.iqcarwash.com/</t>
+  </si>
+  <si>
     <t>iShine Express Car Wash &amp; Detail</t>
   </si>
   <si>
@@ -1234,9 +1246,6 @@
     <t>Xtreme Auto Wash</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>7 Flags Car Wash</t>
   </si>
   <si>
@@ -1691,6 +1700,12 @@
   </si>
   <si>
     <t>https://www.aceautowash.com/</t>
+  </si>
+  <si>
+    <t>In &amp; Out Car Wash</t>
+  </si>
+  <si>
+    <t>https://inoutwash.com/</t>
   </si>
   <si>
     <t>Country Club Auto Spa</t>
@@ -1775,6 +1790,10 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2076,7 +2095,7 @@
         <v>1999.0</v>
       </c>
       <c r="D3" s="2">
-        <v>296.0</v>
+        <v>308.0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -2157,10 +2176,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>2011.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D5" s="2">
-        <v>256.0</v>
+        <v>257.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -2199,10 +2218,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="2">
-        <v>2006.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D6" s="2">
-        <v>253.0</v>
+        <v>256.0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -2499,7 +2518,7 @@
         <v>127.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>63</v>
@@ -2709,7 +2728,7 @@
         <v>91.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>84</v>
@@ -2748,7 +2767,7 @@
         <v>2010.0</v>
       </c>
       <c r="D19" s="2">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>88</v>
@@ -2793,7 +2812,7 @@
         <v>83.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>91</v>
@@ -3087,7 +3106,7 @@
         <v>58.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>122</v>
@@ -3129,7 +3148,7 @@
         <v>54.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>125</v>
@@ -3171,7 +3190,7 @@
         <v>50.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>129</v>
@@ -3213,7 +3232,7 @@
         <v>50.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>132</v>
@@ -3246,7 +3265,7 @@
         <v>134</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
         <v>1953.0</v>
@@ -3297,7 +3316,7 @@
         <v>49.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>116</v>
@@ -3339,7 +3358,7 @@
         <v>47.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>142</v>
@@ -3465,7 +3484,7 @@
         <v>45.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>153</v>
@@ -3591,7 +3610,7 @@
         <v>42.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>164</v>
@@ -3633,7 +3652,7 @@
         <v>41.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>168</v>
@@ -3675,7 +3694,7 @@
         <v>40.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>171</v>
@@ -3717,7 +3736,7 @@
         <v>36.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>174</v>
@@ -3759,7 +3778,7 @@
         <v>36.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>177</v>
@@ -3801,7 +3820,7 @@
         <v>32.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>181</v>
@@ -3843,7 +3862,7 @@
         <v>31.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>57</v>
@@ -3960,7 +3979,7 @@
         <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2">
         <v>1970.0</v>
@@ -3969,7 +3988,7 @@
         <v>29.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>194</v>
@@ -4053,7 +4072,7 @@
         <v>28.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>180</v>
@@ -4095,7 +4114,7 @@
         <v>27.0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>203</v>
@@ -4263,7 +4282,7 @@
         <v>25.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>18</v>
@@ -4389,7 +4408,7 @@
         <v>24.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>18</v>
@@ -4431,7 +4450,7 @@
         <v>24.0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>231</v>
@@ -4557,7 +4576,7 @@
         <v>23.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>241</v>
@@ -4641,7 +4660,7 @@
         <v>23.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>249</v>
@@ -4683,7 +4702,7 @@
         <v>22.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>43</v>
@@ -4725,7 +4744,7 @@
         <v>22.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>87</v>
@@ -4809,7 +4828,7 @@
         <v>21.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>261</v>
@@ -4851,7 +4870,7 @@
         <v>20.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>264</v>
@@ -4893,7 +4912,7 @@
         <v>20.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>267</v>
@@ -4935,7 +4954,7 @@
         <v>20.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>270</v>
@@ -5019,7 +5038,7 @@
         <v>19.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>38</v>
@@ -5061,7 +5080,7 @@
         <v>19.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>278</v>
@@ -5103,7 +5122,7 @@
         <v>19.0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>103</v>
@@ -5187,7 +5206,7 @@
         <v>18.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>153</v>
@@ -5229,7 +5248,7 @@
         <v>18.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>288</v>
@@ -5271,7 +5290,7 @@
         <v>18.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>291</v>
@@ -5355,7 +5374,7 @@
         <v>17.0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>297</v>
@@ -5397,7 +5416,7 @@
         <v>17.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>18</v>
@@ -5439,7 +5458,7 @@
         <v>17.0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>38</v>
@@ -5472,7 +5491,7 @@
         <v>303</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C84" s="2">
         <v>1977.0</v>
@@ -5481,10 +5500,10 @@
         <v>17.0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>304</v>
@@ -5523,7 +5542,7 @@
         <v>17.0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>87</v>
@@ -5556,7 +5575,7 @@
         <v>307</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C86" s="2">
         <v>2015.0</v>
@@ -5565,10 +5584,10 @@
         <v>17.0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>308</v>
@@ -5607,7 +5626,7 @@
         <v>16.0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>310</v>
@@ -5649,7 +5668,7 @@
         <v>16.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>314</v>
@@ -5682,22 +5701,22 @@
         <v>316</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>62</v>
+        <v>317</v>
       </c>
       <c r="C89" s="2">
-        <v>2013.0</v>
+        <v>2001.0</v>
       </c>
       <c r="D89" s="2">
         <v>16.0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5721,22 +5740,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="C90" s="2">
-        <v>1976.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D90" s="2">
         <v>16.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>321</v>
@@ -5766,22 +5785,22 @@
         <v>322</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>323</v>
       </c>
       <c r="C91" s="2">
-        <v>1999.0</v>
+        <v>1976.0</v>
       </c>
       <c r="D91" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5805,25 +5824,25 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2">
-        <v>2007.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D92" s="2">
         <v>15.0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5847,25 +5866,25 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C93" s="2">
-        <v>2018.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D93" s="2">
         <v>15.0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5889,19 +5908,19 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="C94" s="2">
-        <v>2001.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D94" s="2">
         <v>15.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>333</v>
@@ -5985,7 +6004,7 @@
         <v>14.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>340</v>
@@ -6069,7 +6088,7 @@
         <v>14.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>347</v>
@@ -6111,7 +6130,7 @@
         <v>14.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>351</v>
@@ -6153,7 +6172,7 @@
         <v>14.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>313</v>
@@ -6195,7 +6214,7 @@
         <v>14.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>356</v>
@@ -6268,7 +6287,7 @@
         <v>361</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C103" s="2">
         <v>1994.0</v>
@@ -6277,7 +6296,7 @@
         <v>14.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>362</v>
@@ -6361,7 +6380,7 @@
         <v>13.0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>370</v>
@@ -6394,22 +6413,20 @@
         <v>372</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>373</v>
       </c>
       <c r="C106" s="2">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D106" s="2">
         <v>13.0</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>57</v>
+        <v>374</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6433,25 +6450,25 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2">
-        <v>1980.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D107" s="2">
         <v>13.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -6475,25 +6492,25 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C108" s="2">
-        <v>1983.0</v>
+        <v>1980.0</v>
       </c>
       <c r="D108" s="2">
         <v>13.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6517,25 +6534,25 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="C109" s="2">
-        <v>2020.0</v>
+        <v>1983.0</v>
       </c>
       <c r="D109" s="2">
         <v>13.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -6559,22 +6576,22 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="C110" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D110" s="2">
         <v>13.0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>383</v>
@@ -6604,10 +6621,10 @@
         <v>384</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C111" s="2">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D111" s="2">
         <v>13.0</v>
@@ -6646,22 +6663,22 @@
         <v>388</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="C112" s="2">
-        <v>2010.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D112" s="2">
         <v>13.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -6685,25 +6702,25 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="C113" s="2">
-        <v>2017.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D113" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>23</v>
+        <v>393</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -6727,25 +6744,25 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="C114" s="2">
-        <v>2023.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D114" s="2">
         <v>12.0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>394</v>
+        <v>28</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -6769,25 +6786,25 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C115" s="2">
-        <v>2017.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D115" s="2">
         <v>12.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>167</v>
+        <v>398</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -6811,25 +6828,25 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="C116" s="2">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D116" s="2">
         <v>12.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -6853,25 +6870,25 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="C117" s="2">
-        <v>1990.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D117" s="2">
         <v>12.0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6895,25 +6912,25 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="C118" s="2">
-        <v>2023.0</v>
+        <v>1990.0</v>
       </c>
       <c r="D118" s="2">
         <v>12.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>404</v>
+        <v>18</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6937,24 +6954,26 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>407</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2">
-        <v>2006.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D119" s="2">
         <v>12.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G119" s="1"/>
+        <v>408</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -6977,26 +6996,24 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
       </c>
       <c r="C120" s="2">
-        <v>1964.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D120" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>409</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -7019,25 +7036,25 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C121" s="2">
-        <v>1993.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D121" s="2">
         <v>11.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -7061,22 +7078,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="C122" s="2">
-        <v>1958.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D122" s="2">
         <v>11.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>413</v>
+        <v>18</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>414</v>
@@ -7106,22 +7123,22 @@
         <v>415</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="C123" s="2">
-        <v>1950.0</v>
+        <v>1958.0</v>
       </c>
       <c r="D123" s="2">
         <v>11.0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -7145,22 +7162,22 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="C124" s="2">
-        <v>1947.0</v>
+        <v>1950.0</v>
       </c>
       <c r="D124" s="2">
         <v>11.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>419</v>
@@ -7190,16 +7207,16 @@
         <v>420</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="C125" s="2">
-        <v>2007.0</v>
+        <v>1947.0</v>
       </c>
       <c r="D125" s="2">
         <v>11.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>421</v>
@@ -7232,16 +7249,16 @@
         <v>423</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C126" s="2">
-        <v>2011.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D126" s="2">
         <v>11.0</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>424</v>
@@ -7274,14 +7291,16 @@
         <v>426</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2011.0</v>
+      </c>
       <c r="D127" s="2">
         <v>11.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>427</v>
@@ -7314,22 +7333,20 @@
         <v>429</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="2">
-        <v>2022.0</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C128" s="1"/>
       <c r="D128" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>157</v>
+        <v>430</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -7353,22 +7370,22 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C129" s="2">
-        <v>2016.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D129" s="2">
         <v>10.0</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>432</v>
+        <v>157</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>433</v>
@@ -7398,16 +7415,16 @@
         <v>434</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C130" s="2">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D130" s="2">
         <v>10.0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>435</v>
@@ -7440,22 +7457,22 @@
         <v>437</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C131" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D131" s="2">
         <v>10.0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -7479,25 +7496,25 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2">
-        <v>2022.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D132" s="2">
         <v>10.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -7521,19 +7538,19 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2">
-        <v>2018.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D133" s="2">
         <v>10.0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>24</v>
+        <v>443</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>444</v>
@@ -7566,16 +7583,16 @@
         <v>446</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="C134" s="2">
-        <v>2015.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D134" s="2">
         <v>10.0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>447</v>
@@ -7608,22 +7625,22 @@
         <v>449</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="C135" s="2">
-        <v>2005.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D135" s="2">
         <v>10.0</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -7647,22 +7664,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="C136" s="2">
-        <v>1999.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D136" s="2">
         <v>10.0</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>453</v>
@@ -7692,22 +7709,22 @@
         <v>454</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="C137" s="2">
-        <v>2019.0</v>
+        <v>1999.0</v>
       </c>
       <c r="D137" s="2">
         <v>10.0</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>57</v>
+        <v>455</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -7731,25 +7748,25 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C138" s="2">
-        <v>2009.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D138" s="2">
         <v>10.0</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -7773,25 +7790,25 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="C139" s="2">
-        <v>2002.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D139" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -7815,25 +7832,25 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="C140" s="2">
-        <v>1951.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D140" s="2">
         <v>9.0</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -7857,25 +7874,25 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="C141" s="2">
-        <v>2021.0</v>
+        <v>1951.0</v>
       </c>
       <c r="D141" s="2">
         <v>9.0</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -7899,22 +7916,22 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C142" s="2">
-        <v>1998.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D142" s="2">
         <v>9.0</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>465</v>
+        <v>38</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>466</v>
@@ -7944,22 +7961,22 @@
         <v>467</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="C143" s="2">
-        <v>2003.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D143" s="2">
         <v>9.0</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -7983,25 +8000,25 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C144" s="2">
-        <v>2019.0</v>
+        <v>2003.0</v>
       </c>
       <c r="D144" s="2">
         <v>9.0</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -8025,20 +8042,22 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C145" s="2">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D145" s="2">
         <v>9.0</v>
       </c>
-      <c r="E145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F145" s="1" t="s">
-        <v>472</v>
+        <v>87</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>473</v>
@@ -8068,7 +8087,7 @@
         <v>474</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C146" s="2">
         <v>2021.0</v>
@@ -8076,9 +8095,7 @@
       <c r="D146" s="2">
         <v>9.0</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
         <v>475</v>
       </c>
@@ -8110,22 +8127,22 @@
         <v>477</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>313</v>
+        <v>48</v>
       </c>
       <c r="C147" s="2">
-        <v>1998.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D147" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -8149,22 +8166,22 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="C148" s="2">
-        <v>2016.0</v>
+        <v>1998.0</v>
       </c>
       <c r="D148" s="2">
         <v>8.0</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>480</v>
+        <v>313</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>481</v>
@@ -8194,22 +8211,22 @@
         <v>482</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C149" s="2">
-        <v>2004.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D149" s="2">
         <v>8.0</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>8</v>
+        <v>483</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -8233,25 +8250,25 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C150" s="2">
-        <v>2017.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D150" s="2">
         <v>8.0</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -8275,25 +8292,25 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C151" s="2">
-        <v>2014.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D151" s="2">
         <v>8.0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8317,20 +8334,26 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B152" s="1"/>
+        <v>489</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C152" s="2">
-        <v>2021.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D152" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="E152" s="1"/>
+        <v>8.0</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F152" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G152" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -8353,26 +8376,20 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="B153" s="1"/>
       <c r="C153" s="2">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D153" s="2">
         <v>7.0</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>491</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -8395,20 +8412,22 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>493</v>
+        <v>38</v>
       </c>
       <c r="C154" s="2">
-        <v>2009.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D154" s="2">
         <v>7.0</v>
       </c>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F154" s="1" t="s">
-        <v>493</v>
+        <v>38</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>494</v>
@@ -8438,19 +8457,17 @@
         <v>495</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="C155" s="2">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D155" s="2">
         <v>7.0</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>497</v>
@@ -8480,22 +8497,22 @@
         <v>498</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="C156" s="2">
-        <v>2018.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D156" s="2">
         <v>7.0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>350</v>
+        <v>18</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -8519,25 +8536,25 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="C157" s="2">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D157" s="2">
         <v>7.0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -8561,25 +8578,25 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C158" s="2">
-        <v>1981.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D158" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -8603,23 +8620,25 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="C159" s="2">
-        <v>1964.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D159" s="2">
         <v>6.0</v>
       </c>
-      <c r="E159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F159" s="1" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -8643,25 +8662,23 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C160" s="2">
-        <v>2009.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D160" s="2">
         <v>6.0</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -8685,25 +8702,25 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C161" s="2">
-        <v>2018.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D161" s="2">
         <v>6.0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -8727,22 +8744,22 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C162" s="2">
-        <v>1966.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D162" s="2">
         <v>6.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>511</v>
+        <v>57</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>512</v>
@@ -8772,19 +8789,19 @@
         <v>513</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="C163" s="2">
-        <v>2010.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D163" s="2">
         <v>6.0</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>515</v>
@@ -8814,7 +8831,7 @@
         <v>516</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>87</v>
+        <v>421</v>
       </c>
       <c r="C164" s="2">
         <v>2010.0</v>
@@ -8823,10 +8840,10 @@
         <v>6.0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>24</v>
+        <v>517</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>517</v>
+        <v>421</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>518</v>
@@ -8856,22 +8873,22 @@
         <v>519</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C165" s="2">
-        <v>2023.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D165" s="2">
         <v>6.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8895,25 +8912,25 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C166" s="2">
-        <v>1985.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D166" s="2">
         <v>6.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8937,25 +8954,25 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2">
-        <v>2018.0</v>
+        <v>1985.0</v>
       </c>
       <c r="D167" s="2">
         <v>6.0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8979,25 +8996,25 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C168" s="2">
-        <v>2019.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D168" s="2">
         <v>6.0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -9021,22 +9038,22 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>528</v>
+        <v>13</v>
       </c>
       <c r="C169" s="2">
-        <v>2006.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D169" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>528</v>
+        <v>13</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>529</v>
@@ -9066,20 +9083,22 @@
         <v>530</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>180</v>
+        <v>531</v>
       </c>
       <c r="C170" s="2">
-        <v>1981.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D170" s="2">
         <v>5.0</v>
       </c>
-      <c r="E170" s="1"/>
+      <c r="E170" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F170" s="1" t="s">
-        <v>180</v>
+        <v>531</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -9103,25 +9122,23 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="C171" s="2">
-        <v>2012.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D171" s="2">
         <v>5.0</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -9145,23 +9162,25 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C172" s="2">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D172" s="2">
         <v>5.0</v>
       </c>
-      <c r="E172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F172" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -9185,25 +9204,23 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="C173" s="2">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D173" s="2">
         <v>5.0</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -9227,22 +9244,22 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="C174" s="2">
-        <v>1978.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D174" s="2">
         <v>5.0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>539</v>
+        <v>206</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>540</v>
@@ -9272,22 +9289,22 @@
         <v>541</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C175" s="2">
-        <v>2021.0</v>
+        <v>1978.0</v>
       </c>
       <c r="D175" s="2">
         <v>5.0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>18</v>
+        <v>542</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -9311,25 +9328,25 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C176" s="2">
-        <v>2002.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D176" s="2">
         <v>5.0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -9353,22 +9370,22 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C177" s="2">
-        <v>2022.0</v>
+        <v>2002.0</v>
       </c>
       <c r="D177" s="2">
         <v>5.0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>546</v>
+        <v>62</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>547</v>
@@ -9398,22 +9415,22 @@
         <v>548</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C178" s="2">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D178" s="2">
         <v>5.0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>189</v>
+        <v>549</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9437,23 +9454,25 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="C179" s="2">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D179" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E179" s="1"/>
+        <v>5.0</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F179" s="1" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -9477,25 +9496,23 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="C180" s="2">
-        <v>1993.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D180" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="E180" s="1"/>
       <c r="F180" s="1" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -9519,23 +9536,25 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="C181" s="2">
-        <v>2025.0</v>
+        <v>1993.0</v>
       </c>
       <c r="D181" s="2">
         <v>3.0</v>
       </c>
-      <c r="E181" s="1"/>
+      <c r="E181" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F181" s="1" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -9559,23 +9578,23 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="C182" s="2">
-        <v>2006.0</v>
+        <v>2025.0</v>
       </c>
       <c r="D182" s="2">
         <v>3.0</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -9599,25 +9618,23 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="C183" s="2">
-        <v>2018.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D183" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="E183" s="1"/>
       <c r="F183" s="1" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -9641,20 +9658,22 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>561</v>
+        <v>28</v>
       </c>
       <c r="C184" s="2">
-        <v>2003.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D184" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E184" s="1"/>
+        <v>2.0</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F184" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>562</v>
@@ -9684,18 +9703,20 @@
         <v>563</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C185" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C185" s="2">
+        <v>2005.0</v>
+      </c>
       <c r="D185" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -9718,13 +9739,25 @@
       <c r="Z185" s="1"/>
     </row>
     <row r="186">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C186" s="2">
+        <v>2003.0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>567</v>
+      </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -9746,13 +9779,23 @@
       <c r="Z186" s="1"/>
     </row>
     <row r="187">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="D187" s="2">
+        <v>1.0</v>
+      </c>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>570</v>
+      </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -32657,7 +32700,7 @@
     <hyperlink r:id="rId116" ref="G116"/>
     <hyperlink r:id="rId117" ref="G117"/>
     <hyperlink r:id="rId118" ref="G118"/>
-    <hyperlink r:id="rId119" ref="G120"/>
+    <hyperlink r:id="rId119" ref="G119"/>
     <hyperlink r:id="rId120" ref="G121"/>
     <hyperlink r:id="rId121" ref="G122"/>
     <hyperlink r:id="rId122" ref="G123"/>
@@ -32689,7 +32732,7 @@
     <hyperlink r:id="rId148" ref="G149"/>
     <hyperlink r:id="rId149" ref="G150"/>
     <hyperlink r:id="rId150" ref="G151"/>
-    <hyperlink r:id="rId151" ref="G153"/>
+    <hyperlink r:id="rId151" ref="G152"/>
     <hyperlink r:id="rId152" ref="G154"/>
     <hyperlink r:id="rId153" ref="G155"/>
     <hyperlink r:id="rId154" ref="G156"/>
@@ -32722,7 +32765,9 @@
     <hyperlink r:id="rId181" ref="G183"/>
     <hyperlink r:id="rId182" ref="G184"/>
     <hyperlink r:id="rId183" ref="G185"/>
+    <hyperlink r:id="rId184" ref="G186"/>
+    <hyperlink r:id="rId185" ref="G187"/>
   </hyperlinks>
-  <drawing r:id="rId184"/>
+  <drawing r:id="rId186"/>
 </worksheet>
 </file>